--- a/BackTest/2020-01-21 BackTest MTL.xlsx
+++ b/BackTest/2020-01-21 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M333"/>
+  <dimension ref="A1:M334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>285.8</v>
+        <v>284.1</v>
       </c>
       <c r="C2" t="n">
-        <v>285.8</v>
+        <v>284.1</v>
       </c>
       <c r="D2" t="n">
-        <v>285.8</v>
+        <v>284.1</v>
       </c>
       <c r="E2" t="n">
-        <v>285.8</v>
+        <v>284.1</v>
       </c>
       <c r="F2" t="n">
-        <v>393.5042</v>
+        <v>1918.9016</v>
       </c>
       <c r="G2" t="n">
-        <v>287.9133333333329</v>
+        <v>287.9899999999996</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>285.8</v>
       </c>
       <c r="F3" t="n">
-        <v>350.284</v>
+        <v>393.5042</v>
       </c>
       <c r="G3" t="n">
-        <v>287.8583333333329</v>
+        <v>287.9133333333329</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>286</v>
+        <v>285.8</v>
       </c>
       <c r="C4" t="n">
-        <v>286.1</v>
+        <v>285.8</v>
       </c>
       <c r="D4" t="n">
-        <v>286.1</v>
+        <v>285.8</v>
       </c>
       <c r="E4" t="n">
-        <v>286</v>
+        <v>285.8</v>
       </c>
       <c r="F4" t="n">
-        <v>32</v>
+        <v>350.284</v>
       </c>
       <c r="G4" t="n">
-        <v>287.8066666666662</v>
+        <v>287.8583333333329</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>286</v>
       </c>
       <c r="C5" t="n">
-        <v>286</v>
+        <v>286.1</v>
       </c>
       <c r="D5" t="n">
-        <v>286</v>
+        <v>286.1</v>
       </c>
       <c r="E5" t="n">
         <v>286</v>
       </c>
       <c r="F5" t="n">
-        <v>277.6829</v>
+        <v>32</v>
       </c>
       <c r="G5" t="n">
-        <v>287.7649999999995</v>
+        <v>287.8066666666662</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C6" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D6" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E6" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F6" t="n">
-        <v>708.3718</v>
+        <v>277.6829</v>
       </c>
       <c r="G6" t="n">
-        <v>287.6899999999995</v>
+        <v>287.7649999999995</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C7" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D7" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E7" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F7" t="n">
-        <v>4.5166</v>
+        <v>708.3718</v>
       </c>
       <c r="G7" t="n">
-        <v>287.6533333333329</v>
+        <v>287.6899999999995</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>284.1</v>
+        <v>286</v>
       </c>
       <c r="C8" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D8" t="n">
-        <v>284.1</v>
+        <v>286</v>
       </c>
       <c r="E8" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F8" t="n">
-        <v>3198.8644</v>
+        <v>4.5166</v>
       </c>
       <c r="G8" t="n">
-        <v>287.5683333333329</v>
+        <v>287.6533333333329</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>284</v>
+        <v>284.1</v>
       </c>
       <c r="C9" t="n">
         <v>284</v>
       </c>
       <c r="D9" t="n">
-        <v>284</v>
+        <v>284.1</v>
       </c>
       <c r="E9" t="n">
         <v>284</v>
       </c>
       <c r="F9" t="n">
-        <v>2070.7268</v>
+        <v>3198.8644</v>
       </c>
       <c r="G9" t="n">
-        <v>287.4999999999996</v>
+        <v>287.5683333333329</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C10" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D10" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E10" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F10" t="n">
-        <v>21.3286</v>
+        <v>2070.7268</v>
       </c>
       <c r="G10" t="n">
-        <v>287.4666666666662</v>
+        <v>287.4999999999996</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>286.6</v>
+        <v>286</v>
       </c>
       <c r="C11" t="n">
-        <v>286.6</v>
+        <v>286</v>
       </c>
       <c r="D11" t="n">
-        <v>286.6</v>
+        <v>286</v>
       </c>
       <c r="E11" t="n">
-        <v>286.6</v>
+        <v>286</v>
       </c>
       <c r="F11" t="n">
-        <v>523.0638</v>
+        <v>21.3286</v>
       </c>
       <c r="G11" t="n">
-        <v>287.4433333333329</v>
+        <v>287.4666666666662</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>286</v>
+        <v>286.6</v>
       </c>
       <c r="C12" t="n">
-        <v>286</v>
+        <v>286.6</v>
       </c>
       <c r="D12" t="n">
-        <v>286</v>
+        <v>286.6</v>
       </c>
       <c r="E12" t="n">
-        <v>286</v>
+        <v>286.6</v>
       </c>
       <c r="F12" t="n">
-        <v>711.4098</v>
+        <v>523.0638</v>
       </c>
       <c r="G12" t="n">
-        <v>287.4099999999996</v>
+        <v>287.4433333333329</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>286</v>
       </c>
       <c r="C13" t="n">
-        <v>286.6</v>
+        <v>286</v>
       </c>
       <c r="D13" t="n">
-        <v>286.6</v>
+        <v>286</v>
       </c>
       <c r="E13" t="n">
         <v>286</v>
       </c>
       <c r="F13" t="n">
-        <v>288.8374</v>
+        <v>711.4098</v>
       </c>
       <c r="G13" t="n">
-        <v>287.3866666666662</v>
+        <v>287.4099999999996</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>286.2</v>
+        <v>286</v>
       </c>
       <c r="C14" t="n">
-        <v>286</v>
+        <v>286.6</v>
       </c>
       <c r="D14" t="n">
-        <v>286.2</v>
+        <v>286.6</v>
       </c>
       <c r="E14" t="n">
         <v>286</v>
       </c>
       <c r="F14" t="n">
-        <v>146.2108</v>
+        <v>288.8374</v>
       </c>
       <c r="G14" t="n">
-        <v>287.3533333333328</v>
+        <v>287.3866666666662</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>285.7</v>
+        <v>286.2</v>
       </c>
       <c r="C15" t="n">
-        <v>285.7</v>
+        <v>286</v>
       </c>
       <c r="D15" t="n">
-        <v>285.7</v>
+        <v>286.2</v>
       </c>
       <c r="E15" t="n">
-        <v>285.7</v>
+        <v>286</v>
       </c>
       <c r="F15" t="n">
-        <v>76.26609999999999</v>
+        <v>146.2108</v>
       </c>
       <c r="G15" t="n">
-        <v>287.3149999999995</v>
+        <v>287.3533333333328</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>284.1</v>
+        <v>285.7</v>
       </c>
       <c r="C16" t="n">
-        <v>284.1</v>
+        <v>285.7</v>
       </c>
       <c r="D16" t="n">
-        <v>284.1</v>
+        <v>285.7</v>
       </c>
       <c r="E16" t="n">
-        <v>284.1</v>
+        <v>285.7</v>
       </c>
       <c r="F16" t="n">
-        <v>2000</v>
+        <v>76.26609999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>287.2399999999996</v>
+        <v>287.3149999999995</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>286</v>
+        <v>284.1</v>
       </c>
       <c r="C17" t="n">
-        <v>286.1</v>
+        <v>284.1</v>
       </c>
       <c r="D17" t="n">
-        <v>286.1</v>
+        <v>284.1</v>
       </c>
       <c r="E17" t="n">
-        <v>286</v>
+        <v>284.1</v>
       </c>
       <c r="F17" t="n">
-        <v>6648.2952</v>
+        <v>2000</v>
       </c>
       <c r="G17" t="n">
-        <v>287.1983333333329</v>
+        <v>287.2399999999996</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>284.1</v>
+        <v>286</v>
       </c>
       <c r="C18" t="n">
-        <v>284.1</v>
+        <v>286.1</v>
       </c>
       <c r="D18" t="n">
-        <v>284.1</v>
+        <v>286.1</v>
       </c>
       <c r="E18" t="n">
-        <v>284.1</v>
+        <v>286</v>
       </c>
       <c r="F18" t="n">
-        <v>313.5519</v>
+        <v>6648.2952</v>
       </c>
       <c r="G18" t="n">
-        <v>287.1233333333329</v>
+        <v>287.1983333333329</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>284.5</v>
+        <v>284.1</v>
       </c>
       <c r="C19" t="n">
         <v>284.1</v>
       </c>
       <c r="D19" t="n">
-        <v>284.5</v>
+        <v>284.1</v>
       </c>
       <c r="E19" t="n">
         <v>284.1</v>
       </c>
       <c r="F19" t="n">
-        <v>188.4411</v>
+        <v>313.5519</v>
       </c>
       <c r="G19" t="n">
-        <v>287.0483333333329</v>
+        <v>287.1233333333329</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>285.8</v>
+        <v>284.5</v>
       </c>
       <c r="C20" t="n">
-        <v>285.8</v>
+        <v>284.1</v>
       </c>
       <c r="D20" t="n">
-        <v>285.8</v>
+        <v>284.5</v>
       </c>
       <c r="E20" t="n">
-        <v>285.8</v>
+        <v>284.1</v>
       </c>
       <c r="F20" t="n">
-        <v>2777.8109</v>
+        <v>188.4411</v>
       </c>
       <c r="G20" t="n">
-        <v>286.9833333333328</v>
+        <v>287.0483333333329</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>285.8</v>
       </c>
       <c r="F21" t="n">
-        <v>16.925</v>
+        <v>2777.8109</v>
       </c>
       <c r="G21" t="n">
-        <v>286.9366666666662</v>
+        <v>286.9833333333328</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>285.8</v>
       </c>
       <c r="F22" t="n">
-        <v>10.6515</v>
+        <v>16.925</v>
       </c>
       <c r="G22" t="n">
-        <v>286.8899999999995</v>
+        <v>286.9366666666662</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>285.8</v>
       </c>
       <c r="F23" t="n">
-        <v>434.6126</v>
+        <v>10.6515</v>
       </c>
       <c r="G23" t="n">
-        <v>286.8433333333329</v>
+        <v>286.8899999999995</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>286.9</v>
+        <v>285.8</v>
       </c>
       <c r="C24" t="n">
-        <v>286.9</v>
+        <v>285.8</v>
       </c>
       <c r="D24" t="n">
-        <v>286.9</v>
+        <v>285.8</v>
       </c>
       <c r="E24" t="n">
-        <v>286.9</v>
+        <v>285.8</v>
       </c>
       <c r="F24" t="n">
-        <v>1.8</v>
+        <v>434.6126</v>
       </c>
       <c r="G24" t="n">
-        <v>286.8149999999996</v>
+        <v>286.8433333333329</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,19 +1238,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>286.5</v>
+        <v>286.9</v>
       </c>
       <c r="C25" t="n">
-        <v>286</v>
+        <v>286.9</v>
       </c>
       <c r="D25" t="n">
-        <v>286.5</v>
+        <v>286.9</v>
       </c>
       <c r="E25" t="n">
-        <v>286</v>
+        <v>286.9</v>
       </c>
       <c r="F25" t="n">
-        <v>1319.74</v>
+        <v>1.8</v>
       </c>
       <c r="G25" t="n">
         <v>286.8149999999996</v>
@@ -1273,19 +1273,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>286</v>
+        <v>286.5</v>
       </c>
       <c r="C26" t="n">
         <v>286</v>
       </c>
       <c r="D26" t="n">
-        <v>286</v>
+        <v>286.5</v>
       </c>
       <c r="E26" t="n">
         <v>286</v>
       </c>
       <c r="F26" t="n">
-        <v>2929.5855</v>
+        <v>1319.74</v>
       </c>
       <c r="G26" t="n">
         <v>286.8149999999996</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>286.9</v>
+        <v>286</v>
       </c>
       <c r="C27" t="n">
-        <v>286.9</v>
+        <v>286</v>
       </c>
       <c r="D27" t="n">
-        <v>286.9</v>
+        <v>286</v>
       </c>
       <c r="E27" t="n">
-        <v>286.9</v>
+        <v>286</v>
       </c>
       <c r="F27" t="n">
-        <v>15.48971767</v>
+        <v>2929.5855</v>
       </c>
       <c r="G27" t="n">
-        <v>286.8166666666663</v>
+        <v>286.8149999999996</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>286</v>
+        <v>286.9</v>
       </c>
       <c r="C28" t="n">
-        <v>286</v>
+        <v>286.9</v>
       </c>
       <c r="D28" t="n">
-        <v>286</v>
+        <v>286.9</v>
       </c>
       <c r="E28" t="n">
-        <v>286</v>
+        <v>286.9</v>
       </c>
       <c r="F28" t="n">
-        <v>16900.2142</v>
+        <v>15.48971767</v>
       </c>
       <c r="G28" t="n">
-        <v>286.783333333333</v>
+        <v>286.8166666666663</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>286</v>
       </c>
       <c r="F29" t="n">
-        <v>1886.0031</v>
+        <v>16900.2142</v>
       </c>
       <c r="G29" t="n">
-        <v>286.7499999999997</v>
+        <v>286.783333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>286.9</v>
+        <v>286</v>
       </c>
       <c r="C30" t="n">
-        <v>286.9</v>
+        <v>286</v>
       </c>
       <c r="D30" t="n">
-        <v>286.9</v>
+        <v>286</v>
       </c>
       <c r="E30" t="n">
-        <v>286.9</v>
+        <v>286</v>
       </c>
       <c r="F30" t="n">
-        <v>92.9487</v>
+        <v>1886.0031</v>
       </c>
       <c r="G30" t="n">
-        <v>286.778333333333</v>
+        <v>286.7499999999997</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>286.9</v>
       </c>
       <c r="F31" t="n">
-        <v>1512.5621</v>
+        <v>92.9487</v>
       </c>
       <c r="G31" t="n">
-        <v>286.7666666666664</v>
+        <v>286.778333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>286</v>
+        <v>286.9</v>
       </c>
       <c r="C32" t="n">
         <v>286.9</v>
@@ -1492,13 +1492,13 @@
         <v>286.9</v>
       </c>
       <c r="E32" t="n">
-        <v>286</v>
+        <v>286.9</v>
       </c>
       <c r="F32" t="n">
-        <v>1531.48931767</v>
+        <v>1512.5621</v>
       </c>
       <c r="G32" t="n">
-        <v>286.7816666666664</v>
+        <v>286.7666666666664</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>286</v>
       </c>
       <c r="C33" t="n">
-        <v>286</v>
+        <v>286.9</v>
       </c>
       <c r="D33" t="n">
-        <v>286</v>
+        <v>286.9</v>
       </c>
       <c r="E33" t="n">
         <v>286</v>
       </c>
       <c r="F33" t="n">
-        <v>3900.0279</v>
+        <v>1531.48931767</v>
       </c>
       <c r="G33" t="n">
-        <v>286.7566666666664</v>
+        <v>286.7816666666664</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>285.6</v>
+        <v>286</v>
       </c>
       <c r="C34" t="n">
         <v>286</v>
@@ -1562,13 +1562,13 @@
         <v>286</v>
       </c>
       <c r="E34" t="n">
-        <v>285.6</v>
+        <v>286</v>
       </c>
       <c r="F34" t="n">
-        <v>4231.4296</v>
+        <v>3900.0279</v>
       </c>
       <c r="G34" t="n">
-        <v>286.7366666666664</v>
+        <v>286.7566666666664</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>285.6</v>
+      </c>
+      <c r="C35" t="n">
         <v>286</v>
-      </c>
-      <c r="C35" t="n">
-        <v>285.6</v>
       </c>
       <c r="D35" t="n">
         <v>286</v>
@@ -1600,10 +1600,10 @@
         <v>285.6</v>
       </c>
       <c r="F35" t="n">
-        <v>7997.8937</v>
+        <v>4231.4296</v>
       </c>
       <c r="G35" t="n">
-        <v>286.7599999999996</v>
+        <v>286.7366666666664</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>286</v>
       </c>
       <c r="C36" t="n">
-        <v>286</v>
+        <v>285.6</v>
       </c>
       <c r="D36" t="n">
         <v>286</v>
       </c>
       <c r="E36" t="n">
-        <v>286</v>
+        <v>285.6</v>
       </c>
       <c r="F36" t="n">
-        <v>3801.1165</v>
+        <v>7997.8937</v>
       </c>
       <c r="G36" t="n">
-        <v>286.7216666666664</v>
+        <v>286.7599999999996</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>286</v>
       </c>
       <c r="C37" t="n">
-        <v>286.9</v>
+        <v>286</v>
       </c>
       <c r="D37" t="n">
-        <v>286.9</v>
+        <v>286</v>
       </c>
       <c r="E37" t="n">
         <v>286</v>
       </c>
       <c r="F37" t="n">
-        <v>476.1001</v>
+        <v>3801.1165</v>
       </c>
       <c r="G37" t="n">
-        <v>286.7349999999997</v>
+        <v>286.7216666666664</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>286</v>
+      </c>
+      <c r="C38" t="n">
         <v>286.9</v>
       </c>
-      <c r="C38" t="n">
-        <v>287</v>
-      </c>
       <c r="D38" t="n">
-        <v>287</v>
+        <v>286.9</v>
       </c>
       <c r="E38" t="n">
-        <v>286.9</v>
+        <v>286</v>
       </c>
       <c r="F38" t="n">
-        <v>1763.7305</v>
+        <v>476.1001</v>
       </c>
       <c r="G38" t="n">
-        <v>286.7183333333331</v>
+        <v>286.7349999999997</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>287</v>
+        <v>286.9</v>
       </c>
       <c r="C39" t="n">
         <v>287</v>
@@ -1737,13 +1737,13 @@
         <v>287</v>
       </c>
       <c r="E39" t="n">
-        <v>287</v>
+        <v>286.9</v>
       </c>
       <c r="F39" t="n">
-        <v>3590.43496466</v>
+        <v>1763.7305</v>
       </c>
       <c r="G39" t="n">
-        <v>286.6849999999997</v>
+        <v>286.7183333333331</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1769,16 +1769,16 @@
         <v>287</v>
       </c>
       <c r="D40" t="n">
-        <v>287.3</v>
+        <v>287</v>
       </c>
       <c r="E40" t="n">
         <v>287</v>
       </c>
       <c r="F40" t="n">
-        <v>11201.61493534</v>
+        <v>3590.43496466</v>
       </c>
       <c r="G40" t="n">
-        <v>286.6333333333331</v>
+        <v>286.6849999999997</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C41" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D41" t="n">
-        <v>286</v>
+        <v>287.3</v>
       </c>
       <c r="E41" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F41" t="n">
-        <v>5291.635</v>
+        <v>11201.61493534</v>
       </c>
       <c r="G41" t="n">
-        <v>286.5716666666664</v>
+        <v>286.6333333333331</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>287.3</v>
+        <v>286</v>
       </c>
       <c r="C42" t="n">
-        <v>287.3</v>
+        <v>286</v>
       </c>
       <c r="D42" t="n">
-        <v>287.3</v>
+        <v>286</v>
       </c>
       <c r="E42" t="n">
-        <v>287.3</v>
+        <v>286</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>5291.635</v>
       </c>
       <c r="G42" t="n">
-        <v>286.5316666666664</v>
+        <v>286.5716666666664</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1871,19 +1871,19 @@
         <v>287.3</v>
       </c>
       <c r="C43" t="n">
-        <v>287.7</v>
+        <v>287.3</v>
       </c>
       <c r="D43" t="n">
-        <v>287.7</v>
+        <v>287.3</v>
       </c>
       <c r="E43" t="n">
         <v>287.3</v>
       </c>
       <c r="F43" t="n">
-        <v>4815.9647562</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>286.4983333333331</v>
+        <v>286.5316666666664</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
+        <v>287.3</v>
+      </c>
+      <c r="C44" t="n">
         <v>287.7</v>
       </c>
-      <c r="C44" t="n">
-        <v>287.8</v>
-      </c>
       <c r="D44" t="n">
-        <v>287.8</v>
+        <v>287.7</v>
       </c>
       <c r="E44" t="n">
-        <v>287.7</v>
+        <v>287.3</v>
       </c>
       <c r="F44" t="n">
-        <v>2400</v>
+        <v>4815.9647562</v>
       </c>
       <c r="G44" t="n">
-        <v>286.4666666666664</v>
+        <v>286.4983333333331</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>286.6</v>
+        <v>287.7</v>
       </c>
       <c r="C45" t="n">
-        <v>287</v>
+        <v>287.8</v>
       </c>
       <c r="D45" t="n">
-        <v>287</v>
+        <v>287.8</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6</v>
+        <v>287.7</v>
       </c>
       <c r="F45" t="n">
-        <v>2122.3705</v>
+        <v>2400</v>
       </c>
       <c r="G45" t="n">
-        <v>286.4216666666663</v>
+        <v>286.4666666666664</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>287</v>
+        <v>286.6</v>
       </c>
       <c r="C46" t="n">
         <v>287</v>
@@ -1982,13 +1982,13 @@
         <v>287</v>
       </c>
       <c r="E46" t="n">
-        <v>287</v>
+        <v>286.6</v>
       </c>
       <c r="F46" t="n">
-        <v>710.9822</v>
+        <v>2122.3705</v>
       </c>
       <c r="G46" t="n">
-        <v>286.3766666666663</v>
+        <v>286.4216666666663</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>287</v>
       </c>
       <c r="F47" t="n">
-        <v>956.2983</v>
+        <v>710.9822</v>
       </c>
       <c r="G47" t="n">
-        <v>286.3316666666663</v>
+        <v>286.3766666666663</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>286.3</v>
+        <v>287</v>
       </c>
       <c r="C48" t="n">
-        <v>286.3</v>
+        <v>287</v>
       </c>
       <c r="D48" t="n">
-        <v>286.3</v>
+        <v>287</v>
       </c>
       <c r="E48" t="n">
-        <v>286.3</v>
+        <v>287</v>
       </c>
       <c r="F48" t="n">
-        <v>246.6808</v>
+        <v>956.2983</v>
       </c>
       <c r="G48" t="n">
-        <v>286.268333333333</v>
+        <v>286.3316666666663</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>286.3</v>
       </c>
       <c r="C49" t="n">
-        <v>286</v>
+        <v>286.3</v>
       </c>
       <c r="D49" t="n">
         <v>286.3</v>
       </c>
       <c r="E49" t="n">
-        <v>286</v>
+        <v>286.3</v>
       </c>
       <c r="F49" t="n">
-        <v>4815.9647</v>
+        <v>246.6808</v>
       </c>
       <c r="G49" t="n">
-        <v>286.1999999999997</v>
+        <v>286.268333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>286</v>
+        <v>286.3</v>
       </c>
       <c r="C50" t="n">
         <v>286</v>
       </c>
       <c r="D50" t="n">
-        <v>286</v>
+        <v>286.3</v>
       </c>
       <c r="E50" t="n">
         <v>286</v>
       </c>
       <c r="F50" t="n">
-        <v>5597.1982</v>
+        <v>4815.9647</v>
       </c>
       <c r="G50" t="n">
-        <v>286.1316666666664</v>
+        <v>286.1999999999997</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>285.6</v>
+        <v>286</v>
       </c>
       <c r="C51" t="n">
-        <v>285.6</v>
+        <v>286</v>
       </c>
       <c r="D51" t="n">
-        <v>285.6</v>
+        <v>286</v>
       </c>
       <c r="E51" t="n">
-        <v>285.6</v>
+        <v>286</v>
       </c>
       <c r="F51" t="n">
-        <v>700.8295000000001</v>
+        <v>5597.1982</v>
       </c>
       <c r="G51" t="n">
-        <v>286.0449999999997</v>
+        <v>286.1316666666664</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>285.5</v>
+        <v>285.6</v>
       </c>
       <c r="C52" t="n">
-        <v>284.5</v>
+        <v>285.6</v>
       </c>
       <c r="D52" t="n">
-        <v>285.5</v>
+        <v>285.6</v>
       </c>
       <c r="E52" t="n">
-        <v>284.5</v>
+        <v>285.6</v>
       </c>
       <c r="F52" t="n">
-        <v>19657.8409</v>
+        <v>700.8295000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>285.9516666666664</v>
+        <v>286.0449999999997</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>287</v>
+        <v>285.5</v>
       </c>
       <c r="C53" t="n">
-        <v>287</v>
+        <v>284.5</v>
       </c>
       <c r="D53" t="n">
-        <v>287</v>
+        <v>285.5</v>
       </c>
       <c r="E53" t="n">
-        <v>287</v>
+        <v>284.5</v>
       </c>
       <c r="F53" t="n">
-        <v>34.84320557</v>
+        <v>19657.8409</v>
       </c>
       <c r="G53" t="n">
-        <v>285.8999999999997</v>
+        <v>285.9516666666664</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C54" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D54" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E54" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F54" t="n">
-        <v>150</v>
+        <v>34.84320557</v>
       </c>
       <c r="G54" t="n">
-        <v>285.8549999999997</v>
+        <v>285.8999999999997</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>286.8</v>
+        <v>285</v>
       </c>
       <c r="C55" t="n">
-        <v>287.1</v>
+        <v>285</v>
       </c>
       <c r="D55" t="n">
-        <v>287.1</v>
+        <v>285</v>
       </c>
       <c r="E55" t="n">
-        <v>286.8</v>
+        <v>285</v>
       </c>
       <c r="F55" t="n">
-        <v>2270.83270111</v>
+        <v>150</v>
       </c>
       <c r="G55" t="n">
-        <v>285.8499999999997</v>
+        <v>285.8549999999997</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>286</v>
+        <v>286.8</v>
       </c>
       <c r="C56" t="n">
-        <v>286</v>
+        <v>287.1</v>
       </c>
       <c r="D56" t="n">
-        <v>286</v>
+        <v>287.1</v>
       </c>
       <c r="E56" t="n">
-        <v>286</v>
+        <v>286.8</v>
       </c>
       <c r="F56" t="n">
-        <v>29.9107</v>
+        <v>2270.83270111</v>
       </c>
       <c r="G56" t="n">
-        <v>285.863333333333</v>
+        <v>285.8499999999997</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>286</v>
       </c>
       <c r="C57" t="n">
-        <v>284.5</v>
+        <v>286</v>
       </c>
       <c r="D57" t="n">
         <v>286</v>
       </c>
       <c r="E57" t="n">
-        <v>284.5</v>
+        <v>286</v>
       </c>
       <c r="F57" t="n">
-        <v>14467.6545</v>
+        <v>29.9107</v>
       </c>
       <c r="G57" t="n">
-        <v>285.8699999999997</v>
+        <v>285.863333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>286.6</v>
+        <v>286</v>
       </c>
       <c r="C58" t="n">
-        <v>286.6</v>
+        <v>284.5</v>
       </c>
       <c r="D58" t="n">
-        <v>286.6</v>
+        <v>286</v>
       </c>
       <c r="E58" t="n">
-        <v>286.6</v>
+        <v>284.5</v>
       </c>
       <c r="F58" t="n">
-        <v>5089</v>
+        <v>14467.6545</v>
       </c>
       <c r="G58" t="n">
-        <v>285.9283333333331</v>
+        <v>285.8699999999997</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>286.8</v>
+        <v>286.6</v>
       </c>
       <c r="C59" t="n">
         <v>286.6</v>
       </c>
       <c r="D59" t="n">
-        <v>286.8</v>
+        <v>286.6</v>
       </c>
       <c r="E59" t="n">
         <v>286.6</v>
       </c>
       <c r="F59" t="n">
-        <v>3680.3195</v>
+        <v>5089</v>
       </c>
       <c r="G59" t="n">
-        <v>285.9799999999997</v>
+        <v>285.9283333333331</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>285.5</v>
+        <v>286.8</v>
       </c>
       <c r="C60" t="n">
-        <v>285.5</v>
+        <v>286.6</v>
       </c>
       <c r="D60" t="n">
-        <v>285.5</v>
+        <v>286.8</v>
       </c>
       <c r="E60" t="n">
-        <v>285.5</v>
+        <v>286.6</v>
       </c>
       <c r="F60" t="n">
-        <v>357.0471</v>
+        <v>3680.3195</v>
       </c>
       <c r="G60" t="n">
-        <v>286.013333333333</v>
+        <v>285.9799999999997</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>285.5</v>
       </c>
       <c r="F61" t="n">
-        <v>2539.1924</v>
+        <v>357.0471</v>
       </c>
       <c r="G61" t="n">
-        <v>286.0366666666663</v>
+        <v>286.013333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>286.6</v>
+        <v>285.5</v>
       </c>
       <c r="C62" t="n">
-        <v>286.6</v>
+        <v>285.5</v>
       </c>
       <c r="D62" t="n">
-        <v>286.6</v>
+        <v>285.5</v>
       </c>
       <c r="E62" t="n">
-        <v>286.6</v>
+        <v>285.5</v>
       </c>
       <c r="F62" t="n">
-        <v>1569.5334</v>
+        <v>2539.1924</v>
       </c>
       <c r="G62" t="n">
-        <v>286.0499999999997</v>
+        <v>286.0366666666663</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2580,10 +2580,10 @@
         <v>286.6</v>
       </c>
       <c r="F63" t="n">
-        <v>187.2161</v>
+        <v>1569.5334</v>
       </c>
       <c r="G63" t="n">
-        <v>286.063333333333</v>
+        <v>286.0499999999997</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2615,10 +2615,10 @@
         <v>286.6</v>
       </c>
       <c r="F64" t="n">
-        <v>132.4791</v>
+        <v>187.2161</v>
       </c>
       <c r="G64" t="n">
-        <v>286.0716666666664</v>
+        <v>286.063333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>286.6</v>
       </c>
       <c r="F65" t="n">
-        <v>4034.7303</v>
+        <v>132.4791</v>
       </c>
       <c r="G65" t="n">
-        <v>286.0816666666663</v>
+        <v>286.0716666666664</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>286.6</v>
       </c>
       <c r="F66" t="n">
-        <v>4654.5248</v>
+        <v>4034.7303</v>
       </c>
       <c r="G66" t="n">
-        <v>286.1249999999997</v>
+        <v>286.0816666666663</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2720,10 +2720,10 @@
         <v>286.6</v>
       </c>
       <c r="F67" t="n">
-        <v>641.6517</v>
+        <v>4654.5248</v>
       </c>
       <c r="G67" t="n">
-        <v>286.1349999999996</v>
+        <v>286.1249999999997</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>285.5</v>
+        <v>286.6</v>
       </c>
       <c r="C68" t="n">
-        <v>285.5</v>
+        <v>286.6</v>
       </c>
       <c r="D68" t="n">
-        <v>285.5</v>
+        <v>286.6</v>
       </c>
       <c r="E68" t="n">
-        <v>285.5</v>
+        <v>286.6</v>
       </c>
       <c r="F68" t="n">
-        <v>195.62</v>
+        <v>641.6517</v>
       </c>
       <c r="G68" t="n">
-        <v>286.1599999999996</v>
+        <v>286.1349999999996</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>285.5</v>
       </c>
       <c r="F69" t="n">
-        <v>127.69</v>
+        <v>195.62</v>
       </c>
       <c r="G69" t="n">
-        <v>286.1849999999996</v>
+        <v>286.1599999999996</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>285.5</v>
       </c>
       <c r="F70" t="n">
-        <v>1944.4431</v>
+        <v>127.69</v>
       </c>
       <c r="G70" t="n">
-        <v>286.1766666666663</v>
+        <v>286.1849999999996</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>285</v>
+        <v>285.5</v>
       </c>
       <c r="C71" t="n">
-        <v>285</v>
+        <v>285.5</v>
       </c>
       <c r="D71" t="n">
-        <v>285</v>
+        <v>285.5</v>
       </c>
       <c r="E71" t="n">
-        <v>285</v>
+        <v>285.5</v>
       </c>
       <c r="F71" t="n">
-        <v>3592.0676</v>
+        <v>1944.4431</v>
       </c>
       <c r="G71" t="n">
-        <v>286.1499999999996</v>
+        <v>286.1766666666663</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>284.7</v>
+        <v>285</v>
       </c>
       <c r="C72" t="n">
-        <v>284.5</v>
+        <v>285</v>
       </c>
       <c r="D72" t="n">
-        <v>284.7</v>
+        <v>285</v>
       </c>
       <c r="E72" t="n">
-        <v>284.5</v>
+        <v>285</v>
       </c>
       <c r="F72" t="n">
-        <v>2407.9324</v>
+        <v>3592.0676</v>
       </c>
       <c r="G72" t="n">
-        <v>286.1249999999997</v>
+        <v>286.1499999999996</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>284.5</v>
+        <v>284.7</v>
       </c>
       <c r="C73" t="n">
         <v>284.5</v>
       </c>
       <c r="D73" t="n">
-        <v>284.5</v>
+        <v>284.7</v>
       </c>
       <c r="E73" t="n">
         <v>284.5</v>
       </c>
       <c r="F73" t="n">
-        <v>8201.6767</v>
+        <v>2407.9324</v>
       </c>
       <c r="G73" t="n">
-        <v>286.0899999999996</v>
+        <v>286.1249999999997</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>284.5</v>
       </c>
       <c r="F74" t="n">
-        <v>2000</v>
+        <v>8201.6767</v>
       </c>
       <c r="G74" t="n">
-        <v>286.0649999999997</v>
+        <v>286.0899999999996</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>284.5</v>
       </c>
       <c r="F75" t="n">
-        <v>1697.8612</v>
+        <v>2000</v>
       </c>
       <c r="G75" t="n">
-        <v>286.0449999999997</v>
+        <v>286.0649999999997</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3035,10 +3035,10 @@
         <v>284.5</v>
       </c>
       <c r="F76" t="n">
-        <v>3830.5873</v>
+        <v>1697.8612</v>
       </c>
       <c r="G76" t="n">
-        <v>286.0516666666663</v>
+        <v>286.0449999999997</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>285.5</v>
+        <v>284.5</v>
       </c>
       <c r="C77" t="n">
-        <v>285.5</v>
+        <v>284.5</v>
       </c>
       <c r="D77" t="n">
-        <v>285.5</v>
+        <v>284.5</v>
       </c>
       <c r="E77" t="n">
-        <v>285.5</v>
+        <v>284.5</v>
       </c>
       <c r="F77" t="n">
-        <v>610.1581</v>
+        <v>3830.5873</v>
       </c>
       <c r="G77" t="n">
-        <v>286.0416666666663</v>
+        <v>286.0516666666663</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>284.1</v>
+        <v>285.5</v>
       </c>
       <c r="C78" t="n">
-        <v>284</v>
+        <v>285.5</v>
       </c>
       <c r="D78" t="n">
-        <v>284.1</v>
+        <v>285.5</v>
       </c>
       <c r="E78" t="n">
-        <v>284</v>
+        <v>285.5</v>
       </c>
       <c r="F78" t="n">
-        <v>1029.469</v>
+        <v>610.1581</v>
       </c>
       <c r="G78" t="n">
-        <v>286.0399999999997</v>
+        <v>286.0416666666663</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>285.2</v>
+        <v>284.1</v>
       </c>
       <c r="C79" t="n">
-        <v>285.2</v>
+        <v>284</v>
       </c>
       <c r="D79" t="n">
-        <v>285.2</v>
+        <v>284.1</v>
       </c>
       <c r="E79" t="n">
-        <v>285.2</v>
+        <v>284</v>
       </c>
       <c r="F79" t="n">
-        <v>2693.1162</v>
+        <v>1029.469</v>
       </c>
       <c r="G79" t="n">
-        <v>286.0583333333331</v>
+        <v>286.0399999999997</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3175,10 +3175,10 @@
         <v>285.2</v>
       </c>
       <c r="F80" t="n">
-        <v>1702.9115</v>
+        <v>2693.1162</v>
       </c>
       <c r="G80" t="n">
-        <v>286.0483333333331</v>
+        <v>286.0583333333331</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>285.2</v>
       </c>
       <c r="F81" t="n">
-        <v>6065.9288</v>
+        <v>1702.9115</v>
       </c>
       <c r="G81" t="n">
-        <v>286.0383333333331</v>
+        <v>286.0483333333331</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3245,10 @@
         <v>285.2</v>
       </c>
       <c r="F82" t="n">
-        <v>30.7457</v>
+        <v>6065.9288</v>
       </c>
       <c r="G82" t="n">
-        <v>286.0283333333331</v>
+        <v>286.0383333333331</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>284.1</v>
+        <v>285.2</v>
       </c>
       <c r="C83" t="n">
-        <v>284.1</v>
+        <v>285.2</v>
       </c>
       <c r="D83" t="n">
-        <v>284.1</v>
+        <v>285.2</v>
       </c>
       <c r="E83" t="n">
-        <v>284.1</v>
+        <v>285.2</v>
       </c>
       <c r="F83" t="n">
-        <v>4625.6886</v>
+        <v>30.7457</v>
       </c>
       <c r="G83" t="n">
-        <v>285.9999999999998</v>
+        <v>286.0283333333331</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>285.5</v>
+        <v>284.1</v>
       </c>
       <c r="C84" t="n">
-        <v>284.3</v>
+        <v>284.1</v>
       </c>
       <c r="D84" t="n">
-        <v>285.5</v>
+        <v>284.1</v>
       </c>
       <c r="E84" t="n">
-        <v>284.3</v>
+        <v>284.1</v>
       </c>
       <c r="F84" t="n">
-        <v>1506.2177</v>
+        <v>4625.6886</v>
       </c>
       <c r="G84" t="n">
-        <v>285.9566666666664</v>
+        <v>285.9999999999998</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>284.2</v>
+        <v>285.5</v>
       </c>
       <c r="C85" t="n">
-        <v>284.1</v>
+        <v>284.3</v>
       </c>
       <c r="D85" t="n">
-        <v>284.2</v>
+        <v>285.5</v>
       </c>
       <c r="E85" t="n">
-        <v>284.1</v>
+        <v>284.3</v>
       </c>
       <c r="F85" t="n">
-        <v>1994.5059</v>
+        <v>1506.2177</v>
       </c>
       <c r="G85" t="n">
-        <v>285.9249999999998</v>
+        <v>285.9566666666664</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>284.1</v>
+        <v>284.2</v>
       </c>
       <c r="C86" t="n">
         <v>284.1</v>
       </c>
       <c r="D86" t="n">
-        <v>284.1</v>
+        <v>284.2</v>
       </c>
       <c r="E86" t="n">
         <v>284.1</v>
       </c>
       <c r="F86" t="n">
-        <v>8547.2274</v>
+        <v>1994.5059</v>
       </c>
       <c r="G86" t="n">
-        <v>285.8933333333331</v>
+        <v>285.9249999999998</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>284</v>
+        <v>284.1</v>
       </c>
       <c r="C87" t="n">
-        <v>283.8</v>
+        <v>284.1</v>
       </c>
       <c r="D87" t="n">
-        <v>284</v>
+        <v>284.1</v>
       </c>
       <c r="E87" t="n">
-        <v>283.8</v>
+        <v>284.1</v>
       </c>
       <c r="F87" t="n">
-        <v>25808.2749</v>
+        <v>8547.2274</v>
       </c>
       <c r="G87" t="n">
-        <v>285.8416666666664</v>
+        <v>285.8933333333331</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>283.8</v>
+        <v>284</v>
       </c>
       <c r="C88" t="n">
         <v>283.8</v>
       </c>
       <c r="D88" t="n">
-        <v>283.8</v>
+        <v>284</v>
       </c>
       <c r="E88" t="n">
         <v>283.8</v>
       </c>
       <c r="F88" t="n">
-        <v>108.6786</v>
+        <v>25808.2749</v>
       </c>
       <c r="G88" t="n">
-        <v>285.8049999999997</v>
+        <v>285.8416666666664</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>284.1</v>
+        <v>283.8</v>
       </c>
       <c r="C89" t="n">
-        <v>284.3</v>
+        <v>283.8</v>
       </c>
       <c r="D89" t="n">
-        <v>284.3</v>
+        <v>283.8</v>
       </c>
       <c r="E89" t="n">
-        <v>284.1</v>
+        <v>283.8</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0002</v>
+        <v>108.6786</v>
       </c>
       <c r="G89" t="n">
-        <v>285.7766666666664</v>
+        <v>285.8049999999997</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>285.4</v>
+        <v>284.1</v>
       </c>
       <c r="C90" t="n">
-        <v>285.4</v>
+        <v>284.3</v>
       </c>
       <c r="D90" t="n">
-        <v>285.4</v>
+        <v>284.3</v>
       </c>
       <c r="E90" t="n">
-        <v>285.4</v>
+        <v>284.1</v>
       </c>
       <c r="F90" t="n">
-        <v>8.800000000000001</v>
+        <v>0.0002</v>
       </c>
       <c r="G90" t="n">
-        <v>285.7516666666663</v>
+        <v>285.7766666666664</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>285.5</v>
+        <v>285.4</v>
       </c>
       <c r="C91" t="n">
-        <v>285.5</v>
+        <v>285.4</v>
       </c>
       <c r="D91" t="n">
-        <v>285.5</v>
+        <v>285.4</v>
       </c>
       <c r="E91" t="n">
-        <v>285.5</v>
+        <v>285.4</v>
       </c>
       <c r="F91" t="n">
-        <v>524.8106</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G91" t="n">
-        <v>285.728333333333</v>
+        <v>285.7516666666663</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>285.1</v>
+        <v>285.5</v>
       </c>
       <c r="C92" t="n">
-        <v>285.1</v>
+        <v>285.5</v>
       </c>
       <c r="D92" t="n">
-        <v>285.1</v>
+        <v>285.5</v>
       </c>
       <c r="E92" t="n">
-        <v>285.1</v>
+        <v>285.5</v>
       </c>
       <c r="F92" t="n">
-        <v>433.321</v>
+        <v>524.8106</v>
       </c>
       <c r="G92" t="n">
-        <v>285.6983333333329</v>
+        <v>285.728333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>285.5</v>
+        <v>285.1</v>
       </c>
       <c r="C93" t="n">
-        <v>285.5</v>
+        <v>285.1</v>
       </c>
       <c r="D93" t="n">
-        <v>285.5</v>
+        <v>285.1</v>
       </c>
       <c r="E93" t="n">
-        <v>285.5</v>
+        <v>285.1</v>
       </c>
       <c r="F93" t="n">
-        <v>3817.3231</v>
+        <v>433.321</v>
       </c>
       <c r="G93" t="n">
-        <v>285.6899999999996</v>
+        <v>285.6983333333329</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3653,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>286.2</v>
+        <v>285.5</v>
       </c>
       <c r="C94" t="n">
-        <v>286.5</v>
+        <v>285.5</v>
       </c>
       <c r="D94" t="n">
-        <v>286.7</v>
+        <v>285.5</v>
       </c>
       <c r="E94" t="n">
-        <v>286.2</v>
+        <v>285.5</v>
       </c>
       <c r="F94" t="n">
-        <v>10700</v>
+        <v>3817.3231</v>
       </c>
       <c r="G94" t="n">
-        <v>285.6983333333329</v>
+        <v>285.6899999999996</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>286</v>
+        <v>286.2</v>
       </c>
       <c r="C95" t="n">
-        <v>285</v>
+        <v>286.5</v>
       </c>
       <c r="D95" t="n">
-        <v>286</v>
+        <v>286.7</v>
       </c>
       <c r="E95" t="n">
-        <v>285</v>
+        <v>286.2</v>
       </c>
       <c r="F95" t="n">
-        <v>325480.1321</v>
+        <v>10700</v>
       </c>
       <c r="G95" t="n">
-        <v>285.6883333333329</v>
+        <v>285.6983333333329</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C96" t="n">
         <v>285</v>
       </c>
       <c r="D96" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E96" t="n">
         <v>285</v>
       </c>
       <c r="F96" t="n">
-        <v>879.9536000000001</v>
+        <v>325480.1321</v>
       </c>
       <c r="G96" t="n">
-        <v>285.6716666666663</v>
+        <v>285.6883333333329</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3761,19 +3761,19 @@
         <v>285</v>
       </c>
       <c r="C97" t="n">
-        <v>284.1</v>
+        <v>285</v>
       </c>
       <c r="D97" t="n">
         <v>285</v>
       </c>
       <c r="E97" t="n">
-        <v>284.1</v>
+        <v>285</v>
       </c>
       <c r="F97" t="n">
-        <v>193.6442</v>
+        <v>879.9536000000001</v>
       </c>
       <c r="G97" t="n">
-        <v>285.6249999999996</v>
+        <v>285.6716666666663</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>285</v>
       </c>
       <c r="C98" t="n">
-        <v>283.8</v>
+        <v>284.1</v>
       </c>
       <c r="D98" t="n">
         <v>285</v>
       </c>
       <c r="E98" t="n">
-        <v>283.8</v>
+        <v>284.1</v>
       </c>
       <c r="F98" t="n">
-        <v>8057.768</v>
+        <v>193.6442</v>
       </c>
       <c r="G98" t="n">
-        <v>285.5716666666662</v>
+        <v>285.6249999999996</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3831,19 +3831,19 @@
         <v>285</v>
       </c>
       <c r="C99" t="n">
-        <v>283.7</v>
+        <v>283.8</v>
       </c>
       <c r="D99" t="n">
         <v>285</v>
       </c>
       <c r="E99" t="n">
-        <v>283.7</v>
+        <v>283.8</v>
       </c>
       <c r="F99" t="n">
-        <v>2000</v>
+        <v>8057.768</v>
       </c>
       <c r="G99" t="n">
-        <v>285.5166666666663</v>
+        <v>285.5716666666662</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>285.6</v>
+        <v>285</v>
       </c>
       <c r="C100" t="n">
-        <v>285.6</v>
+        <v>283.7</v>
       </c>
       <c r="D100" t="n">
-        <v>285.6</v>
+        <v>285</v>
       </c>
       <c r="E100" t="n">
-        <v>285.6</v>
+        <v>283.7</v>
       </c>
       <c r="F100" t="n">
-        <v>1.8</v>
+        <v>2000</v>
       </c>
       <c r="G100" t="n">
-        <v>285.4933333333329</v>
+        <v>285.5166666666663</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>284</v>
+        <v>285.6</v>
       </c>
       <c r="C101" t="n">
-        <v>284</v>
+        <v>285.6</v>
       </c>
       <c r="D101" t="n">
-        <v>284</v>
+        <v>285.6</v>
       </c>
       <c r="E101" t="n">
-        <v>284</v>
+        <v>285.6</v>
       </c>
       <c r="F101" t="n">
-        <v>1521.3358</v>
+        <v>1.8</v>
       </c>
       <c r="G101" t="n">
-        <v>285.4599999999995</v>
+        <v>285.4933333333329</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>283.8</v>
+        <v>284</v>
       </c>
       <c r="C102" t="n">
-        <v>283.8</v>
+        <v>284</v>
       </c>
       <c r="D102" t="n">
-        <v>283.8</v>
+        <v>284</v>
       </c>
       <c r="E102" t="n">
-        <v>283.8</v>
+        <v>284</v>
       </c>
       <c r="F102" t="n">
-        <v>5000</v>
+        <v>1521.3358</v>
       </c>
       <c r="G102" t="n">
-        <v>285.4016666666662</v>
+        <v>285.4599999999995</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3971,19 +3971,19 @@
         <v>283.8</v>
       </c>
       <c r="C103" t="n">
-        <v>283.7</v>
+        <v>283.8</v>
       </c>
       <c r="D103" t="n">
         <v>283.8</v>
       </c>
       <c r="E103" t="n">
-        <v>283.7</v>
+        <v>283.8</v>
       </c>
       <c r="F103" t="n">
-        <v>8549.1595</v>
+        <v>5000</v>
       </c>
       <c r="G103" t="n">
-        <v>285.3349999999995</v>
+        <v>285.4016666666662</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>283.6</v>
+        <v>283.8</v>
       </c>
       <c r="C104" t="n">
-        <v>283.6</v>
+        <v>283.7</v>
       </c>
       <c r="D104" t="n">
-        <v>283.6</v>
+        <v>283.8</v>
       </c>
       <c r="E104" t="n">
-        <v>283.6</v>
+        <v>283.7</v>
       </c>
       <c r="F104" t="n">
-        <v>3064.2723</v>
+        <v>8549.1595</v>
       </c>
       <c r="G104" t="n">
-        <v>285.2649999999995</v>
+        <v>285.3349999999995</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4050,10 +4050,10 @@
         <v>283.6</v>
       </c>
       <c r="F105" t="n">
-        <v>1209.9614</v>
+        <v>3064.2723</v>
       </c>
       <c r="G105" t="n">
-        <v>285.2083333333329</v>
+        <v>285.2649999999995</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>283.5</v>
+        <v>283.6</v>
       </c>
       <c r="C106" t="n">
-        <v>283.5</v>
+        <v>283.6</v>
       </c>
       <c r="D106" t="n">
-        <v>283.5</v>
+        <v>283.6</v>
       </c>
       <c r="E106" t="n">
-        <v>283.5</v>
+        <v>283.6</v>
       </c>
       <c r="F106" t="n">
-        <v>92.72410000000001</v>
+        <v>1209.9614</v>
       </c>
       <c r="G106" t="n">
-        <v>285.1499999999995</v>
+        <v>285.2083333333329</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4120,10 +4120,10 @@
         <v>283.5</v>
       </c>
       <c r="F107" t="n">
-        <v>1676.0481</v>
+        <v>92.72410000000001</v>
       </c>
       <c r="G107" t="n">
-        <v>285.0916666666662</v>
+        <v>285.1499999999995</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>283.5</v>
       </c>
       <c r="F108" t="n">
-        <v>2443.7219</v>
+        <v>1676.0481</v>
       </c>
       <c r="G108" t="n">
-        <v>285.0449999999995</v>
+        <v>285.0916666666662</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4190,10 @@
         <v>283.5</v>
       </c>
       <c r="F109" t="n">
-        <v>7447.5326</v>
+        <v>2443.7219</v>
       </c>
       <c r="G109" t="n">
-        <v>285.0033333333329</v>
+        <v>285.0449999999995</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>284.5</v>
+        <v>283.5</v>
       </c>
       <c r="C110" t="n">
-        <v>284.5</v>
+        <v>283.5</v>
       </c>
       <c r="D110" t="n">
-        <v>284.5</v>
+        <v>283.5</v>
       </c>
       <c r="E110" t="n">
-        <v>284.5</v>
+        <v>283.5</v>
       </c>
       <c r="F110" t="n">
-        <v>2062.0027</v>
+        <v>7447.5326</v>
       </c>
       <c r="G110" t="n">
-        <v>284.9783333333328</v>
+        <v>285.0033333333329</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>283.5</v>
+        <v>284.5</v>
       </c>
       <c r="C111" t="n">
-        <v>283.2</v>
+        <v>284.5</v>
       </c>
       <c r="D111" t="n">
-        <v>283.5</v>
+        <v>284.5</v>
       </c>
       <c r="E111" t="n">
-        <v>283.2</v>
+        <v>284.5</v>
       </c>
       <c r="F111" t="n">
-        <v>70</v>
+        <v>2062.0027</v>
       </c>
       <c r="G111" t="n">
-        <v>284.9383333333329</v>
+        <v>284.9783333333328</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,19 +4283,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>284.5</v>
+        <v>283.5</v>
       </c>
       <c r="C112" t="n">
-        <v>284.5</v>
+        <v>283.2</v>
       </c>
       <c r="D112" t="n">
-        <v>284.5</v>
+        <v>283.5</v>
       </c>
       <c r="E112" t="n">
-        <v>284.5</v>
+        <v>283.2</v>
       </c>
       <c r="F112" t="n">
-        <v>350.6177</v>
+        <v>70</v>
       </c>
       <c r="G112" t="n">
         <v>284.9383333333329</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>284.4</v>
+        <v>284.5</v>
       </c>
       <c r="C113" t="n">
-        <v>284.4</v>
+        <v>284.5</v>
       </c>
       <c r="D113" t="n">
-        <v>284.4</v>
+        <v>284.5</v>
       </c>
       <c r="E113" t="n">
-        <v>284.4</v>
+        <v>284.5</v>
       </c>
       <c r="F113" t="n">
-        <v>2809.002</v>
+        <v>350.6177</v>
       </c>
       <c r="G113" t="n">
-        <v>284.8949999999996</v>
+        <v>284.9383333333329</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>284.2</v>
+        <v>284.4</v>
       </c>
       <c r="C114" t="n">
-        <v>284.2</v>
+        <v>284.4</v>
       </c>
       <c r="D114" t="n">
-        <v>284.2</v>
+        <v>284.4</v>
       </c>
       <c r="E114" t="n">
-        <v>284.2</v>
+        <v>284.4</v>
       </c>
       <c r="F114" t="n">
-        <v>821.3</v>
+        <v>2809.002</v>
       </c>
       <c r="G114" t="n">
-        <v>284.8816666666663</v>
+        <v>284.8949999999996</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>284.6</v>
+        <v>284.2</v>
       </c>
       <c r="C115" t="n">
-        <v>284.6</v>
+        <v>284.2</v>
       </c>
       <c r="D115" t="n">
-        <v>284.6</v>
+        <v>284.2</v>
       </c>
       <c r="E115" t="n">
-        <v>284.6</v>
+        <v>284.2</v>
       </c>
       <c r="F115" t="n">
-        <v>6791.8889</v>
+        <v>821.3</v>
       </c>
       <c r="G115" t="n">
-        <v>284.8399999999996</v>
+        <v>284.8816666666663</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>285</v>
+        <v>284.6</v>
       </c>
       <c r="C116" t="n">
-        <v>285.4</v>
+        <v>284.6</v>
       </c>
       <c r="D116" t="n">
-        <v>285.4</v>
+        <v>284.6</v>
       </c>
       <c r="E116" t="n">
-        <v>285</v>
+        <v>284.6</v>
       </c>
       <c r="F116" t="n">
-        <v>1217.0402</v>
+        <v>6791.8889</v>
       </c>
       <c r="G116" t="n">
-        <v>284.8299999999996</v>
+        <v>284.8399999999996</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,7 +4458,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>285.4</v>
+        <v>285</v>
       </c>
       <c r="C117" t="n">
         <v>285.4</v>
@@ -4467,13 +4467,13 @@
         <v>285.4</v>
       </c>
       <c r="E117" t="n">
-        <v>285.4</v>
+        <v>285</v>
       </c>
       <c r="F117" t="n">
-        <v>2952.8266</v>
+        <v>1217.0402</v>
       </c>
       <c r="G117" t="n">
-        <v>284.8449999999996</v>
+        <v>284.8299999999996</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4505,10 +4505,10 @@
         <v>285.4</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0001</v>
+        <v>2952.8266</v>
       </c>
       <c r="G118" t="n">
-        <v>284.8249999999997</v>
+        <v>284.8449999999996</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>284.6</v>
+        <v>285.4</v>
       </c>
       <c r="C119" t="n">
-        <v>284.6</v>
+        <v>285.4</v>
       </c>
       <c r="D119" t="n">
-        <v>284.6</v>
+        <v>285.4</v>
       </c>
       <c r="E119" t="n">
-        <v>284.6</v>
+        <v>285.4</v>
       </c>
       <c r="F119" t="n">
-        <v>217.9933</v>
+        <v>0.0001</v>
       </c>
       <c r="G119" t="n">
-        <v>284.7916666666663</v>
+        <v>284.8249999999997</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>283.5</v>
+        <v>284.6</v>
       </c>
       <c r="C120" t="n">
-        <v>283.5</v>
+        <v>284.6</v>
       </c>
       <c r="D120" t="n">
-        <v>283.5</v>
+        <v>284.6</v>
       </c>
       <c r="E120" t="n">
-        <v>283.5</v>
+        <v>284.6</v>
       </c>
       <c r="F120" t="n">
-        <v>360</v>
+        <v>217.9933</v>
       </c>
       <c r="G120" t="n">
-        <v>284.758333333333</v>
+        <v>284.7916666666663</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>283.3</v>
+        <v>283.5</v>
       </c>
       <c r="C121" t="n">
-        <v>283.3</v>
+        <v>283.5</v>
       </c>
       <c r="D121" t="n">
-        <v>283.3</v>
+        <v>283.5</v>
       </c>
       <c r="E121" t="n">
-        <v>283.3</v>
+        <v>283.5</v>
       </c>
       <c r="F121" t="n">
-        <v>707.6405</v>
+        <v>360</v>
       </c>
       <c r="G121" t="n">
-        <v>284.7216666666664</v>
+        <v>284.758333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4636,19 +4636,19 @@
         <v>283.3</v>
       </c>
       <c r="C122" t="n">
-        <v>283.4</v>
+        <v>283.3</v>
       </c>
       <c r="D122" t="n">
-        <v>283.4</v>
+        <v>283.3</v>
       </c>
       <c r="E122" t="n">
         <v>283.3</v>
       </c>
       <c r="F122" t="n">
-        <v>969.7021999999999</v>
+        <v>707.6405</v>
       </c>
       <c r="G122" t="n">
-        <v>284.6683333333331</v>
+        <v>284.7216666666664</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4674,16 +4674,16 @@
         <v>283.4</v>
       </c>
       <c r="D123" t="n">
-        <v>284.5</v>
+        <v>283.4</v>
       </c>
       <c r="E123" t="n">
         <v>283.3</v>
       </c>
       <c r="F123" t="n">
-        <v>5188.4866</v>
+        <v>969.7021999999999</v>
       </c>
       <c r="G123" t="n">
-        <v>284.6149999999998</v>
+        <v>284.6683333333331</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>284.5</v>
+        <v>283.3</v>
       </c>
       <c r="C124" t="n">
-        <v>284.5</v>
+        <v>283.4</v>
       </c>
       <c r="D124" t="n">
         <v>284.5</v>
       </c>
       <c r="E124" t="n">
-        <v>284.5</v>
+        <v>283.3</v>
       </c>
       <c r="F124" t="n">
-        <v>339.3399</v>
+        <v>5188.4866</v>
       </c>
       <c r="G124" t="n">
-        <v>284.5799999999998</v>
+        <v>284.6149999999998</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>284.4</v>
+        <v>284.5</v>
       </c>
       <c r="C125" t="n">
-        <v>284.4</v>
+        <v>284.5</v>
       </c>
       <c r="D125" t="n">
-        <v>284.4</v>
+        <v>284.5</v>
       </c>
       <c r="E125" t="n">
-        <v>284.4</v>
+        <v>284.5</v>
       </c>
       <c r="F125" t="n">
-        <v>399.9999</v>
+        <v>339.3399</v>
       </c>
       <c r="G125" t="n">
-        <v>284.5433333333332</v>
+        <v>284.5799999999998</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>285.8</v>
+        <v>284.4</v>
       </c>
       <c r="C126" t="n">
-        <v>285.8</v>
+        <v>284.4</v>
       </c>
       <c r="D126" t="n">
-        <v>285.8</v>
+        <v>284.4</v>
       </c>
       <c r="E126" t="n">
-        <v>285.8</v>
+        <v>284.4</v>
       </c>
       <c r="F126" t="n">
-        <v>32.99860041</v>
+        <v>399.9999</v>
       </c>
       <c r="G126" t="n">
-        <v>284.5299999999999</v>
+        <v>284.5433333333332</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>286</v>
+        <v>285.8</v>
       </c>
       <c r="C127" t="n">
-        <v>286.4</v>
+        <v>285.8</v>
       </c>
       <c r="D127" t="n">
-        <v>286.4</v>
+        <v>285.8</v>
       </c>
       <c r="E127" t="n">
-        <v>286</v>
+        <v>285.8</v>
       </c>
       <c r="F127" t="n">
-        <v>352</v>
+        <v>32.99860041</v>
       </c>
       <c r="G127" t="n">
-        <v>284.5266666666666</v>
+        <v>284.5299999999999</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>286.4</v>
+        <v>286</v>
       </c>
       <c r="C128" t="n">
         <v>286.4</v>
@@ -4852,13 +4852,13 @@
         <v>286.4</v>
       </c>
       <c r="E128" t="n">
-        <v>286.4</v>
+        <v>286</v>
       </c>
       <c r="F128" t="n">
-        <v>2523.0532</v>
+        <v>352</v>
       </c>
       <c r="G128" t="n">
-        <v>284.5416666666666</v>
+        <v>284.5266666666666</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4890,10 +4890,10 @@
         <v>286.4</v>
       </c>
       <c r="F129" t="n">
-        <v>463.398</v>
+        <v>2523.0532</v>
       </c>
       <c r="G129" t="n">
-        <v>284.5566666666666</v>
+        <v>284.5416666666666</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,7 +4913,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>286.3</v>
+        <v>286.4</v>
       </c>
       <c r="C130" t="n">
         <v>286.4</v>
@@ -4922,13 +4922,13 @@
         <v>286.4</v>
       </c>
       <c r="E130" t="n">
-        <v>286.3</v>
+        <v>286.4</v>
       </c>
       <c r="F130" t="n">
-        <v>1750</v>
+        <v>463.398</v>
       </c>
       <c r="G130" t="n">
-        <v>284.5716666666667</v>
+        <v>284.5566666666666</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>285.9</v>
+        <v>286.3</v>
       </c>
       <c r="C131" t="n">
-        <v>285.9</v>
+        <v>286.4</v>
       </c>
       <c r="D131" t="n">
-        <v>285.9</v>
+        <v>286.4</v>
       </c>
       <c r="E131" t="n">
-        <v>285.9</v>
+        <v>286.3</v>
       </c>
       <c r="F131" t="n">
-        <v>327.20531654</v>
+        <v>1750</v>
       </c>
       <c r="G131" t="n">
-        <v>284.5866666666667</v>
+        <v>284.5716666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>285</v>
+        <v>285.9</v>
       </c>
       <c r="C132" t="n">
-        <v>285</v>
+        <v>285.9</v>
       </c>
       <c r="D132" t="n">
-        <v>285</v>
+        <v>285.9</v>
       </c>
       <c r="E132" t="n">
-        <v>285</v>
+        <v>285.9</v>
       </c>
       <c r="F132" t="n">
-        <v>1763.7305</v>
+        <v>327.20531654</v>
       </c>
       <c r="G132" t="n">
-        <v>284.595</v>
+        <v>284.5866666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>286.5</v>
+        <v>285</v>
       </c>
       <c r="C133" t="n">
-        <v>286.5</v>
+        <v>285</v>
       </c>
       <c r="D133" t="n">
-        <v>286.5</v>
+        <v>285</v>
       </c>
       <c r="E133" t="n">
-        <v>286.5</v>
+        <v>285</v>
       </c>
       <c r="F133" t="n">
-        <v>1.8</v>
+        <v>1763.7305</v>
       </c>
       <c r="G133" t="n">
-        <v>284.6283333333333</v>
+        <v>284.595</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>285.3</v>
+        <v>286.5</v>
       </c>
       <c r="C134" t="n">
-        <v>285.3</v>
+        <v>286.5</v>
       </c>
       <c r="D134" t="n">
-        <v>285.3</v>
+        <v>286.5</v>
       </c>
       <c r="E134" t="n">
-        <v>285.3</v>
+        <v>286.5</v>
       </c>
       <c r="F134" t="n">
-        <v>1154.9979</v>
+        <v>1.8</v>
       </c>
       <c r="G134" t="n">
-        <v>284.6416666666667</v>
+        <v>284.6283333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>286.6</v>
+        <v>285.3</v>
       </c>
       <c r="C135" t="n">
-        <v>286.6</v>
+        <v>285.3</v>
       </c>
       <c r="D135" t="n">
-        <v>286.6</v>
+        <v>285.3</v>
       </c>
       <c r="E135" t="n">
-        <v>286.6</v>
+        <v>285.3</v>
       </c>
       <c r="F135" t="n">
-        <v>1307.6208</v>
+        <v>1154.9979</v>
       </c>
       <c r="G135" t="n">
-        <v>284.6766666666666</v>
+        <v>284.6416666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>286.8</v>
+        <v>286.6</v>
       </c>
       <c r="C136" t="n">
-        <v>286.8</v>
+        <v>286.6</v>
       </c>
       <c r="D136" t="n">
-        <v>286.8</v>
+        <v>286.6</v>
       </c>
       <c r="E136" t="n">
-        <v>286.8</v>
+        <v>286.6</v>
       </c>
       <c r="F136" t="n">
-        <v>1313.8697</v>
+        <v>1307.6208</v>
       </c>
       <c r="G136" t="n">
-        <v>284.715</v>
+        <v>284.6766666666666</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5170,10 +5170,10 @@
         <v>286.8</v>
       </c>
       <c r="F137" t="n">
-        <v>189.0407</v>
+        <v>1313.8697</v>
       </c>
       <c r="G137" t="n">
-        <v>284.7366666666666</v>
+        <v>284.715</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>286.3</v>
+        <v>286.8</v>
       </c>
       <c r="C138" t="n">
-        <v>286.5</v>
+        <v>286.8</v>
       </c>
       <c r="D138" t="n">
-        <v>286.5</v>
+        <v>286.8</v>
       </c>
       <c r="E138" t="n">
-        <v>286.3</v>
+        <v>286.8</v>
       </c>
       <c r="F138" t="n">
-        <v>2538.4</v>
+        <v>189.0407</v>
       </c>
       <c r="G138" t="n">
-        <v>284.7783333333333</v>
+        <v>284.7366666666666</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5231,25 +5231,25 @@
         <v>286.3</v>
       </c>
       <c r="C139" t="n">
-        <v>286.3</v>
+        <v>286.5</v>
       </c>
       <c r="D139" t="n">
-        <v>286.3</v>
+        <v>286.5</v>
       </c>
       <c r="E139" t="n">
         <v>286.3</v>
       </c>
       <c r="F139" t="n">
-        <v>173.4</v>
+        <v>2538.4</v>
       </c>
       <c r="G139" t="n">
-        <v>284.7966666666666</v>
+        <v>284.7783333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>286.8</v>
+        <v>286.3</v>
       </c>
       <c r="C140" t="n">
-        <v>286.8</v>
+        <v>286.3</v>
       </c>
       <c r="D140" t="n">
-        <v>286.8</v>
+        <v>286.3</v>
       </c>
       <c r="E140" t="n">
-        <v>286.8</v>
+        <v>286.3</v>
       </c>
       <c r="F140" t="n">
-        <v>1149.8225</v>
+        <v>173.4</v>
       </c>
       <c r="G140" t="n">
-        <v>284.8233333333332</v>
+        <v>284.7966666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5310,10 +5310,10 @@
         <v>286.8</v>
       </c>
       <c r="F141" t="n">
-        <v>1034.8403</v>
+        <v>1149.8225</v>
       </c>
       <c r="G141" t="n">
-        <v>284.8499999999999</v>
+        <v>284.8233333333332</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5333,7 +5333,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>285.6</v>
+        <v>286.8</v>
       </c>
       <c r="C142" t="n">
         <v>286.8</v>
@@ -5342,13 +5342,13 @@
         <v>286.8</v>
       </c>
       <c r="E142" t="n">
-        <v>285.6</v>
+        <v>286.8</v>
       </c>
       <c r="F142" t="n">
-        <v>1447.8124</v>
+        <v>1034.8403</v>
       </c>
       <c r="G142" t="n">
-        <v>284.8766666666665</v>
+        <v>284.8499999999999</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>285.6</v>
+      </c>
+      <c r="C143" t="n">
         <v>286.8</v>
-      </c>
-      <c r="C143" t="n">
-        <v>285.7</v>
       </c>
       <c r="D143" t="n">
         <v>286.8</v>
       </c>
       <c r="E143" t="n">
-        <v>285.7</v>
+        <v>285.6</v>
       </c>
       <c r="F143" t="n">
-        <v>840.2206</v>
+        <v>1447.8124</v>
       </c>
       <c r="G143" t="n">
-        <v>284.9033333333333</v>
+        <v>284.8766666666665</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5406,19 +5406,19 @@
         <v>286.8</v>
       </c>
       <c r="C144" t="n">
-        <v>287.9</v>
+        <v>285.7</v>
       </c>
       <c r="D144" t="n">
-        <v>287.9</v>
+        <v>286.8</v>
       </c>
       <c r="E144" t="n">
-        <v>286.8</v>
+        <v>285.7</v>
       </c>
       <c r="F144" t="n">
-        <v>7521.8321</v>
+        <v>840.2206</v>
       </c>
       <c r="G144" t="n">
-        <v>284.9633333333333</v>
+        <v>284.9033333333333</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>285.6</v>
+        <v>286.8</v>
       </c>
       <c r="C145" t="n">
-        <v>285.6</v>
+        <v>287.9</v>
       </c>
       <c r="D145" t="n">
-        <v>285.6</v>
+        <v>287.9</v>
       </c>
       <c r="E145" t="n">
-        <v>285.6</v>
+        <v>286.8</v>
       </c>
       <c r="F145" t="n">
-        <v>2</v>
+        <v>7521.8321</v>
       </c>
       <c r="G145" t="n">
-        <v>284.9883333333333</v>
+        <v>284.9633333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5485,16 +5485,16 @@
         <v>285.6</v>
       </c>
       <c r="F146" t="n">
-        <v>1714</v>
+        <v>2</v>
       </c>
       <c r="G146" t="n">
-        <v>285.0133333333333</v>
+        <v>284.9883333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>287.9</v>
+        <v>285.6</v>
       </c>
       <c r="C147" t="n">
-        <v>287.9</v>
+        <v>285.6</v>
       </c>
       <c r="D147" t="n">
-        <v>287.9</v>
+        <v>285.6</v>
       </c>
       <c r="E147" t="n">
-        <v>287.9</v>
+        <v>285.6</v>
       </c>
       <c r="F147" t="n">
-        <v>1047.0017</v>
+        <v>1714</v>
       </c>
       <c r="G147" t="n">
-        <v>285.0816666666666</v>
+        <v>285.0133333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5555,10 +5555,10 @@
         <v>287.9</v>
       </c>
       <c r="F148" t="n">
-        <v>19.6368</v>
+        <v>1047.0017</v>
       </c>
       <c r="G148" t="n">
-        <v>285.15</v>
+        <v>285.0816666666666</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>285.7</v>
+        <v>287.9</v>
       </c>
       <c r="C149" t="n">
-        <v>285.7</v>
+        <v>287.9</v>
       </c>
       <c r="D149" t="n">
-        <v>285.7</v>
+        <v>287.9</v>
       </c>
       <c r="E149" t="n">
-        <v>285.7</v>
+        <v>287.9</v>
       </c>
       <c r="F149" t="n">
-        <v>2</v>
+        <v>19.6368</v>
       </c>
       <c r="G149" t="n">
-        <v>285.1733333333333</v>
+        <v>285.15</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,28 +5613,28 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>285.8</v>
+        <v>285.7</v>
       </c>
       <c r="C150" t="n">
-        <v>285.8</v>
+        <v>285.7</v>
       </c>
       <c r="D150" t="n">
-        <v>285.8</v>
+        <v>285.7</v>
       </c>
       <c r="E150" t="n">
-        <v>285.8</v>
+        <v>285.7</v>
       </c>
       <c r="F150" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="G150" t="n">
-        <v>285.18</v>
+        <v>285.1733333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
@@ -5660,10 +5660,10 @@
         <v>285.8</v>
       </c>
       <c r="F151" t="n">
-        <v>702.0786000000001</v>
+        <v>1.8</v>
       </c>
       <c r="G151" t="n">
-        <v>285.185</v>
+        <v>285.18</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>287.7</v>
+        <v>285.8</v>
       </c>
       <c r="C152" t="n">
-        <v>286</v>
+        <v>285.8</v>
       </c>
       <c r="D152" t="n">
-        <v>287.7</v>
+        <v>285.8</v>
       </c>
       <c r="E152" t="n">
-        <v>286</v>
+        <v>285.8</v>
       </c>
       <c r="F152" t="n">
-        <v>802.813</v>
+        <v>702.0786000000001</v>
       </c>
       <c r="G152" t="n">
-        <v>285.2</v>
+        <v>285.185</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,22 +5718,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>287.6</v>
+        <v>287.7</v>
       </c>
       <c r="C153" t="n">
-        <v>287.6</v>
+        <v>286</v>
       </c>
       <c r="D153" t="n">
-        <v>287.6</v>
+        <v>287.7</v>
       </c>
       <c r="E153" t="n">
-        <v>287.6</v>
+        <v>286</v>
       </c>
       <c r="F153" t="n">
-        <v>4197.6117</v>
+        <v>802.813</v>
       </c>
       <c r="G153" t="n">
-        <v>285.235</v>
+        <v>285.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>287.6</v>
       </c>
       <c r="F154" t="n">
-        <v>2986.7746</v>
+        <v>4197.6117</v>
       </c>
       <c r="G154" t="n">
-        <v>285.2533333333333</v>
+        <v>285.235</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5800,10 +5800,10 @@
         <v>287.6</v>
       </c>
       <c r="F155" t="n">
-        <v>675.8513</v>
+        <v>2986.7746</v>
       </c>
       <c r="G155" t="n">
-        <v>285.2966666666666</v>
+        <v>285.2533333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5829,16 +5829,16 @@
         <v>287.6</v>
       </c>
       <c r="D156" t="n">
-        <v>287.7</v>
+        <v>287.6</v>
       </c>
       <c r="E156" t="n">
         <v>287.6</v>
       </c>
       <c r="F156" t="n">
-        <v>3557.0503</v>
+        <v>675.8513</v>
       </c>
       <c r="G156" t="n">
-        <v>285.3399999999999</v>
+        <v>285.2966666666666</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5864,16 +5864,16 @@
         <v>287.6</v>
       </c>
       <c r="D157" t="n">
-        <v>287.6</v>
+        <v>287.7</v>
       </c>
       <c r="E157" t="n">
         <v>287.6</v>
       </c>
       <c r="F157" t="n">
-        <v>1373.63</v>
+        <v>3557.0503</v>
       </c>
       <c r="G157" t="n">
-        <v>285.3983333333333</v>
+        <v>285.3399999999999</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5893,22 +5893,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>287.7</v>
+        <v>287.6</v>
       </c>
       <c r="C158" t="n">
-        <v>287.7</v>
+        <v>287.6</v>
       </c>
       <c r="D158" t="n">
-        <v>287.7</v>
+        <v>287.6</v>
       </c>
       <c r="E158" t="n">
-        <v>287.7</v>
+        <v>287.6</v>
       </c>
       <c r="F158" t="n">
-        <v>5.6266</v>
+        <v>1373.63</v>
       </c>
       <c r="G158" t="n">
-        <v>285.4633333333333</v>
+        <v>285.3983333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5940,10 +5940,10 @@
         <v>287.7</v>
       </c>
       <c r="F159" t="n">
-        <v>520.0762</v>
+        <v>5.6266</v>
       </c>
       <c r="G159" t="n">
-        <v>285.5299999999999</v>
+        <v>285.4633333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>287.6</v>
+        <v>287.7</v>
       </c>
       <c r="C160" t="n">
-        <v>287.6</v>
+        <v>287.7</v>
       </c>
       <c r="D160" t="n">
-        <v>287.6</v>
+        <v>287.7</v>
       </c>
       <c r="E160" t="n">
-        <v>287.6</v>
+        <v>287.7</v>
       </c>
       <c r="F160" t="n">
-        <v>1550</v>
+        <v>520.0762</v>
       </c>
       <c r="G160" t="n">
-        <v>285.5633333333333</v>
+        <v>285.5299999999999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5998,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>287.7</v>
+        <v>287.6</v>
       </c>
       <c r="C161" t="n">
-        <v>287.7</v>
+        <v>287.6</v>
       </c>
       <c r="D161" t="n">
-        <v>287.7</v>
+        <v>287.6</v>
       </c>
       <c r="E161" t="n">
-        <v>287.7</v>
+        <v>287.6</v>
       </c>
       <c r="F161" t="n">
-        <v>330.6106</v>
+        <v>1550</v>
       </c>
       <c r="G161" t="n">
-        <v>285.6249999999999</v>
+        <v>285.5633333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>287.6</v>
+        <v>287.7</v>
       </c>
       <c r="C162" t="n">
-        <v>287.6</v>
+        <v>287.7</v>
       </c>
       <c r="D162" t="n">
-        <v>287.6</v>
+        <v>287.7</v>
       </c>
       <c r="E162" t="n">
-        <v>287.6</v>
+        <v>287.7</v>
       </c>
       <c r="F162" t="n">
-        <v>600</v>
+        <v>330.6106</v>
       </c>
       <c r="G162" t="n">
-        <v>285.6883333333333</v>
+        <v>285.6249999999999</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6080,10 +6080,10 @@
         <v>287.6</v>
       </c>
       <c r="F163" t="n">
-        <v>145.4322</v>
+        <v>600</v>
       </c>
       <c r="G163" t="n">
-        <v>285.7533333333332</v>
+        <v>285.6883333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6103,7 +6103,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>286.2</v>
+        <v>287.6</v>
       </c>
       <c r="C164" t="n">
         <v>287.6</v>
@@ -6112,13 +6112,13 @@
         <v>287.6</v>
       </c>
       <c r="E164" t="n">
-        <v>286.2</v>
+        <v>287.6</v>
       </c>
       <c r="F164" t="n">
-        <v>1626.4433</v>
+        <v>145.4322</v>
       </c>
       <c r="G164" t="n">
-        <v>285.8199999999999</v>
+        <v>285.7533333333332</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6138,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="C165" t="n">
         <v>287.6</v>
       </c>
-      <c r="C165" t="n">
-        <v>288.6</v>
-      </c>
       <c r="D165" t="n">
-        <v>288.6</v>
+        <v>287.6</v>
       </c>
       <c r="E165" t="n">
-        <v>287.6</v>
+        <v>286.2</v>
       </c>
       <c r="F165" t="n">
-        <v>5940</v>
+        <v>1626.4433</v>
       </c>
       <c r="G165" t="n">
-        <v>285.9033333333333</v>
+        <v>285.8199999999999</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6173,7 +6173,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>288.6</v>
+        <v>287.6</v>
       </c>
       <c r="C166" t="n">
         <v>288.6</v>
@@ -6182,13 +6182,13 @@
         <v>288.6</v>
       </c>
       <c r="E166" t="n">
-        <v>288.6</v>
+        <v>287.6</v>
       </c>
       <c r="F166" t="n">
-        <v>1210.7014</v>
+        <v>5940</v>
       </c>
       <c r="G166" t="n">
-        <v>285.9883333333332</v>
+        <v>285.9033333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6208,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>287.7</v>
+        <v>288.6</v>
       </c>
       <c r="C167" t="n">
-        <v>287.6</v>
+        <v>288.6</v>
       </c>
       <c r="D167" t="n">
-        <v>287.7</v>
+        <v>288.6</v>
       </c>
       <c r="E167" t="n">
-        <v>287.6</v>
+        <v>288.6</v>
       </c>
       <c r="F167" t="n">
-        <v>2117.2552</v>
+        <v>1210.7014</v>
       </c>
       <c r="G167" t="n">
-        <v>286.0566666666665</v>
+        <v>285.9883333333332</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6243,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>287.8</v>
+        <v>287.7</v>
       </c>
       <c r="C168" t="n">
-        <v>287.8</v>
+        <v>287.6</v>
       </c>
       <c r="D168" t="n">
-        <v>287.8</v>
+        <v>287.7</v>
       </c>
       <c r="E168" t="n">
-        <v>287.8</v>
+        <v>287.6</v>
       </c>
       <c r="F168" t="n">
-        <v>82.65260000000001</v>
+        <v>2117.2552</v>
       </c>
       <c r="G168" t="n">
-        <v>286.1283333333332</v>
+        <v>286.0566666666665</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6278,22 +6278,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>289.1</v>
+        <v>287.8</v>
       </c>
       <c r="C169" t="n">
-        <v>289.7</v>
+        <v>287.8</v>
       </c>
       <c r="D169" t="n">
-        <v>289.7</v>
+        <v>287.8</v>
       </c>
       <c r="E169" t="n">
-        <v>289.1</v>
+        <v>287.8</v>
       </c>
       <c r="F169" t="n">
-        <v>6597.4138</v>
+        <v>82.65260000000001</v>
       </c>
       <c r="G169" t="n">
-        <v>286.2316666666665</v>
+        <v>286.1283333333332</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6313,7 +6313,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>289.7</v>
+        <v>289.1</v>
       </c>
       <c r="C170" t="n">
         <v>289.7</v>
@@ -6322,13 +6322,13 @@
         <v>289.7</v>
       </c>
       <c r="E170" t="n">
-        <v>289.7</v>
+        <v>289.1</v>
       </c>
       <c r="F170" t="n">
-        <v>300</v>
+        <v>6597.4138</v>
       </c>
       <c r="G170" t="n">
-        <v>286.3183333333332</v>
+        <v>286.2316666666665</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6348,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>289.8</v>
+        <v>289.7</v>
       </c>
       <c r="C171" t="n">
-        <v>289.8</v>
+        <v>289.7</v>
       </c>
       <c r="D171" t="n">
-        <v>289.8</v>
+        <v>289.7</v>
       </c>
       <c r="E171" t="n">
-        <v>289.8</v>
+        <v>289.7</v>
       </c>
       <c r="F171" t="n">
-        <v>9.0977</v>
+        <v>300</v>
       </c>
       <c r="G171" t="n">
-        <v>286.4283333333332</v>
+        <v>286.3183333333332</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6386,19 +6386,19 @@
         <v>289.8</v>
       </c>
       <c r="C172" t="n">
-        <v>290</v>
+        <v>289.8</v>
       </c>
       <c r="D172" t="n">
-        <v>290</v>
+        <v>289.8</v>
       </c>
       <c r="E172" t="n">
         <v>289.8</v>
       </c>
       <c r="F172" t="n">
-        <v>8494.479799999999</v>
+        <v>9.0977</v>
       </c>
       <c r="G172" t="n">
-        <v>286.5199999999998</v>
+        <v>286.4283333333332</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6418,7 +6418,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>290</v>
+        <v>289.8</v>
       </c>
       <c r="C173" t="n">
         <v>290</v>
@@ -6427,13 +6427,13 @@
         <v>290</v>
       </c>
       <c r="E173" t="n">
-        <v>288</v>
+        <v>289.8</v>
       </c>
       <c r="F173" t="n">
-        <v>6185.4091</v>
+        <v>8494.479799999999</v>
       </c>
       <c r="G173" t="n">
-        <v>286.6133333333331</v>
+        <v>286.5199999999998</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6453,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>288.3</v>
+        <v>290</v>
       </c>
       <c r="C174" t="n">
-        <v>288.3</v>
+        <v>290</v>
       </c>
       <c r="D174" t="n">
-        <v>288.3</v>
+        <v>290</v>
       </c>
       <c r="E174" t="n">
-        <v>288.3</v>
+        <v>288</v>
       </c>
       <c r="F174" t="n">
-        <v>1316.0264</v>
+        <v>6185.4091</v>
       </c>
       <c r="G174" t="n">
-        <v>286.6816666666664</v>
+        <v>286.6133333333331</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6500,16 +6500,16 @@
         <v>288.3</v>
       </c>
       <c r="F175" t="n">
-        <v>683.9736</v>
+        <v>1316.0264</v>
       </c>
       <c r="G175" t="n">
-        <v>286.7433333333331</v>
+        <v>286.6816666666664</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
@@ -6523,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>290</v>
+        <v>288.3</v>
       </c>
       <c r="C176" t="n">
-        <v>290</v>
+        <v>288.3</v>
       </c>
       <c r="D176" t="n">
-        <v>290</v>
+        <v>288.3</v>
       </c>
       <c r="E176" t="n">
-        <v>290</v>
+        <v>288.3</v>
       </c>
       <c r="F176" t="n">
-        <v>2</v>
+        <v>683.9736</v>
       </c>
       <c r="G176" t="n">
-        <v>286.8199999999998</v>
+        <v>286.7433333333331</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6558,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>288.3</v>
+        <v>290</v>
       </c>
       <c r="C177" t="n">
-        <v>288.3</v>
+        <v>290</v>
       </c>
       <c r="D177" t="n">
-        <v>288.3</v>
+        <v>290</v>
       </c>
       <c r="E177" t="n">
-        <v>288.3</v>
+        <v>290</v>
       </c>
       <c r="F177" t="n">
-        <v>413.262</v>
+        <v>2</v>
       </c>
       <c r="G177" t="n">
-        <v>286.8683333333331</v>
+        <v>286.8199999999998</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6593,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>289.5</v>
+        <v>288.3</v>
       </c>
       <c r="C178" t="n">
-        <v>289</v>
+        <v>288.3</v>
       </c>
       <c r="D178" t="n">
-        <v>289.5</v>
+        <v>288.3</v>
       </c>
       <c r="E178" t="n">
         <v>288.3</v>
       </c>
       <c r="F178" t="n">
-        <v>8914.559499999999</v>
+        <v>413.262</v>
       </c>
       <c r="G178" t="n">
-        <v>286.9283333333331</v>
+        <v>286.8683333333331</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6628,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>288</v>
+        <v>289.5</v>
       </c>
       <c r="C179" t="n">
-        <v>287.9</v>
+        <v>289</v>
       </c>
       <c r="D179" t="n">
-        <v>288</v>
+        <v>289.5</v>
       </c>
       <c r="E179" t="n">
-        <v>287.9</v>
+        <v>288.3</v>
       </c>
       <c r="F179" t="n">
-        <v>4130.0347</v>
+        <v>8914.559499999999</v>
       </c>
       <c r="G179" t="n">
-        <v>286.9833333333331</v>
+        <v>286.9283333333331</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6663,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>288.7</v>
+        <v>288</v>
       </c>
       <c r="C180" t="n">
-        <v>289</v>
+        <v>287.9</v>
       </c>
       <c r="D180" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E180" t="n">
-        <v>288.7</v>
+        <v>287.9</v>
       </c>
       <c r="F180" t="n">
-        <v>3</v>
+        <v>4130.0347</v>
       </c>
       <c r="G180" t="n">
-        <v>287.0749999999998</v>
+        <v>286.9833333333331</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6698,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>288</v>
+        <v>288.7</v>
       </c>
       <c r="C181" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D181" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E181" t="n">
-        <v>288</v>
+        <v>288.7</v>
       </c>
       <c r="F181" t="n">
-        <v>1124.0578</v>
+        <v>3</v>
       </c>
       <c r="G181" t="n">
-        <v>287.1533333333331</v>
+        <v>287.0749999999998</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6733,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>288.8</v>
+        <v>288</v>
       </c>
       <c r="C182" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D182" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E182" t="n">
-        <v>288.8</v>
+        <v>288</v>
       </c>
       <c r="F182" t="n">
-        <v>16255.284</v>
+        <v>1124.0578</v>
       </c>
       <c r="G182" t="n">
-        <v>287.2633333333331</v>
+        <v>287.1533333333331</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>289</v>
+        <v>288.8</v>
       </c>
       <c r="C183" t="n">
         <v>290</v>
@@ -6777,13 +6777,13 @@
         <v>290</v>
       </c>
       <c r="E183" t="n">
-        <v>289</v>
+        <v>288.8</v>
       </c>
       <c r="F183" t="n">
-        <v>17200.4221</v>
+        <v>16255.284</v>
       </c>
       <c r="G183" t="n">
-        <v>287.3733333333331</v>
+        <v>287.2633333333331</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6803,7 +6803,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C184" t="n">
         <v>290</v>
@@ -6812,13 +6812,13 @@
         <v>290</v>
       </c>
       <c r="E184" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F184" t="n">
-        <v>2810</v>
+        <v>17200.4221</v>
       </c>
       <c r="G184" t="n">
-        <v>287.4649999999997</v>
+        <v>287.3733333333331</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6850,10 +6850,10 @@
         <v>290</v>
       </c>
       <c r="F185" t="n">
-        <v>0.5189</v>
+        <v>2810</v>
       </c>
       <c r="G185" t="n">
-        <v>287.5583333333331</v>
+        <v>287.4649999999997</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6873,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>290.4</v>
+        <v>290</v>
       </c>
       <c r="C186" t="n">
-        <v>290.4</v>
+        <v>290</v>
       </c>
       <c r="D186" t="n">
-        <v>290.4</v>
+        <v>290</v>
       </c>
       <c r="E186" t="n">
-        <v>290.4</v>
+        <v>290</v>
       </c>
       <c r="F186" t="n">
-        <v>340.9466</v>
+        <v>0.5189</v>
       </c>
       <c r="G186" t="n">
-        <v>287.6349999999997</v>
+        <v>287.5583333333331</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6908,7 +6908,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>290.3</v>
+        <v>290.4</v>
       </c>
       <c r="C187" t="n">
         <v>290.4</v>
@@ -6917,13 +6917,13 @@
         <v>290.4</v>
       </c>
       <c r="E187" t="n">
-        <v>290.3</v>
+        <v>290.4</v>
       </c>
       <c r="F187" t="n">
-        <v>330.8627</v>
+        <v>340.9466</v>
       </c>
       <c r="G187" t="n">
-        <v>287.7016666666664</v>
+        <v>287.6349999999997</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6943,22 +6943,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>290</v>
+        <v>290.3</v>
       </c>
       <c r="C188" t="n">
-        <v>290</v>
+        <v>290.4</v>
       </c>
       <c r="D188" t="n">
-        <v>290</v>
+        <v>290.4</v>
       </c>
       <c r="E188" t="n">
-        <v>290</v>
+        <v>290.3</v>
       </c>
       <c r="F188" t="n">
-        <v>20</v>
+        <v>330.8627</v>
       </c>
       <c r="G188" t="n">
-        <v>287.7616666666664</v>
+        <v>287.7016666666664</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6978,28 +6978,28 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>290.4</v>
+        <v>290</v>
       </c>
       <c r="C189" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D189" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E189" t="n">
-        <v>290.4</v>
+        <v>290</v>
       </c>
       <c r="F189" t="n">
-        <v>5396.4418</v>
+        <v>20</v>
       </c>
       <c r="G189" t="n">
-        <v>287.838333333333</v>
+        <v>287.7616666666664</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
@@ -7013,22 +7013,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>290.9</v>
+        <v>290.4</v>
       </c>
       <c r="C190" t="n">
-        <v>290.9</v>
+        <v>291</v>
       </c>
       <c r="D190" t="n">
         <v>291</v>
       </c>
       <c r="E190" t="n">
-        <v>290.9</v>
+        <v>290.4</v>
       </c>
       <c r="F190" t="n">
-        <v>6571.3917</v>
+        <v>5396.4418</v>
       </c>
       <c r="G190" t="n">
-        <v>287.913333333333</v>
+        <v>287.838333333333</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7048,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>290</v>
+        <v>290.9</v>
       </c>
       <c r="C191" t="n">
-        <v>290</v>
+        <v>290.9</v>
       </c>
       <c r="D191" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E191" t="n">
-        <v>290</v>
+        <v>290.9</v>
       </c>
       <c r="F191" t="n">
-        <v>172.0099</v>
+        <v>6571.3917</v>
       </c>
       <c r="G191" t="n">
-        <v>287.9816666666663</v>
+        <v>287.913333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7095,10 +7095,10 @@
         <v>290</v>
       </c>
       <c r="F192" t="n">
-        <v>5410.3084</v>
+        <v>172.0099</v>
       </c>
       <c r="G192" t="n">
-        <v>288.0649999999997</v>
+        <v>287.9816666666663</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>290</v>
       </c>
       <c r="F193" t="n">
-        <v>0.7453</v>
+        <v>5410.3084</v>
       </c>
       <c r="G193" t="n">
-        <v>288.123333333333</v>
+        <v>288.0649999999997</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7153,22 +7153,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>289.5</v>
+        <v>290</v>
       </c>
       <c r="C194" t="n">
-        <v>289.5</v>
+        <v>290</v>
       </c>
       <c r="D194" t="n">
-        <v>289.5</v>
+        <v>290</v>
       </c>
       <c r="E194" t="n">
-        <v>289.5</v>
+        <v>290</v>
       </c>
       <c r="F194" t="n">
-        <v>553</v>
+        <v>0.7453</v>
       </c>
       <c r="G194" t="n">
-        <v>288.193333333333</v>
+        <v>288.123333333333</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7191,19 +7191,19 @@
         <v>289.5</v>
       </c>
       <c r="C195" t="n">
-        <v>289.4</v>
+        <v>289.5</v>
       </c>
       <c r="D195" t="n">
         <v>289.5</v>
       </c>
       <c r="E195" t="n">
-        <v>289.4</v>
+        <v>289.5</v>
       </c>
       <c r="F195" t="n">
-        <v>4519.2733</v>
+        <v>553</v>
       </c>
       <c r="G195" t="n">
-        <v>288.2399999999997</v>
+        <v>288.193333333333</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7223,22 +7223,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>289</v>
+        <v>289.5</v>
       </c>
       <c r="C196" t="n">
-        <v>289</v>
+        <v>289.4</v>
       </c>
       <c r="D196" t="n">
-        <v>289</v>
+        <v>289.5</v>
       </c>
       <c r="E196" t="n">
-        <v>289</v>
+        <v>289.4</v>
       </c>
       <c r="F196" t="n">
-        <v>2105.9</v>
+        <v>4519.2733</v>
       </c>
       <c r="G196" t="n">
-        <v>288.2766666666664</v>
+        <v>288.2399999999997</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7261,19 +7261,19 @@
         <v>289</v>
       </c>
       <c r="C197" t="n">
-        <v>290.7</v>
+        <v>289</v>
       </c>
       <c r="D197" t="n">
-        <v>290.7</v>
+        <v>289</v>
       </c>
       <c r="E197" t="n">
         <v>289</v>
       </c>
       <c r="F197" t="n">
-        <v>2415.1734</v>
+        <v>2105.9</v>
       </c>
       <c r="G197" t="n">
-        <v>288.3416666666664</v>
+        <v>288.2766666666664</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7293,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>290.6</v>
+        <v>289</v>
       </c>
       <c r="C198" t="n">
-        <v>290.8</v>
+        <v>290.7</v>
       </c>
       <c r="D198" t="n">
-        <v>290.8</v>
+        <v>290.7</v>
       </c>
       <c r="E198" t="n">
-        <v>290.6</v>
+        <v>289</v>
       </c>
       <c r="F198" t="n">
-        <v>17153.8395</v>
+        <v>2415.1734</v>
       </c>
       <c r="G198" t="n">
-        <v>288.4133333333331</v>
+        <v>288.3416666666664</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7328,22 +7328,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>290.7</v>
+        <v>290.6</v>
       </c>
       <c r="C199" t="n">
-        <v>290.7</v>
+        <v>290.8</v>
       </c>
       <c r="D199" t="n">
-        <v>290.7</v>
+        <v>290.8</v>
       </c>
       <c r="E199" t="n">
-        <v>290.7</v>
+        <v>290.6</v>
       </c>
       <c r="F199" t="n">
-        <v>3494.2371</v>
+        <v>17153.8395</v>
       </c>
       <c r="G199" t="n">
-        <v>288.4866666666665</v>
+        <v>288.4133333333331</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7375,10 +7375,10 @@
         <v>290.7</v>
       </c>
       <c r="F200" t="n">
-        <v>631.21</v>
+        <v>3494.2371</v>
       </c>
       <c r="G200" t="n">
-        <v>288.5516666666664</v>
+        <v>288.4866666666665</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7410,10 +7410,10 @@
         <v>290.7</v>
       </c>
       <c r="F201" t="n">
-        <v>4822.7368</v>
+        <v>631.21</v>
       </c>
       <c r="G201" t="n">
-        <v>288.6166666666665</v>
+        <v>288.5516666666664</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7433,22 +7433,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>291</v>
+        <v>290.7</v>
       </c>
       <c r="C202" t="n">
-        <v>291.3</v>
+        <v>290.7</v>
       </c>
       <c r="D202" t="n">
-        <v>291.5</v>
+        <v>290.7</v>
       </c>
       <c r="E202" t="n">
-        <v>291</v>
+        <v>290.7</v>
       </c>
       <c r="F202" t="n">
-        <v>34</v>
+        <v>4822.7368</v>
       </c>
       <c r="G202" t="n">
-        <v>288.6916666666665</v>
+        <v>288.6166666666665</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7468,22 +7468,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C203" t="n">
         <v>291.3</v>
       </c>
       <c r="D203" t="n">
-        <v>291.3</v>
+        <v>291.5</v>
       </c>
       <c r="E203" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F203" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G203" t="n">
-        <v>288.7849999999998</v>
+        <v>288.6916666666665</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7506,19 +7506,19 @@
         <v>290</v>
       </c>
       <c r="C204" t="n">
-        <v>291.5</v>
+        <v>291.3</v>
       </c>
       <c r="D204" t="n">
-        <v>291.5</v>
+        <v>291.3</v>
       </c>
       <c r="E204" t="n">
         <v>290</v>
       </c>
       <c r="F204" t="n">
-        <v>3504.8635</v>
+        <v>36</v>
       </c>
       <c r="G204" t="n">
-        <v>288.8449999999997</v>
+        <v>288.7849999999998</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7538,7 +7538,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>291.5</v>
+        <v>290</v>
       </c>
       <c r="C205" t="n">
         <v>291.5</v>
@@ -7547,13 +7547,13 @@
         <v>291.5</v>
       </c>
       <c r="E205" t="n">
-        <v>291.5</v>
+        <v>290</v>
       </c>
       <c r="F205" t="n">
-        <v>207.506</v>
+        <v>3504.8635</v>
       </c>
       <c r="G205" t="n">
-        <v>288.9433333333331</v>
+        <v>288.8449999999997</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7573,7 +7573,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>291.3</v>
+        <v>291.5</v>
       </c>
       <c r="C206" t="n">
         <v>291.5</v>
@@ -7582,13 +7582,13 @@
         <v>291.5</v>
       </c>
       <c r="E206" t="n">
-        <v>291.3</v>
+        <v>291.5</v>
       </c>
       <c r="F206" t="n">
-        <v>1698.0852</v>
+        <v>207.506</v>
       </c>
       <c r="G206" t="n">
-        <v>289.0416666666665</v>
+        <v>288.9433333333331</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7608,22 +7608,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
+        <v>291.3</v>
+      </c>
+      <c r="C207" t="n">
         <v>291.5</v>
       </c>
-      <c r="C207" t="n">
-        <v>291.7</v>
-      </c>
       <c r="D207" t="n">
-        <v>291.7</v>
+        <v>291.5</v>
       </c>
       <c r="E207" t="n">
-        <v>291.5</v>
+        <v>291.3</v>
       </c>
       <c r="F207" t="n">
-        <v>4115.0566</v>
+        <v>1698.0852</v>
       </c>
       <c r="G207" t="n">
-        <v>289.1049999999998</v>
+        <v>289.0416666666665</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>291.5</v>
       </c>
       <c r="C208" t="n">
-        <v>291.5</v>
+        <v>291.7</v>
       </c>
       <c r="D208" t="n">
-        <v>291.5</v>
+        <v>291.7</v>
       </c>
       <c r="E208" t="n">
         <v>291.5</v>
       </c>
       <c r="F208" t="n">
-        <v>1072.4582</v>
+        <v>4115.0566</v>
       </c>
       <c r="G208" t="n">
-        <v>289.1649999999998</v>
+        <v>289.1049999999998</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7678,22 +7678,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>291.4</v>
+        <v>291.5</v>
       </c>
       <c r="C209" t="n">
-        <v>291.4</v>
+        <v>291.5</v>
       </c>
       <c r="D209" t="n">
-        <v>291.4</v>
+        <v>291.5</v>
       </c>
       <c r="E209" t="n">
-        <v>291.4</v>
+        <v>291.5</v>
       </c>
       <c r="F209" t="n">
-        <v>5076.9327</v>
+        <v>1072.4582</v>
       </c>
       <c r="G209" t="n">
-        <v>289.2599999999998</v>
+        <v>289.1649999999998</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7716,19 +7716,19 @@
         <v>291.4</v>
       </c>
       <c r="C210" t="n">
-        <v>291.8</v>
+        <v>291.4</v>
       </c>
       <c r="D210" t="n">
-        <v>291.8</v>
+        <v>291.4</v>
       </c>
       <c r="E210" t="n">
         <v>291.4</v>
       </c>
       <c r="F210" t="n">
-        <v>6000</v>
+        <v>5076.9327</v>
       </c>
       <c r="G210" t="n">
-        <v>289.3599999999998</v>
+        <v>289.2599999999998</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7748,7 +7748,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>291.8</v>
+        <v>291.4</v>
       </c>
       <c r="C211" t="n">
         <v>291.8</v>
@@ -7757,13 +7757,13 @@
         <v>291.8</v>
       </c>
       <c r="E211" t="n">
-        <v>291.8</v>
+        <v>291.4</v>
       </c>
       <c r="F211" t="n">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="G211" t="n">
-        <v>289.4599999999998</v>
+        <v>289.3599999999998</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7783,22 +7783,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>291.7</v>
+        <v>291.8</v>
       </c>
       <c r="C212" t="n">
-        <v>291.7</v>
+        <v>291.8</v>
       </c>
       <c r="D212" t="n">
-        <v>291.7</v>
+        <v>291.8</v>
       </c>
       <c r="E212" t="n">
-        <v>291.7</v>
+        <v>291.8</v>
       </c>
       <c r="F212" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G212" t="n">
-        <v>289.5549999999998</v>
+        <v>289.4599999999998</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7818,22 +7818,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>291.6</v>
+        <v>291.7</v>
       </c>
       <c r="C213" t="n">
-        <v>291.6</v>
+        <v>291.7</v>
       </c>
       <c r="D213" t="n">
-        <v>291.6</v>
+        <v>291.7</v>
       </c>
       <c r="E213" t="n">
-        <v>291.6</v>
+        <v>291.7</v>
       </c>
       <c r="F213" t="n">
-        <v>1103.299</v>
+        <v>1000</v>
       </c>
       <c r="G213" t="n">
-        <v>289.6216666666665</v>
+        <v>289.5549999999998</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7853,22 +7853,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>290</v>
+        <v>291.6</v>
       </c>
       <c r="C214" t="n">
-        <v>290</v>
+        <v>291.6</v>
       </c>
       <c r="D214" t="n">
-        <v>290</v>
+        <v>291.6</v>
       </c>
       <c r="E214" t="n">
-        <v>290</v>
+        <v>291.6</v>
       </c>
       <c r="F214" t="n">
-        <v>962.5237</v>
+        <v>1103.299</v>
       </c>
       <c r="G214" t="n">
-        <v>289.6616666666665</v>
+        <v>289.6216666666665</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7897,13 +7897,13 @@
         <v>290</v>
       </c>
       <c r="E215" t="n">
-        <v>289.4</v>
+        <v>290</v>
       </c>
       <c r="F215" t="n">
-        <v>4343.2</v>
+        <v>962.5237</v>
       </c>
       <c r="G215" t="n">
-        <v>289.7016666666665</v>
+        <v>289.6616666666665</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7923,22 +7923,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
+        <v>290</v>
+      </c>
+      <c r="C216" t="n">
+        <v>290</v>
+      </c>
+      <c r="D216" t="n">
+        <v>290</v>
+      </c>
+      <c r="E216" t="n">
         <v>289.4</v>
       </c>
-      <c r="C216" t="n">
-        <v>289</v>
-      </c>
-      <c r="D216" t="n">
-        <v>289.4</v>
-      </c>
-      <c r="E216" t="n">
-        <v>289</v>
-      </c>
       <c r="F216" t="n">
-        <v>2969.5716</v>
+        <v>4343.2</v>
       </c>
       <c r="G216" t="n">
-        <v>289.7249999999999</v>
+        <v>289.7016666666665</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>289.2</v>
+        <v>289.4</v>
       </c>
       <c r="C217" t="n">
-        <v>289.2</v>
+        <v>289</v>
       </c>
       <c r="D217" t="n">
-        <v>289.2</v>
+        <v>289.4</v>
       </c>
       <c r="E217" t="n">
-        <v>289.2</v>
+        <v>289</v>
       </c>
       <c r="F217" t="n">
-        <v>10000</v>
+        <v>2969.5716</v>
       </c>
       <c r="G217" t="n">
-        <v>289.7516666666666</v>
+        <v>289.7249999999999</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -7993,22 +7993,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>289</v>
+        <v>289.2</v>
       </c>
       <c r="C218" t="n">
-        <v>288</v>
+        <v>289.2</v>
       </c>
       <c r="D218" t="n">
-        <v>289</v>
+        <v>289.2</v>
       </c>
       <c r="E218" t="n">
-        <v>288</v>
+        <v>289.2</v>
       </c>
       <c r="F218" t="n">
-        <v>8948.1839</v>
+        <v>10000</v>
       </c>
       <c r="G218" t="n">
-        <v>289.7566666666665</v>
+        <v>289.7516666666666</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8028,22 +8028,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C219" t="n">
         <v>288</v>
       </c>
       <c r="D219" t="n">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E219" t="n">
         <v>288</v>
       </c>
       <c r="F219" t="n">
-        <v>5800.0068</v>
+        <v>8948.1839</v>
       </c>
       <c r="G219" t="n">
-        <v>289.7616666666665</v>
+        <v>289.7566666666665</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>288</v>
       </c>
       <c r="F220" t="n">
-        <v>918.8398</v>
+        <v>5800.0068</v>
       </c>
       <c r="G220" t="n">
-        <v>289.7683333333333</v>
+        <v>289.7616666666665</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8098,22 +8098,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>287.3</v>
+        <v>288</v>
       </c>
       <c r="C221" t="n">
-        <v>287.3</v>
+        <v>288</v>
       </c>
       <c r="D221" t="n">
-        <v>287.3</v>
+        <v>288</v>
       </c>
       <c r="E221" t="n">
-        <v>287.3</v>
+        <v>288</v>
       </c>
       <c r="F221" t="n">
-        <v>1.818</v>
+        <v>918.8398</v>
       </c>
       <c r="G221" t="n">
-        <v>289.7616666666665</v>
+        <v>289.7683333333333</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8133,22 +8133,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>288</v>
+        <v>287.3</v>
       </c>
       <c r="C222" t="n">
-        <v>288.5</v>
+        <v>287.3</v>
       </c>
       <c r="D222" t="n">
-        <v>288.5</v>
+        <v>287.3</v>
       </c>
       <c r="E222" t="n">
-        <v>288</v>
+        <v>287.3</v>
       </c>
       <c r="F222" t="n">
-        <v>2118.7964</v>
+        <v>1.818</v>
       </c>
       <c r="G222" t="n">
-        <v>289.7766666666666</v>
+        <v>289.7616666666665</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8168,22 +8168,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>287.5</v>
+        <v>288</v>
       </c>
       <c r="C223" t="n">
-        <v>287.5</v>
+        <v>288.5</v>
       </c>
       <c r="D223" t="n">
-        <v>287.5</v>
+        <v>288.5</v>
       </c>
       <c r="E223" t="n">
-        <v>285.8</v>
+        <v>288</v>
       </c>
       <c r="F223" t="n">
-        <v>29149.7837</v>
+        <v>2118.7964</v>
       </c>
       <c r="G223" t="n">
-        <v>289.7749999999999</v>
+        <v>289.7766666666666</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8203,22 +8203,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>285.7</v>
+        <v>287.5</v>
       </c>
       <c r="C224" t="n">
-        <v>284.4</v>
+        <v>287.5</v>
       </c>
       <c r="D224" t="n">
-        <v>285.7</v>
+        <v>287.5</v>
       </c>
       <c r="E224" t="n">
-        <v>284.4</v>
+        <v>285.8</v>
       </c>
       <c r="F224" t="n">
-        <v>15332.0086</v>
+        <v>29149.7837</v>
       </c>
       <c r="G224" t="n">
-        <v>289.7216666666666</v>
+        <v>289.7749999999999</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8238,22 +8238,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>284.9</v>
+        <v>285.7</v>
       </c>
       <c r="C225" t="n">
-        <v>287.2</v>
+        <v>284.4</v>
       </c>
       <c r="D225" t="n">
-        <v>287.2</v>
+        <v>285.7</v>
       </c>
       <c r="E225" t="n">
-        <v>284.9</v>
+        <v>284.4</v>
       </c>
       <c r="F225" t="n">
-        <v>14176.9327</v>
+        <v>15332.0086</v>
       </c>
       <c r="G225" t="n">
-        <v>289.6983333333334</v>
+        <v>289.7216666666666</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8276,19 +8276,19 @@
         <v>284.9</v>
       </c>
       <c r="C226" t="n">
-        <v>284.9</v>
+        <v>287.2</v>
       </c>
       <c r="D226" t="n">
-        <v>284.9</v>
+        <v>287.2</v>
       </c>
       <c r="E226" t="n">
         <v>284.9</v>
       </c>
       <c r="F226" t="n">
-        <v>100</v>
+        <v>14176.9327</v>
       </c>
       <c r="G226" t="n">
-        <v>289.6366666666667</v>
+        <v>289.6983333333334</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8308,22 +8308,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>285.1</v>
+        <v>284.9</v>
       </c>
       <c r="C227" t="n">
-        <v>285.1</v>
+        <v>284.9</v>
       </c>
       <c r="D227" t="n">
-        <v>285.1</v>
+        <v>284.9</v>
       </c>
       <c r="E227" t="n">
-        <v>285.1</v>
+        <v>284.9</v>
       </c>
       <c r="F227" t="n">
-        <v>602.0060999999999</v>
+        <v>100</v>
       </c>
       <c r="G227" t="n">
-        <v>289.5950000000001</v>
+        <v>289.6366666666667</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>286.6</v>
+        <v>285.1</v>
       </c>
       <c r="C228" t="n">
-        <v>286.6</v>
+        <v>285.1</v>
       </c>
       <c r="D228" t="n">
-        <v>286.6</v>
+        <v>285.1</v>
       </c>
       <c r="E228" t="n">
-        <v>286.6</v>
+        <v>285.1</v>
       </c>
       <c r="F228" t="n">
-        <v>795.1853</v>
+        <v>602.0060999999999</v>
       </c>
       <c r="G228" t="n">
-        <v>289.575</v>
+        <v>289.5950000000001</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8378,22 +8378,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>286</v>
+        <v>286.6</v>
       </c>
       <c r="C229" t="n">
-        <v>285.9</v>
+        <v>286.6</v>
       </c>
       <c r="D229" t="n">
-        <v>286</v>
+        <v>286.6</v>
       </c>
       <c r="E229" t="n">
-        <v>285.5</v>
+        <v>286.6</v>
       </c>
       <c r="F229" t="n">
-        <v>2574.7827</v>
+        <v>795.1853</v>
       </c>
       <c r="G229" t="n">
-        <v>289.5116666666667</v>
+        <v>289.575</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8413,22 +8413,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
+        <v>286</v>
+      </c>
+      <c r="C230" t="n">
         <v>285.9</v>
       </c>
-      <c r="C230" t="n">
-        <v>286.6</v>
-      </c>
       <c r="D230" t="n">
-        <v>286.6</v>
+        <v>286</v>
       </c>
       <c r="E230" t="n">
-        <v>285.9</v>
+        <v>285.5</v>
       </c>
       <c r="F230" t="n">
-        <v>1004.1997</v>
+        <v>2574.7827</v>
       </c>
       <c r="G230" t="n">
-        <v>289.46</v>
+        <v>289.5116666666667</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8448,22 +8448,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>286</v>
+        <v>285.9</v>
       </c>
       <c r="C231" t="n">
-        <v>286</v>
+        <v>286.6</v>
       </c>
       <c r="D231" t="n">
-        <v>286</v>
+        <v>286.6</v>
       </c>
       <c r="E231" t="n">
-        <v>286</v>
+        <v>285.9</v>
       </c>
       <c r="F231" t="n">
-        <v>1.818</v>
+        <v>1004.1997</v>
       </c>
       <c r="G231" t="n">
-        <v>289.3966666666667</v>
+        <v>289.46</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8483,22 +8483,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>286.2</v>
+        <v>286</v>
       </c>
       <c r="C232" t="n">
-        <v>284.4</v>
+        <v>286</v>
       </c>
       <c r="D232" t="n">
-        <v>286.2</v>
+        <v>286</v>
       </c>
       <c r="E232" t="n">
-        <v>284.4</v>
+        <v>286</v>
       </c>
       <c r="F232" t="n">
-        <v>4603.5462</v>
+        <v>1.818</v>
       </c>
       <c r="G232" t="n">
-        <v>289.3033333333334</v>
+        <v>289.3966666666667</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8518,22 +8518,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>286</v>
+        <v>286.2</v>
       </c>
       <c r="C233" t="n">
-        <v>286</v>
+        <v>284.4</v>
       </c>
       <c r="D233" t="n">
-        <v>287.2</v>
+        <v>286.2</v>
       </c>
       <c r="E233" t="n">
         <v>284.4</v>
       </c>
       <c r="F233" t="n">
-        <v>7272.4363</v>
+        <v>4603.5462</v>
       </c>
       <c r="G233" t="n">
-        <v>289.2366666666667</v>
+        <v>289.3033333333334</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8556,19 +8556,19 @@
         <v>286</v>
       </c>
       <c r="C234" t="n">
-        <v>284.4</v>
+        <v>286</v>
       </c>
       <c r="D234" t="n">
-        <v>286</v>
+        <v>287.2</v>
       </c>
       <c r="E234" t="n">
         <v>284.4</v>
       </c>
       <c r="F234" t="n">
-        <v>2327.5084</v>
+        <v>7272.4363</v>
       </c>
       <c r="G234" t="n">
-        <v>289.1716666666668</v>
+        <v>289.2366666666667</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8591,19 +8591,19 @@
         <v>286</v>
       </c>
       <c r="C235" t="n">
-        <v>286</v>
+        <v>284.4</v>
       </c>
       <c r="D235" t="n">
         <v>286</v>
       </c>
       <c r="E235" t="n">
-        <v>286</v>
+        <v>284.4</v>
       </c>
       <c r="F235" t="n">
-        <v>2</v>
+        <v>2327.5084</v>
       </c>
       <c r="G235" t="n">
-        <v>289.1333333333334</v>
+        <v>289.1716666666668</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8623,22 +8623,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>285.4</v>
+        <v>286</v>
       </c>
       <c r="C236" t="n">
-        <v>285.4</v>
+        <v>286</v>
       </c>
       <c r="D236" t="n">
-        <v>285.4</v>
+        <v>286</v>
       </c>
       <c r="E236" t="n">
-        <v>285.4</v>
+        <v>286</v>
       </c>
       <c r="F236" t="n">
-        <v>5.656</v>
+        <v>2</v>
       </c>
       <c r="G236" t="n">
-        <v>289.0566666666668</v>
+        <v>289.1333333333334</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8658,22 +8658,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>286</v>
+        <v>285.4</v>
       </c>
       <c r="C237" t="n">
-        <v>287.1</v>
+        <v>285.4</v>
       </c>
       <c r="D237" t="n">
-        <v>287.1</v>
+        <v>285.4</v>
       </c>
       <c r="E237" t="n">
-        <v>286</v>
+        <v>285.4</v>
       </c>
       <c r="F237" t="n">
-        <v>209.5072</v>
+        <v>5.656</v>
       </c>
       <c r="G237" t="n">
-        <v>289.0366666666668</v>
+        <v>289.0566666666668</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>286.4</v>
+        <v>286</v>
       </c>
       <c r="C238" t="n">
-        <v>286.4</v>
+        <v>287.1</v>
       </c>
       <c r="D238" t="n">
-        <v>286.4</v>
+        <v>287.1</v>
       </c>
       <c r="E238" t="n">
-        <v>286.4</v>
+        <v>286</v>
       </c>
       <c r="F238" t="n">
-        <v>2.828</v>
+        <v>209.5072</v>
       </c>
       <c r="G238" t="n">
-        <v>288.9933333333335</v>
+        <v>289.0366666666668</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -8740,10 +8740,10 @@
         <v>286.4</v>
       </c>
       <c r="F239" t="n">
-        <v>5359.0301</v>
+        <v>2.828</v>
       </c>
       <c r="G239" t="n">
-        <v>288.9683333333335</v>
+        <v>288.9933333333335</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -8763,22 +8763,22 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>287.2</v>
+        <v>286.4</v>
       </c>
       <c r="C240" t="n">
-        <v>287.2</v>
+        <v>286.4</v>
       </c>
       <c r="D240" t="n">
-        <v>287.2</v>
+        <v>286.4</v>
       </c>
       <c r="E240" t="n">
-        <v>287.2</v>
+        <v>286.4</v>
       </c>
       <c r="F240" t="n">
-        <v>1239.9435</v>
+        <v>5359.0301</v>
       </c>
       <c r="G240" t="n">
-        <v>288.9383333333335</v>
+        <v>288.9683333333335</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -8798,22 +8798,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>287.5</v>
+        <v>287.2</v>
       </c>
       <c r="C241" t="n">
-        <v>287.5</v>
+        <v>287.2</v>
       </c>
       <c r="D241" t="n">
-        <v>287.5</v>
+        <v>287.2</v>
       </c>
       <c r="E241" t="n">
-        <v>287.5</v>
+        <v>287.2</v>
       </c>
       <c r="F241" t="n">
-        <v>3055.3824</v>
+        <v>1239.9435</v>
       </c>
       <c r="G241" t="n">
-        <v>288.9300000000002</v>
+        <v>288.9383333333335</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -8833,22 +8833,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>287.1</v>
+        <v>287.5</v>
       </c>
       <c r="C242" t="n">
-        <v>287.1</v>
+        <v>287.5</v>
       </c>
       <c r="D242" t="n">
-        <v>287.1</v>
+        <v>287.5</v>
       </c>
       <c r="E242" t="n">
-        <v>287.1</v>
+        <v>287.5</v>
       </c>
       <c r="F242" t="n">
-        <v>134.0596</v>
+        <v>3055.3824</v>
       </c>
       <c r="G242" t="n">
-        <v>288.8816666666668</v>
+        <v>288.9300000000002</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8868,22 +8868,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>286.2</v>
+        <v>287.1</v>
       </c>
       <c r="C243" t="n">
-        <v>286.2</v>
+        <v>287.1</v>
       </c>
       <c r="D243" t="n">
-        <v>286.2</v>
+        <v>287.1</v>
       </c>
       <c r="E243" t="n">
-        <v>286.2</v>
+        <v>287.1</v>
       </c>
       <c r="F243" t="n">
-        <v>3372.1203</v>
+        <v>134.0596</v>
       </c>
       <c r="G243" t="n">
-        <v>288.8183333333335</v>
+        <v>288.8816666666668</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -8915,10 +8915,10 @@
         <v>286.2</v>
       </c>
       <c r="F244" t="n">
-        <v>1147.4842</v>
+        <v>3372.1203</v>
       </c>
       <c r="G244" t="n">
-        <v>288.7550000000002</v>
+        <v>288.8183333333335</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8941,19 +8941,19 @@
         <v>286.2</v>
       </c>
       <c r="C245" t="n">
-        <v>287.1</v>
+        <v>286.2</v>
       </c>
       <c r="D245" t="n">
-        <v>287.1</v>
+        <v>286.2</v>
       </c>
       <c r="E245" t="n">
         <v>286.2</v>
       </c>
       <c r="F245" t="n">
-        <v>100</v>
+        <v>1147.4842</v>
       </c>
       <c r="G245" t="n">
-        <v>288.7066666666668</v>
+        <v>288.7550000000002</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -8973,22 +8973,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="C246" t="n">
         <v>287.1</v>
-      </c>
-      <c r="C246" t="n">
-        <v>286.1</v>
       </c>
       <c r="D246" t="n">
         <v>287.1</v>
       </c>
       <c r="E246" t="n">
-        <v>286.1</v>
+        <v>286.2</v>
       </c>
       <c r="F246" t="n">
-        <v>2314.0843</v>
+        <v>100</v>
       </c>
       <c r="G246" t="n">
-        <v>288.6350000000001</v>
+        <v>288.7066666666668</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9008,22 +9008,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>286.1</v>
+        <v>287.1</v>
       </c>
       <c r="C247" t="n">
         <v>286.1</v>
       </c>
       <c r="D247" t="n">
-        <v>286.1</v>
+        <v>287.1</v>
       </c>
       <c r="E247" t="n">
         <v>286.1</v>
       </c>
       <c r="F247" t="n">
-        <v>3470.3765</v>
+        <v>2314.0843</v>
       </c>
       <c r="G247" t="n">
-        <v>288.5633333333334</v>
+        <v>288.6350000000001</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9043,22 +9043,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>287.1</v>
+        <v>286.1</v>
       </c>
       <c r="C248" t="n">
-        <v>287.1</v>
+        <v>286.1</v>
       </c>
       <c r="D248" t="n">
-        <v>287.1</v>
+        <v>286.1</v>
       </c>
       <c r="E248" t="n">
-        <v>287.1</v>
+        <v>286.1</v>
       </c>
       <c r="F248" t="n">
-        <v>170.1415</v>
+        <v>3470.3765</v>
       </c>
       <c r="G248" t="n">
-        <v>288.515</v>
+        <v>288.5633333333334</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9090,10 +9090,10 @@
         <v>287.1</v>
       </c>
       <c r="F249" t="n">
-        <v>0.0001</v>
+        <v>170.1415</v>
       </c>
       <c r="G249" t="n">
-        <v>288.45</v>
+        <v>288.515</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9113,22 +9113,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>287.6</v>
+        <v>287.1</v>
       </c>
       <c r="C250" t="n">
-        <v>287.6</v>
+        <v>287.1</v>
       </c>
       <c r="D250" t="n">
-        <v>287.6</v>
+        <v>287.1</v>
       </c>
       <c r="E250" t="n">
-        <v>287.6</v>
+        <v>287.1</v>
       </c>
       <c r="F250" t="n">
-        <v>1192</v>
+        <v>0.0001</v>
       </c>
       <c r="G250" t="n">
-        <v>288.3949999999999</v>
+        <v>288.45</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9148,22 +9148,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>287.7</v>
+        <v>287.6</v>
       </c>
       <c r="C251" t="n">
-        <v>287.7</v>
+        <v>287.6</v>
       </c>
       <c r="D251" t="n">
-        <v>287.7</v>
+        <v>287.6</v>
       </c>
       <c r="E251" t="n">
-        <v>287.7</v>
+        <v>287.6</v>
       </c>
       <c r="F251" t="n">
-        <v>5350.1841</v>
+        <v>1192</v>
       </c>
       <c r="G251" t="n">
-        <v>288.3566666666666</v>
+        <v>288.3949999999999</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9186,19 +9186,19 @@
         <v>287.7</v>
       </c>
       <c r="C252" t="n">
-        <v>288.4</v>
+        <v>287.7</v>
       </c>
       <c r="D252" t="n">
-        <v>288.4</v>
+        <v>287.7</v>
       </c>
       <c r="E252" t="n">
         <v>287.7</v>
       </c>
       <c r="F252" t="n">
-        <v>4754.6669</v>
+        <v>5350.1841</v>
       </c>
       <c r="G252" t="n">
-        <v>288.33</v>
+        <v>288.3566666666666</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9218,22 +9218,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>287.8</v>
+        <v>287.7</v>
       </c>
       <c r="C253" t="n">
-        <v>287.8</v>
+        <v>288.4</v>
       </c>
       <c r="D253" t="n">
-        <v>287.8</v>
+        <v>288.4</v>
       </c>
       <c r="E253" t="n">
-        <v>287.8</v>
+        <v>287.7</v>
       </c>
       <c r="F253" t="n">
-        <v>16.5495</v>
+        <v>4754.6669</v>
       </c>
       <c r="G253" t="n">
-        <v>288.2933333333333</v>
+        <v>288.33</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9265,10 +9265,10 @@
         <v>287.8</v>
       </c>
       <c r="F254" t="n">
-        <v>3.848</v>
+        <v>16.5495</v>
       </c>
       <c r="G254" t="n">
-        <v>288.265</v>
+        <v>288.2933333333333</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9288,22 +9288,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>288</v>
+        <v>287.8</v>
       </c>
       <c r="C255" t="n">
-        <v>287.9</v>
+        <v>287.8</v>
       </c>
       <c r="D255" t="n">
-        <v>288</v>
+        <v>287.8</v>
       </c>
       <c r="E255" t="n">
-        <v>287.9</v>
+        <v>287.8</v>
       </c>
       <c r="F255" t="n">
-        <v>2380</v>
+        <v>3.848</v>
       </c>
       <c r="G255" t="n">
-        <v>288.24</v>
+        <v>288.265</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9323,22 +9323,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>287.8</v>
+        <v>288</v>
       </c>
       <c r="C256" t="n">
-        <v>287.8</v>
+        <v>287.9</v>
       </c>
       <c r="D256" t="n">
-        <v>287.8</v>
+        <v>288</v>
       </c>
       <c r="E256" t="n">
-        <v>287.8</v>
+        <v>287.9</v>
       </c>
       <c r="F256" t="n">
-        <v>993.424</v>
+        <v>2380</v>
       </c>
       <c r="G256" t="n">
-        <v>288.22</v>
+        <v>288.24</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9358,22 +9358,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>288.3</v>
+        <v>287.8</v>
       </c>
       <c r="C257" t="n">
-        <v>288.3</v>
+        <v>287.8</v>
       </c>
       <c r="D257" t="n">
-        <v>288.3</v>
+        <v>287.8</v>
       </c>
       <c r="E257" t="n">
-        <v>288.3</v>
+        <v>287.8</v>
       </c>
       <c r="F257" t="n">
-        <v>3.8878</v>
+        <v>993.424</v>
       </c>
       <c r="G257" t="n">
-        <v>288.1799999999999</v>
+        <v>288.22</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9393,22 +9393,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>287.8</v>
+        <v>288.3</v>
       </c>
       <c r="C258" t="n">
-        <v>286.2</v>
+        <v>288.3</v>
       </c>
       <c r="D258" t="n">
-        <v>287.8</v>
+        <v>288.3</v>
       </c>
       <c r="E258" t="n">
-        <v>286.2</v>
+        <v>288.3</v>
       </c>
       <c r="F258" t="n">
-        <v>1553.4905</v>
+        <v>3.8878</v>
       </c>
       <c r="G258" t="n">
-        <v>288.1033333333333</v>
+        <v>288.1799999999999</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9428,22 +9428,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>286.3</v>
+        <v>287.8</v>
       </c>
       <c r="C259" t="n">
         <v>286.2</v>
       </c>
       <c r="D259" t="n">
-        <v>286.3</v>
+        <v>287.8</v>
       </c>
       <c r="E259" t="n">
         <v>286.2</v>
       </c>
       <c r="F259" t="n">
-        <v>557.1683</v>
+        <v>1553.4905</v>
       </c>
       <c r="G259" t="n">
-        <v>288.0283333333333</v>
+        <v>288.1033333333333</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>287.1</v>
+        <v>286.3</v>
       </c>
       <c r="C260" t="n">
-        <v>288</v>
+        <v>286.2</v>
       </c>
       <c r="D260" t="n">
-        <v>288</v>
+        <v>286.3</v>
       </c>
       <c r="E260" t="n">
-        <v>287.1</v>
+        <v>286.2</v>
       </c>
       <c r="F260" t="n">
-        <v>1293.766</v>
+        <v>557.1683</v>
       </c>
       <c r="G260" t="n">
-        <v>287.9833333333333</v>
+        <v>288.0283333333333</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9498,22 +9498,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>288.1</v>
+        <v>287.1</v>
       </c>
       <c r="C261" t="n">
-        <v>288.1</v>
+        <v>288</v>
       </c>
       <c r="D261" t="n">
-        <v>288.1</v>
+        <v>288</v>
       </c>
       <c r="E261" t="n">
-        <v>288.1</v>
+        <v>287.1</v>
       </c>
       <c r="F261" t="n">
-        <v>20.9434</v>
+        <v>1293.766</v>
       </c>
       <c r="G261" t="n">
-        <v>287.9399999999999</v>
+        <v>287.9833333333333</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9533,22 +9533,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>286.5</v>
+        <v>288.1</v>
       </c>
       <c r="C262" t="n">
-        <v>288.2</v>
+        <v>288.1</v>
       </c>
       <c r="D262" t="n">
-        <v>288.2</v>
+        <v>288.1</v>
       </c>
       <c r="E262" t="n">
-        <v>286.5</v>
+        <v>288.1</v>
       </c>
       <c r="F262" t="n">
-        <v>1312.038</v>
+        <v>20.9434</v>
       </c>
       <c r="G262" t="n">
-        <v>287.8883333333333</v>
+        <v>287.9399999999999</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9568,7 +9568,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>288.2</v>
+        <v>286.5</v>
       </c>
       <c r="C263" t="n">
         <v>288.2</v>
@@ -9577,13 +9577,13 @@
         <v>288.2</v>
       </c>
       <c r="E263" t="n">
-        <v>288.2</v>
+        <v>286.5</v>
       </c>
       <c r="F263" t="n">
-        <v>173.0307</v>
+        <v>1312.038</v>
       </c>
       <c r="G263" t="n">
-        <v>287.8366666666666</v>
+        <v>287.8883333333333</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9606,19 +9606,19 @@
         <v>288.2</v>
       </c>
       <c r="C264" t="n">
-        <v>288.3</v>
+        <v>288.2</v>
       </c>
       <c r="D264" t="n">
-        <v>288.3</v>
+        <v>288.2</v>
       </c>
       <c r="E264" t="n">
         <v>288.2</v>
       </c>
       <c r="F264" t="n">
-        <v>1577.6445</v>
+        <v>173.0307</v>
       </c>
       <c r="G264" t="n">
-        <v>287.7833333333332</v>
+        <v>287.8366666666666</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9641,19 +9641,19 @@
         <v>288.2</v>
       </c>
       <c r="C265" t="n">
-        <v>286.5</v>
+        <v>288.3</v>
       </c>
       <c r="D265" t="n">
+        <v>288.3</v>
+      </c>
+      <c r="E265" t="n">
         <v>288.2</v>
       </c>
-      <c r="E265" t="n">
-        <v>286.5</v>
-      </c>
       <c r="F265" t="n">
-        <v>3386.6601</v>
+        <v>1577.6445</v>
       </c>
       <c r="G265" t="n">
-        <v>287.6999999999999</v>
+        <v>287.7833333333332</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9673,22 +9673,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>288.3</v>
+        <v>288.2</v>
       </c>
       <c r="C266" t="n">
-        <v>288.3</v>
+        <v>286.5</v>
       </c>
       <c r="D266" t="n">
-        <v>288.3</v>
+        <v>288.2</v>
       </c>
       <c r="E266" t="n">
-        <v>288.3</v>
+        <v>286.5</v>
       </c>
       <c r="F266" t="n">
-        <v>491.9389</v>
+        <v>3386.6601</v>
       </c>
       <c r="G266" t="n">
-        <v>287.6466666666666</v>
+        <v>287.6999999999999</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9708,22 +9708,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>288.4</v>
+        <v>288.3</v>
       </c>
       <c r="C267" t="n">
-        <v>288.8</v>
+        <v>288.3</v>
       </c>
       <c r="D267" t="n">
-        <v>288.8</v>
+        <v>288.3</v>
       </c>
       <c r="E267" t="n">
-        <v>288.4</v>
+        <v>288.3</v>
       </c>
       <c r="F267" t="n">
-        <v>4842.8596</v>
+        <v>491.9389</v>
       </c>
       <c r="G267" t="n">
-        <v>287.5983333333332</v>
+        <v>287.6466666666666</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9743,22 +9743,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>287.2</v>
+        <v>288.4</v>
       </c>
       <c r="C268" t="n">
-        <v>287.2</v>
+        <v>288.8</v>
       </c>
       <c r="D268" t="n">
-        <v>287.2</v>
+        <v>288.8</v>
       </c>
       <c r="E268" t="n">
-        <v>287.2</v>
+        <v>288.4</v>
       </c>
       <c r="F268" t="n">
-        <v>1.818</v>
+        <v>4842.8596</v>
       </c>
       <c r="G268" t="n">
-        <v>287.5266666666666</v>
+        <v>287.5983333333332</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9778,22 +9778,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>288.4</v>
+        <v>287.2</v>
       </c>
       <c r="C269" t="n">
-        <v>288.4</v>
+        <v>287.2</v>
       </c>
       <c r="D269" t="n">
-        <v>288.4</v>
+        <v>287.2</v>
       </c>
       <c r="E269" t="n">
-        <v>288.4</v>
+        <v>287.2</v>
       </c>
       <c r="F269" t="n">
-        <v>4462.4992</v>
+        <v>1.818</v>
       </c>
       <c r="G269" t="n">
-        <v>287.4766666666666</v>
+        <v>287.5266666666666</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9813,22 +9813,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>286.7</v>
+        <v>288.4</v>
       </c>
       <c r="C270" t="n">
-        <v>286.7</v>
+        <v>288.4</v>
       </c>
       <c r="D270" t="n">
-        <v>286.7</v>
+        <v>288.4</v>
       </c>
       <c r="E270" t="n">
-        <v>286.7</v>
+        <v>288.4</v>
       </c>
       <c r="F270" t="n">
-        <v>1.818</v>
+        <v>4462.4992</v>
       </c>
       <c r="G270" t="n">
-        <v>287.3916666666666</v>
+        <v>287.4766666666666</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9848,22 +9848,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>288.4</v>
+        <v>286.7</v>
       </c>
       <c r="C271" t="n">
-        <v>288.5</v>
+        <v>286.7</v>
       </c>
       <c r="D271" t="n">
-        <v>288.5</v>
+        <v>286.7</v>
       </c>
       <c r="E271" t="n">
-        <v>288.4</v>
+        <v>286.7</v>
       </c>
       <c r="F271" t="n">
-        <v>609.6985</v>
+        <v>1.818</v>
       </c>
       <c r="G271" t="n">
-        <v>287.3366666666666</v>
+        <v>287.3916666666666</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9886,19 +9886,19 @@
         <v>288.4</v>
       </c>
       <c r="C272" t="n">
-        <v>288.8</v>
+        <v>288.5</v>
       </c>
       <c r="D272" t="n">
-        <v>288.8</v>
+        <v>288.5</v>
       </c>
       <c r="E272" t="n">
         <v>288.4</v>
       </c>
       <c r="F272" t="n">
-        <v>132.9254</v>
+        <v>609.6985</v>
       </c>
       <c r="G272" t="n">
-        <v>287.2883333333332</v>
+        <v>287.3366666666666</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9921,19 +9921,19 @@
         <v>288.4</v>
       </c>
       <c r="C273" t="n">
-        <v>287.4</v>
+        <v>288.8</v>
       </c>
       <c r="D273" t="n">
+        <v>288.8</v>
+      </c>
+      <c r="E273" t="n">
         <v>288.4</v>
       </c>
-      <c r="E273" t="n">
-        <v>287.4</v>
-      </c>
       <c r="F273" t="n">
-        <v>408.0626</v>
+        <v>132.9254</v>
       </c>
       <c r="G273" t="n">
-        <v>287.2183333333333</v>
+        <v>287.2883333333332</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9953,22 +9953,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
+        <v>288.4</v>
+      </c>
+      <c r="C274" t="n">
         <v>287.4</v>
       </c>
-      <c r="C274" t="n">
-        <v>286.3</v>
-      </c>
       <c r="D274" t="n">
+        <v>288.4</v>
+      </c>
+      <c r="E274" t="n">
         <v>287.4</v>
       </c>
-      <c r="E274" t="n">
-        <v>286.3</v>
-      </c>
       <c r="F274" t="n">
-        <v>7483.565</v>
+        <v>408.0626</v>
       </c>
       <c r="G274" t="n">
-        <v>287.1566666666666</v>
+        <v>287.2183333333333</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -9988,22 +9988,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>286.3</v>
+        <v>287.4</v>
       </c>
       <c r="C275" t="n">
         <v>286.3</v>
       </c>
       <c r="D275" t="n">
-        <v>286.3</v>
+        <v>287.4</v>
       </c>
       <c r="E275" t="n">
         <v>286.3</v>
       </c>
       <c r="F275" t="n">
-        <v>379.8899</v>
+        <v>7483.565</v>
       </c>
       <c r="G275" t="n">
-        <v>287.095</v>
+        <v>287.1566666666666</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10026,19 +10026,19 @@
         <v>286.3</v>
       </c>
       <c r="C276" t="n">
-        <v>286.1</v>
+        <v>286.3</v>
       </c>
       <c r="D276" t="n">
         <v>286.3</v>
       </c>
       <c r="E276" t="n">
-        <v>286.1</v>
+        <v>286.3</v>
       </c>
       <c r="F276" t="n">
-        <v>5930.4706</v>
+        <v>379.8899</v>
       </c>
       <c r="G276" t="n">
-        <v>287.0466666666666</v>
+        <v>287.095</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10058,22 +10058,22 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>286.2</v>
+        <v>286.3</v>
       </c>
       <c r="C277" t="n">
-        <v>286.2</v>
+        <v>286.1</v>
       </c>
       <c r="D277" t="n">
-        <v>286.2</v>
+        <v>286.3</v>
       </c>
       <c r="E277" t="n">
-        <v>286.2</v>
+        <v>286.1</v>
       </c>
       <c r="F277" t="n">
-        <v>965.4254</v>
+        <v>5930.4706</v>
       </c>
       <c r="G277" t="n">
-        <v>286.9966666666666</v>
+        <v>287.0466666666666</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10093,22 +10093,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>286.1</v>
+        <v>286.2</v>
       </c>
       <c r="C278" t="n">
-        <v>286.1</v>
+        <v>286.2</v>
       </c>
       <c r="D278" t="n">
-        <v>286.1</v>
+        <v>286.2</v>
       </c>
       <c r="E278" t="n">
-        <v>286.1</v>
+        <v>286.2</v>
       </c>
       <c r="F278" t="n">
-        <v>4566.287</v>
+        <v>965.4254</v>
       </c>
       <c r="G278" t="n">
-        <v>286.9649999999999</v>
+        <v>286.9966666666666</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10131,19 +10131,19 @@
         <v>286.1</v>
       </c>
       <c r="C279" t="n">
-        <v>285.6</v>
+        <v>286.1</v>
       </c>
       <c r="D279" t="n">
         <v>286.1</v>
       </c>
       <c r="E279" t="n">
-        <v>285.6</v>
+        <v>286.1</v>
       </c>
       <c r="F279" t="n">
-        <v>5072.6978</v>
+        <v>4566.287</v>
       </c>
       <c r="G279" t="n">
-        <v>286.9249999999999</v>
+        <v>286.9649999999999</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10166,19 +10166,19 @@
         <v>286.1</v>
       </c>
       <c r="C280" t="n">
-        <v>286.1</v>
+        <v>285.6</v>
       </c>
       <c r="D280" t="n">
         <v>286.1</v>
       </c>
       <c r="E280" t="n">
-        <v>286.1</v>
+        <v>285.6</v>
       </c>
       <c r="F280" t="n">
-        <v>2476.3942</v>
+        <v>5072.6978</v>
       </c>
       <c r="G280" t="n">
-        <v>286.8933333333332</v>
+        <v>286.9249999999999</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10198,22 +10198,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>285.9</v>
+        <v>286.1</v>
       </c>
       <c r="C281" t="n">
-        <v>285.6</v>
+        <v>286.1</v>
       </c>
       <c r="D281" t="n">
-        <v>285.9</v>
+        <v>286.1</v>
       </c>
       <c r="E281" t="n">
-        <v>285.6</v>
+        <v>286.1</v>
       </c>
       <c r="F281" t="n">
-        <v>3.636</v>
+        <v>2476.3942</v>
       </c>
       <c r="G281" t="n">
-        <v>286.8649999999998</v>
+        <v>286.8933333333332</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10233,22 +10233,22 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>285.6</v>
+        <v>285.9</v>
       </c>
       <c r="C282" t="n">
         <v>285.6</v>
       </c>
       <c r="D282" t="n">
-        <v>285.6</v>
+        <v>285.9</v>
       </c>
       <c r="E282" t="n">
         <v>285.6</v>
       </c>
       <c r="F282" t="n">
-        <v>654.5835</v>
+        <v>3.636</v>
       </c>
       <c r="G282" t="n">
-        <v>286.8166666666665</v>
+        <v>286.8649999999998</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10268,22 +10268,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>286.9</v>
+        <v>285.6</v>
       </c>
       <c r="C283" t="n">
-        <v>286.9</v>
+        <v>285.6</v>
       </c>
       <c r="D283" t="n">
-        <v>286.9</v>
+        <v>285.6</v>
       </c>
       <c r="E283" t="n">
-        <v>286.9</v>
+        <v>285.6</v>
       </c>
       <c r="F283" t="n">
-        <v>500</v>
+        <v>654.5835</v>
       </c>
       <c r="G283" t="n">
-        <v>286.8066666666665</v>
+        <v>286.8166666666665</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10303,22 +10303,22 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>286</v>
+        <v>286.9</v>
       </c>
       <c r="C284" t="n">
-        <v>286</v>
+        <v>286.9</v>
       </c>
       <c r="D284" t="n">
-        <v>286</v>
+        <v>286.9</v>
       </c>
       <c r="E284" t="n">
-        <v>286</v>
+        <v>286.9</v>
       </c>
       <c r="F284" t="n">
         <v>500</v>
       </c>
       <c r="G284" t="n">
-        <v>286.8333333333331</v>
+        <v>286.8066666666665</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10338,22 +10338,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>285.7</v>
+        <v>286</v>
       </c>
       <c r="C285" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D285" t="n">
-        <v>285.7</v>
+        <v>286</v>
       </c>
       <c r="E285" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F285" t="n">
-        <v>13616.4902</v>
+        <v>500</v>
       </c>
       <c r="G285" t="n">
-        <v>286.7799999999998</v>
+        <v>286.8333333333331</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10373,22 +10373,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>284.3</v>
+        <v>285.7</v>
       </c>
       <c r="C286" t="n">
-        <v>283.9</v>
+        <v>284</v>
       </c>
       <c r="D286" t="n">
-        <v>284.3</v>
+        <v>285.7</v>
       </c>
       <c r="E286" t="n">
-        <v>283.9</v>
+        <v>284</v>
       </c>
       <c r="F286" t="n">
-        <v>2138.6299</v>
+        <v>13616.4902</v>
       </c>
       <c r="G286" t="n">
-        <v>286.7633333333332</v>
+        <v>286.7799999999998</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10408,22 +10408,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>285.3</v>
+        <v>284.3</v>
       </c>
       <c r="C287" t="n">
-        <v>285.6</v>
+        <v>283.9</v>
       </c>
       <c r="D287" t="n">
-        <v>285.6</v>
+        <v>284.3</v>
       </c>
       <c r="E287" t="n">
-        <v>285.3</v>
+        <v>283.9</v>
       </c>
       <c r="F287" t="n">
-        <v>1401.81232492</v>
+        <v>2138.6299</v>
       </c>
       <c r="G287" t="n">
-        <v>286.7716666666665</v>
+        <v>286.7633333333332</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10443,22 +10443,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>283.9</v>
+        <v>285.3</v>
       </c>
       <c r="C288" t="n">
-        <v>283.9</v>
+        <v>285.6</v>
       </c>
       <c r="D288" t="n">
-        <v>283.9</v>
+        <v>285.6</v>
       </c>
       <c r="E288" t="n">
-        <v>283.9</v>
+        <v>285.3</v>
       </c>
       <c r="F288" t="n">
-        <v>2127.3731</v>
+        <v>1401.81232492</v>
       </c>
       <c r="G288" t="n">
-        <v>286.7266666666665</v>
+        <v>286.7716666666665</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -10490,10 +10490,10 @@
         <v>283.9</v>
       </c>
       <c r="F289" t="n">
-        <v>277.2189</v>
+        <v>2127.3731</v>
       </c>
       <c r="G289" t="n">
-        <v>286.6933333333332</v>
+        <v>286.7266666666665</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -10525,10 +10525,10 @@
         <v>283.9</v>
       </c>
       <c r="F290" t="n">
-        <v>5.1392</v>
+        <v>277.2189</v>
       </c>
       <c r="G290" t="n">
-        <v>286.6483333333333</v>
+        <v>286.6933333333332</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -10548,22 +10548,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>283.3</v>
+        <v>283.9</v>
       </c>
       <c r="C291" t="n">
-        <v>283</v>
+        <v>283.9</v>
       </c>
       <c r="D291" t="n">
-        <v>283.3</v>
+        <v>283.9</v>
       </c>
       <c r="E291" t="n">
-        <v>283</v>
+        <v>283.9</v>
       </c>
       <c r="F291" t="n">
-        <v>4195.1577</v>
+        <v>5.1392</v>
       </c>
       <c r="G291" t="n">
-        <v>286.5983333333332</v>
+        <v>286.6483333333333</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -10583,22 +10583,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>283</v>
+        <v>283.3</v>
       </c>
       <c r="C292" t="n">
         <v>283</v>
       </c>
       <c r="D292" t="n">
-        <v>283</v>
+        <v>283.3</v>
       </c>
       <c r="E292" t="n">
         <v>283</v>
       </c>
       <c r="F292" t="n">
-        <v>1280.9123</v>
+        <v>4195.1577</v>
       </c>
       <c r="G292" t="n">
-        <v>286.5749999999999</v>
+        <v>286.5983333333332</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -10630,10 +10630,10 @@
         <v>283</v>
       </c>
       <c r="F293" t="n">
-        <v>2794.901</v>
+        <v>1280.9123</v>
       </c>
       <c r="G293" t="n">
-        <v>286.5249999999999</v>
+        <v>286.5749999999999</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>283</v>
       </c>
       <c r="F294" t="n">
-        <v>2277.5632</v>
+        <v>2794.901</v>
       </c>
       <c r="G294" t="n">
-        <v>286.5016666666665</v>
+        <v>286.5249999999999</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -10700,10 +10700,10 @@
         <v>283</v>
       </c>
       <c r="F295" t="n">
-        <v>10</v>
+        <v>2277.5632</v>
       </c>
       <c r="G295" t="n">
-        <v>286.4516666666665</v>
+        <v>286.5016666666665</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -10735,10 +10735,10 @@
         <v>283</v>
       </c>
       <c r="F296" t="n">
-        <v>279.2769</v>
+        <v>10</v>
       </c>
       <c r="G296" t="n">
-        <v>286.4116666666665</v>
+        <v>286.4516666666665</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -10758,22 +10758,22 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>282.8</v>
+        <v>283</v>
       </c>
       <c r="C297" t="n">
-        <v>281.5</v>
+        <v>283</v>
       </c>
       <c r="D297" t="n">
         <v>283</v>
       </c>
       <c r="E297" t="n">
-        <v>281.5</v>
+        <v>283</v>
       </c>
       <c r="F297" t="n">
-        <v>19157.182</v>
+        <v>279.2769</v>
       </c>
       <c r="G297" t="n">
-        <v>286.3183333333332</v>
+        <v>286.4116666666665</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -10796,19 +10796,19 @@
         <v>282.8</v>
       </c>
       <c r="C298" t="n">
-        <v>282.7</v>
+        <v>281.5</v>
       </c>
       <c r="D298" t="n">
-        <v>282.8</v>
+        <v>283</v>
       </c>
       <c r="E298" t="n">
-        <v>282.7</v>
+        <v>281.5</v>
       </c>
       <c r="F298" t="n">
-        <v>107.3</v>
+        <v>19157.182</v>
       </c>
       <c r="G298" t="n">
-        <v>286.2566666666665</v>
+        <v>286.3183333333332</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -10828,22 +10828,22 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>281.8</v>
+        <v>282.8</v>
       </c>
       <c r="C299" t="n">
-        <v>281.5</v>
+        <v>282.7</v>
       </c>
       <c r="D299" t="n">
-        <v>281.8</v>
+        <v>282.8</v>
       </c>
       <c r="E299" t="n">
-        <v>281.5</v>
+        <v>282.7</v>
       </c>
       <c r="F299" t="n">
-        <v>1000</v>
+        <v>107.3</v>
       </c>
       <c r="G299" t="n">
-        <v>286.1749999999998</v>
+        <v>286.2566666666665</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -10863,22 +10863,22 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
+        <v>281.8</v>
+      </c>
+      <c r="C300" t="n">
         <v>281.5</v>
       </c>
-      <c r="C300" t="n">
-        <v>281</v>
-      </c>
       <c r="D300" t="n">
+        <v>281.8</v>
+      </c>
+      <c r="E300" t="n">
         <v>281.5</v>
       </c>
-      <c r="E300" t="n">
-        <v>280.5</v>
-      </c>
       <c r="F300" t="n">
-        <v>16025.5687</v>
+        <v>1000</v>
       </c>
       <c r="G300" t="n">
-        <v>286.0716666666665</v>
+        <v>286.1749999999998</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="C301" t="n">
+        <v>281</v>
+      </c>
+      <c r="D301" t="n">
+        <v>281.5</v>
+      </c>
+      <c r="E301" t="n">
         <v>280.5</v>
       </c>
-      <c r="C301" t="n">
-        <v>280.5</v>
-      </c>
-      <c r="D301" t="n">
-        <v>280.5</v>
-      </c>
-      <c r="E301" t="n">
-        <v>280.4</v>
-      </c>
       <c r="F301" t="n">
-        <v>2434.0189</v>
+        <v>16025.5687</v>
       </c>
       <c r="G301" t="n">
-        <v>285.9549999999998</v>
+        <v>286.0716666666665</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -10936,19 +10936,19 @@
         <v>280.5</v>
       </c>
       <c r="C302" t="n">
-        <v>281.8</v>
+        <v>280.5</v>
       </c>
       <c r="D302" t="n">
-        <v>281.8</v>
+        <v>280.5</v>
       </c>
       <c r="E302" t="n">
         <v>280.4</v>
       </c>
       <c r="F302" t="n">
-        <v>4106.3573</v>
+        <v>2434.0189</v>
       </c>
       <c r="G302" t="n">
-        <v>285.8666666666665</v>
+        <v>285.9549999999998</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -10968,7 +10968,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>281.8</v>
+        <v>280.5</v>
       </c>
       <c r="C303" t="n">
         <v>281.8</v>
@@ -10977,13 +10977,13 @@
         <v>281.8</v>
       </c>
       <c r="E303" t="n">
-        <v>281.8</v>
+        <v>280.4</v>
       </c>
       <c r="F303" t="n">
-        <v>6354.1007</v>
+        <v>4106.3573</v>
       </c>
       <c r="G303" t="n">
-        <v>285.7933333333331</v>
+        <v>285.8666666666665</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -11015,10 +11015,10 @@
         <v>281.8</v>
       </c>
       <c r="F304" t="n">
-        <v>2755.2311</v>
+        <v>6354.1007</v>
       </c>
       <c r="G304" t="n">
-        <v>285.7199999999997</v>
+        <v>285.7933333333331</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11038,22 +11038,22 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>281.1</v>
+        <v>281.8</v>
       </c>
       <c r="C305" t="n">
-        <v>281.1</v>
+        <v>281.8</v>
       </c>
       <c r="D305" t="n">
-        <v>281.1</v>
+        <v>281.8</v>
       </c>
       <c r="E305" t="n">
-        <v>281.1</v>
+        <v>281.8</v>
       </c>
       <c r="F305" t="n">
-        <v>2178.9188</v>
+        <v>2755.2311</v>
       </c>
       <c r="G305" t="n">
-        <v>285.6199999999998</v>
+        <v>285.7199999999997</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11076,19 +11076,19 @@
         <v>281.1</v>
       </c>
       <c r="C306" t="n">
-        <v>281</v>
+        <v>281.1</v>
       </c>
       <c r="D306" t="n">
         <v>281.1</v>
       </c>
       <c r="E306" t="n">
-        <v>281</v>
+        <v>281.1</v>
       </c>
       <c r="F306" t="n">
-        <v>517.6458</v>
+        <v>2178.9188</v>
       </c>
       <c r="G306" t="n">
-        <v>285.5349999999998</v>
+        <v>285.6199999999998</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11108,22 +11108,22 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>281</v>
+        <v>281.1</v>
       </c>
       <c r="C307" t="n">
         <v>281</v>
       </c>
       <c r="D307" t="n">
-        <v>281</v>
+        <v>281.1</v>
       </c>
       <c r="E307" t="n">
         <v>281</v>
       </c>
       <c r="F307" t="n">
-        <v>1183.3</v>
+        <v>517.6458</v>
       </c>
       <c r="G307" t="n">
-        <v>285.4499999999998</v>
+        <v>285.5349999999998</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11143,22 +11143,22 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C308" t="n">
-        <v>283.3</v>
+        <v>281</v>
       </c>
       <c r="D308" t="n">
-        <v>283.3</v>
+        <v>281</v>
       </c>
       <c r="E308" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F308" t="n">
-        <v>25761.3315</v>
+        <v>1183.3</v>
       </c>
       <c r="G308" t="n">
-        <v>285.3866666666665</v>
+        <v>285.4499999999998</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11178,22 +11178,22 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C309" t="n">
-        <v>283</v>
+        <v>283.3</v>
       </c>
       <c r="D309" t="n">
-        <v>283</v>
+        <v>283.3</v>
       </c>
       <c r="E309" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F309" t="n">
-        <v>37.1889</v>
+        <v>25761.3315</v>
       </c>
       <c r="G309" t="n">
-        <v>285.3183333333332</v>
+        <v>285.3866666666665</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11213,22 +11213,22 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>282.8</v>
+        <v>283</v>
       </c>
       <c r="C310" t="n">
-        <v>282.8</v>
+        <v>283</v>
       </c>
       <c r="D310" t="n">
-        <v>282.8</v>
+        <v>283</v>
       </c>
       <c r="E310" t="n">
-        <v>282.8</v>
+        <v>283</v>
       </c>
       <c r="F310" t="n">
-        <v>4.5</v>
+        <v>37.1889</v>
       </c>
       <c r="G310" t="n">
-        <v>285.2383333333332</v>
+        <v>285.3183333333332</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11248,22 +11248,22 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>282.9</v>
+        <v>282.8</v>
       </c>
       <c r="C311" t="n">
-        <v>282.9</v>
+        <v>282.8</v>
       </c>
       <c r="D311" t="n">
-        <v>282.9</v>
+        <v>282.8</v>
       </c>
       <c r="E311" t="n">
-        <v>282.9</v>
+        <v>282.8</v>
       </c>
       <c r="F311" t="n">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="G311" t="n">
-        <v>285.1583333333332</v>
+        <v>285.2383333333332</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11283,22 +11283,22 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>282</v>
+        <v>282.9</v>
       </c>
       <c r="C312" t="n">
-        <v>282</v>
+        <v>282.9</v>
       </c>
       <c r="D312" t="n">
-        <v>282</v>
+        <v>282.9</v>
       </c>
       <c r="E312" t="n">
-        <v>282</v>
+        <v>282.9</v>
       </c>
       <c r="F312" t="n">
-        <v>25.0401</v>
+        <v>10</v>
       </c>
       <c r="G312" t="n">
-        <v>285.0516666666665</v>
+        <v>285.1583333333332</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -11318,22 +11318,22 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C313" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D313" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E313" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F313" t="n">
-        <v>1133.0528</v>
+        <v>25.0401</v>
       </c>
       <c r="G313" t="n">
-        <v>284.9383333333332</v>
+        <v>285.0516666666665</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -11356,19 +11356,19 @@
         <v>281</v>
       </c>
       <c r="C314" t="n">
-        <v>280.2</v>
+        <v>281</v>
       </c>
       <c r="D314" t="n">
         <v>281</v>
       </c>
       <c r="E314" t="n">
-        <v>280.2</v>
+        <v>281</v>
       </c>
       <c r="F314" t="n">
-        <v>9491.580400000001</v>
+        <v>1133.0528</v>
       </c>
       <c r="G314" t="n">
-        <v>284.8116666666666</v>
+        <v>284.9383333333332</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -11388,22 +11388,22 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>280.1</v>
+        <v>281</v>
       </c>
       <c r="C315" t="n">
-        <v>280.1</v>
+        <v>280.2</v>
       </c>
       <c r="D315" t="n">
         <v>281</v>
       </c>
       <c r="E315" t="n">
-        <v>280</v>
+        <v>280.2</v>
       </c>
       <c r="F315" t="n">
-        <v>21646.2925</v>
+        <v>9491.580400000001</v>
       </c>
       <c r="G315" t="n">
-        <v>284.6816666666665</v>
+        <v>284.8116666666666</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -11423,22 +11423,22 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>280</v>
+        <v>280.1</v>
       </c>
       <c r="C316" t="n">
         <v>280.1</v>
       </c>
       <c r="D316" t="n">
-        <v>280.1</v>
+        <v>281</v>
       </c>
       <c r="E316" t="n">
         <v>280</v>
       </c>
       <c r="F316" t="n">
-        <v>9693.3262</v>
+        <v>21646.2925</v>
       </c>
       <c r="G316" t="n">
-        <v>284.5533333333332</v>
+        <v>284.6816666666665</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -11458,22 +11458,22 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C317" t="n">
-        <v>281</v>
+        <v>280.1</v>
       </c>
       <c r="D317" t="n">
-        <v>281</v>
+        <v>280.1</v>
       </c>
       <c r="E317" t="n">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F317" t="n">
-        <v>9</v>
+        <v>9693.3262</v>
       </c>
       <c r="G317" t="n">
-        <v>284.4316666666665</v>
+        <v>284.5533333333332</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -11493,22 +11493,22 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>280.1</v>
+        <v>281</v>
       </c>
       <c r="C318" t="n">
-        <v>279.9</v>
+        <v>281</v>
       </c>
       <c r="D318" t="n">
-        <v>280.1</v>
+        <v>281</v>
       </c>
       <c r="E318" t="n">
-        <v>279.9</v>
+        <v>281</v>
       </c>
       <c r="F318" t="n">
-        <v>6597.1936</v>
+        <v>9</v>
       </c>
       <c r="G318" t="n">
-        <v>284.3266666666665</v>
+        <v>284.4316666666665</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -11528,22 +11528,22 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>280.4</v>
+        <v>280.1</v>
       </c>
       <c r="C319" t="n">
-        <v>279</v>
+        <v>279.9</v>
       </c>
       <c r="D319" t="n">
-        <v>280.4</v>
+        <v>280.1</v>
       </c>
       <c r="E319" t="n">
-        <v>278.3</v>
+        <v>279.9</v>
       </c>
       <c r="F319" t="n">
-        <v>14868.1565</v>
+        <v>6597.1936</v>
       </c>
       <c r="G319" t="n">
-        <v>284.2066666666665</v>
+        <v>284.3266666666665</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -11563,22 +11563,22 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
+        <v>280.4</v>
+      </c>
+      <c r="C320" t="n">
         <v>279</v>
       </c>
-      <c r="C320" t="n">
-        <v>278</v>
-      </c>
       <c r="D320" t="n">
-        <v>279</v>
+        <v>280.4</v>
       </c>
       <c r="E320" t="n">
-        <v>278</v>
+        <v>278.3</v>
       </c>
       <c r="F320" t="n">
-        <v>10805.4423</v>
+        <v>14868.1565</v>
       </c>
       <c r="G320" t="n">
-        <v>284.0399999999998</v>
+        <v>284.2066666666665</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -11598,22 +11598,22 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>279.3</v>
+        <v>279</v>
       </c>
       <c r="C321" t="n">
-        <v>279.3</v>
+        <v>278</v>
       </c>
       <c r="D321" t="n">
-        <v>279.3</v>
+        <v>279</v>
       </c>
       <c r="E321" t="n">
-        <v>279.3</v>
+        <v>278</v>
       </c>
       <c r="F321" t="n">
-        <v>40.0413</v>
+        <v>10805.4423</v>
       </c>
       <c r="G321" t="n">
-        <v>283.8933333333332</v>
+        <v>284.0399999999998</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -11633,22 +11633,22 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>279.6</v>
+        <v>279.3</v>
       </c>
       <c r="C322" t="n">
-        <v>279.6</v>
+        <v>279.3</v>
       </c>
       <c r="D322" t="n">
-        <v>279.6</v>
+        <v>279.3</v>
       </c>
       <c r="E322" t="n">
-        <v>279.6</v>
+        <v>279.3</v>
       </c>
       <c r="F322" t="n">
-        <v>5.4</v>
+        <v>40.0413</v>
       </c>
       <c r="G322" t="n">
-        <v>283.7499999999998</v>
+        <v>283.8933333333332</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -11668,22 +11668,22 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>278.2</v>
+        <v>279.6</v>
       </c>
       <c r="C323" t="n">
-        <v>278</v>
+        <v>279.6</v>
       </c>
       <c r="D323" t="n">
-        <v>278.2</v>
+        <v>279.6</v>
       </c>
       <c r="E323" t="n">
-        <v>278</v>
+        <v>279.6</v>
       </c>
       <c r="F323" t="n">
-        <v>5523.4672</v>
+        <v>5.4</v>
       </c>
       <c r="G323" t="n">
-        <v>283.5799999999998</v>
+        <v>283.7499999999998</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -11703,22 +11703,22 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>277.7</v>
+        <v>278.2</v>
       </c>
       <c r="C324" t="n">
-        <v>277.7</v>
+        <v>278</v>
       </c>
       <c r="D324" t="n">
-        <v>277.7</v>
+        <v>278.2</v>
       </c>
       <c r="E324" t="n">
-        <v>277.7</v>
+        <v>278</v>
       </c>
       <c r="F324" t="n">
-        <v>694.2287</v>
+        <v>5523.4672</v>
       </c>
       <c r="G324" t="n">
-        <v>283.4033333333331</v>
+        <v>283.5799999999998</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -11738,22 +11738,22 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>278.5</v>
+        <v>277.7</v>
       </c>
       <c r="C325" t="n">
-        <v>278.5</v>
+        <v>277.7</v>
       </c>
       <c r="D325" t="n">
-        <v>278.5</v>
+        <v>277.7</v>
       </c>
       <c r="E325" t="n">
-        <v>278.5</v>
+        <v>277.7</v>
       </c>
       <c r="F325" t="n">
-        <v>2720.5776</v>
+        <v>694.2287</v>
       </c>
       <c r="G325" t="n">
-        <v>283.2699999999998</v>
+        <v>283.4033333333331</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -11782,13 +11782,13 @@
         <v>278.5</v>
       </c>
       <c r="E326" t="n">
-        <v>277.8</v>
+        <v>278.5</v>
       </c>
       <c r="F326" t="n">
-        <v>2951.2282</v>
+        <v>2720.5776</v>
       </c>
       <c r="G326" t="n">
-        <v>283.1066666666665</v>
+        <v>283.2699999999998</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -11811,117 +11811,105 @@
         <v>278.5</v>
       </c>
       <c r="C327" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="D327" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="E327" t="n">
+        <v>277.8</v>
+      </c>
+      <c r="F327" t="n">
+        <v>2951.2282</v>
+      </c>
+      <c r="G327" t="n">
+        <v>283.1066666666665</v>
+      </c>
+      <c r="H327" t="n">
+        <v>0</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0</v>
+      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr"/>
+      <c r="M327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="C328" t="n">
         <v>280.1</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D328" t="n">
         <v>280.1</v>
       </c>
-      <c r="E327" t="n">
+      <c r="E328" t="n">
         <v>278.5</v>
       </c>
-      <c r="F327" t="n">
+      <c r="F328" t="n">
         <v>360.4244</v>
       </c>
-      <c r="G327" t="n">
+      <c r="G328" t="n">
         <v>282.9616666666665</v>
       </c>
-      <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>0</v>
-      </c>
-      <c r="J327" t="n">
+      <c r="H328" t="n">
+        <v>0</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0</v>
+      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
+      <c r="M328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>278.7</v>
+      </c>
+      <c r="C329" t="n">
         <v>278.5</v>
       </c>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr">
+      <c r="D329" t="n">
+        <v>278.7</v>
+      </c>
+      <c r="E329" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="F329" t="n">
+        <v>877.9284</v>
+      </c>
+      <c r="G329" t="n">
+        <v>282.8166666666665</v>
+      </c>
+      <c r="H329" t="n">
+        <v>1</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0</v>
+      </c>
+      <c r="J329" t="n">
+        <v>280.1</v>
+      </c>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M327" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>278.7</v>
-      </c>
-      <c r="C328" t="n">
-        <v>278.5</v>
-      </c>
-      <c r="D328" t="n">
-        <v>278.7</v>
-      </c>
-      <c r="E328" t="n">
-        <v>278.5</v>
-      </c>
-      <c r="F328" t="n">
-        <v>877.9284</v>
-      </c>
-      <c r="G328" t="n">
-        <v>282.8166666666665</v>
-      </c>
-      <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>0</v>
-      </c>
-      <c r="J328" t="n">
-        <v>280.1</v>
-      </c>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M328" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>278.9</v>
-      </c>
-      <c r="C329" t="n">
-        <v>278.8</v>
-      </c>
-      <c r="D329" t="n">
-        <v>278.9</v>
-      </c>
-      <c r="E329" t="n">
-        <v>278.8</v>
-      </c>
-      <c r="F329" t="n">
-        <v>3332.9473</v>
-      </c>
-      <c r="G329" t="n">
-        <v>282.6566666666665</v>
-      </c>
-      <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
-      <c r="J329" t="n">
-        <v>278.5</v>
-      </c>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -11931,32 +11919,30 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>279</v>
+        <v>278.9</v>
       </c>
       <c r="C330" t="n">
-        <v>279.2</v>
+        <v>278.8</v>
       </c>
       <c r="D330" t="n">
-        <v>279.2</v>
+        <v>278.9</v>
       </c>
       <c r="E330" t="n">
-        <v>277.3</v>
+        <v>278.8</v>
       </c>
       <c r="F330" t="n">
-        <v>20571.0506</v>
+        <v>3332.9473</v>
       </c>
       <c r="G330" t="n">
-        <v>282.5316666666665</v>
+        <v>282.6566666666665</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>278.8</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
@@ -11972,22 +11958,22 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>279.3</v>
+        <v>279</v>
       </c>
       <c r="C331" t="n">
-        <v>279.3</v>
+        <v>279.2</v>
       </c>
       <c r="D331" t="n">
-        <v>279.3</v>
+        <v>279.2</v>
       </c>
       <c r="E331" t="n">
-        <v>279.3</v>
+        <v>277.3</v>
       </c>
       <c r="F331" t="n">
-        <v>1516.8</v>
+        <v>20571.0506</v>
       </c>
       <c r="G331" t="n">
-        <v>282.3783333333331</v>
+        <v>282.5316666666665</v>
       </c>
       <c r="H331" t="n">
         <v>1</v>
@@ -11996,7 +11982,7 @@
         <v>0</v>
       </c>
       <c r="J331" t="n">
-        <v>279.2</v>
+        <v>278.8</v>
       </c>
       <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
@@ -12013,22 +11999,22 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>280.3</v>
+        <v>279.3</v>
       </c>
       <c r="C332" t="n">
-        <v>280.3</v>
+        <v>279.3</v>
       </c>
       <c r="D332" t="n">
-        <v>280.3</v>
+        <v>279.3</v>
       </c>
       <c r="E332" t="n">
-        <v>280.3</v>
+        <v>279.3</v>
       </c>
       <c r="F332" t="n">
-        <v>1746.8999</v>
+        <v>1516.8</v>
       </c>
       <c r="G332" t="n">
-        <v>282.2366666666665</v>
+        <v>282.3783333333331</v>
       </c>
       <c r="H332" t="n">
         <v>1</v>
@@ -12037,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="J332" t="n">
-        <v>279.3</v>
+        <v>279.2</v>
       </c>
       <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
@@ -12057,27 +12043,29 @@
         <v>280.3</v>
       </c>
       <c r="C333" t="n">
-        <v>279.3</v>
+        <v>280.3</v>
       </c>
       <c r="D333" t="n">
         <v>280.3</v>
       </c>
       <c r="E333" t="n">
+        <v>280.3</v>
+      </c>
+      <c r="F333" t="n">
+        <v>1746.8999</v>
+      </c>
+      <c r="G333" t="n">
+        <v>282.2366666666665</v>
+      </c>
+      <c r="H333" t="n">
+        <v>1</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0</v>
+      </c>
+      <c r="J333" t="n">
         <v>279.3</v>
       </c>
-      <c r="F333" t="n">
-        <v>3276.6411</v>
-      </c>
-      <c r="G333" t="n">
-        <v>282.1016666666664</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
-      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
@@ -12088,6 +12076,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>280.3</v>
+      </c>
+      <c r="C334" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="D334" t="n">
+        <v>280.3</v>
+      </c>
+      <c r="E334" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="F334" t="n">
+        <v>3276.6411</v>
+      </c>
+      <c r="G334" t="n">
+        <v>282.1016666666664</v>
+      </c>
+      <c r="H334" t="n">
+        <v>1</v>
+      </c>
+      <c r="I334" t="n">
+        <v>0</v>
+      </c>
+      <c r="J334" t="n">
+        <v>280.3</v>
+      </c>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M334" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-21 BackTest MTL.xlsx
+++ b/BackTest/2020-01-21 BackTest MTL.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M334"/>
+  <dimension ref="A1:N344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1918.9016</v>
       </c>
       <c r="G2" t="n">
+        <v>287.3066666666669</v>
+      </c>
+      <c r="H2" t="n">
         <v>287.9899999999996</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>393.5042</v>
       </c>
       <c r="G3" t="n">
+        <v>287.0466666666669</v>
+      </c>
+      <c r="H3" t="n">
         <v>287.9133333333329</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>350.284</v>
       </c>
       <c r="G4" t="n">
+        <v>286.7600000000002</v>
+      </c>
+      <c r="H4" t="n">
         <v>287.8583333333329</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>32</v>
       </c>
       <c r="G5" t="n">
+        <v>286.4933333333336</v>
+      </c>
+      <c r="H5" t="n">
         <v>287.8066666666662</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>277.6829</v>
       </c>
       <c r="G6" t="n">
+        <v>286.2200000000002</v>
+      </c>
+      <c r="H6" t="n">
         <v>287.7649999999995</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>708.3718</v>
       </c>
       <c r="G7" t="n">
+        <v>285.7666666666668</v>
+      </c>
+      <c r="H7" t="n">
         <v>287.6899999999995</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>4.5166</v>
       </c>
       <c r="G8" t="n">
+        <v>285.4933333333335</v>
+      </c>
+      <c r="H8" t="n">
         <v>287.6533333333329</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>3198.8644</v>
       </c>
       <c r="G9" t="n">
+        <v>285.0866666666668</v>
+      </c>
+      <c r="H9" t="n">
         <v>287.5683333333329</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>2070.7268</v>
       </c>
       <c r="G10" t="n">
+        <v>284.8400000000001</v>
+      </c>
+      <c r="H10" t="n">
         <v>287.4999999999996</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>21.3286</v>
       </c>
       <c r="G11" t="n">
+        <v>284.7466666666668</v>
+      </c>
+      <c r="H11" t="n">
         <v>287.4666666666662</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>523.0638</v>
       </c>
       <c r="G12" t="n">
+        <v>284.8400000000002</v>
+      </c>
+      <c r="H12" t="n">
         <v>287.4433333333329</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>711.4098</v>
       </c>
       <c r="G13" t="n">
+        <v>284.9666666666669</v>
+      </c>
+      <c r="H13" t="n">
         <v>287.4099999999996</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>288.8374</v>
       </c>
       <c r="G14" t="n">
+        <v>285.2000000000002</v>
+      </c>
+      <c r="H14" t="n">
         <v>287.3866666666662</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>146.2108</v>
       </c>
       <c r="G15" t="n">
+        <v>285.3666666666668</v>
+      </c>
+      <c r="H15" t="n">
         <v>287.3533333333328</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>76.26609999999999</v>
       </c>
       <c r="G16" t="n">
+        <v>285.5133333333335</v>
+      </c>
+      <c r="H16" t="n">
         <v>287.3149999999995</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>2000</v>
       </c>
       <c r="G17" t="n">
+        <v>285.5133333333335</v>
+      </c>
+      <c r="H17" t="n">
         <v>287.2399999999996</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>6648.2952</v>
       </c>
       <c r="G18" t="n">
+        <v>285.5333333333335</v>
+      </c>
+      <c r="H18" t="n">
         <v>287.1983333333329</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>313.5519</v>
       </c>
       <c r="G19" t="n">
+        <v>285.4200000000002</v>
+      </c>
+      <c r="H19" t="n">
         <v>287.1233333333329</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>188.4411</v>
       </c>
       <c r="G20" t="n">
+        <v>285.2866666666669</v>
+      </c>
+      <c r="H20" t="n">
         <v>287.0483333333329</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>2777.8109</v>
       </c>
       <c r="G21" t="n">
+        <v>285.2733333333335</v>
+      </c>
+      <c r="H21" t="n">
         <v>286.9833333333328</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>16.925</v>
       </c>
       <c r="G22" t="n">
+        <v>285.3933333333335</v>
+      </c>
+      <c r="H22" t="n">
         <v>286.9366666666662</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>10.6515</v>
       </c>
       <c r="G23" t="n">
+        <v>285.3800000000002</v>
+      </c>
+      <c r="H23" t="n">
         <v>286.8899999999995</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>434.6126</v>
       </c>
       <c r="G24" t="n">
+        <v>285.5000000000002</v>
+      </c>
+      <c r="H24" t="n">
         <v>286.8433333333329</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>1.8</v>
       </c>
       <c r="G25" t="n">
+        <v>285.6933333333336</v>
+      </c>
+      <c r="H25" t="n">
         <v>286.8149999999996</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>1319.74</v>
       </c>
       <c r="G26" t="n">
+        <v>285.6933333333336</v>
+      </c>
+      <c r="H26" t="n">
         <v>286.8149999999996</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>2929.5855</v>
       </c>
       <c r="G27" t="n">
+        <v>285.6533333333335</v>
+      </c>
+      <c r="H27" t="n">
         <v>286.8149999999996</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>15.48971767</v>
       </c>
       <c r="G28" t="n">
+        <v>285.7133333333335</v>
+      </c>
+      <c r="H28" t="n">
         <v>286.8166666666663</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>16900.2142</v>
       </c>
       <c r="G29" t="n">
+        <v>285.6733333333335</v>
+      </c>
+      <c r="H29" t="n">
         <v>286.783333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>1886.0031</v>
       </c>
       <c r="G30" t="n">
+        <v>285.6733333333335</v>
+      </c>
+      <c r="H30" t="n">
         <v>286.7499999999997</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>92.9487</v>
       </c>
       <c r="G31" t="n">
+        <v>285.7533333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>286.778333333333</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>1512.5621</v>
       </c>
       <c r="G32" t="n">
+        <v>285.9400000000001</v>
+      </c>
+      <c r="H32" t="n">
         <v>286.7666666666664</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>1531.48931767</v>
       </c>
       <c r="G33" t="n">
+        <v>285.9933333333334</v>
+      </c>
+      <c r="H33" t="n">
         <v>286.7816666666664</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>3900.0279</v>
       </c>
       <c r="G34" t="n">
+        <v>286.12</v>
+      </c>
+      <c r="H34" t="n">
         <v>286.7566666666664</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>4231.4296</v>
       </c>
       <c r="G35" t="n">
+        <v>286.2466666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>286.7366666666664</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>7997.8937</v>
       </c>
       <c r="G36" t="n">
+        <v>286.2333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>286.7599999999996</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>3801.1165</v>
       </c>
       <c r="G37" t="n">
+        <v>286.2466666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>286.7216666666664</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>476.1001</v>
       </c>
       <c r="G38" t="n">
+        <v>286.3199999999999</v>
+      </c>
+      <c r="H38" t="n">
         <v>286.7349999999997</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>1763.7305</v>
       </c>
       <c r="G39" t="n">
+        <v>286.3999999999999</v>
+      </c>
+      <c r="H39" t="n">
         <v>286.7183333333331</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>3590.43496466</v>
       </c>
       <c r="G40" t="n">
+        <v>286.4066666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>286.6849999999997</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>11201.61493534</v>
       </c>
       <c r="G41" t="n">
+        <v>286.4733333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>286.6333333333331</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>5291.635</v>
       </c>
       <c r="G42" t="n">
+        <v>286.4733333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>286.5716666666664</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>2</v>
       </c>
       <c r="G43" t="n">
+        <v>286.5</v>
+      </c>
+      <c r="H43" t="n">
         <v>286.5316666666664</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>4815.9647562</v>
       </c>
       <c r="G44" t="n">
+        <v>286.6133333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>286.4983333333331</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>2400</v>
       </c>
       <c r="G45" t="n">
+        <v>286.7333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>286.4666666666664</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>2122.3705</v>
       </c>
       <c r="G46" t="n">
+        <v>286.74</v>
+      </c>
+      <c r="H46" t="n">
         <v>286.4216666666663</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>710.9822</v>
       </c>
       <c r="G47" t="n">
+        <v>286.7466666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>286.3766666666663</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>956.2983</v>
       </c>
       <c r="G48" t="n">
+        <v>286.7533333333334</v>
+      </c>
+      <c r="H48" t="n">
         <v>286.3316666666663</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>246.6808</v>
       </c>
       <c r="G49" t="n">
+        <v>286.7733333333334</v>
+      </c>
+      <c r="H49" t="n">
         <v>286.268333333333</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>4815.9647</v>
       </c>
       <c r="G50" t="n">
+        <v>286.7733333333334</v>
+      </c>
+      <c r="H50" t="n">
         <v>286.1999999999997</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>5597.1982</v>
       </c>
       <c r="G51" t="n">
+        <v>286.8000000000001</v>
+      </c>
+      <c r="H51" t="n">
         <v>286.1316666666664</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>700.8295000000001</v>
       </c>
       <c r="G52" t="n">
+        <v>286.7733333333334</v>
+      </c>
+      <c r="H52" t="n">
         <v>286.0449999999997</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>19657.8409</v>
       </c>
       <c r="G53" t="n">
+        <v>286.6133333333335</v>
+      </c>
+      <c r="H53" t="n">
         <v>285.9516666666664</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>34.84320557</v>
       </c>
       <c r="G54" t="n">
+        <v>286.6133333333335</v>
+      </c>
+      <c r="H54" t="n">
         <v>285.8999999999997</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>150</v>
       </c>
       <c r="G55" t="n">
+        <v>286.4800000000001</v>
+      </c>
+      <c r="H55" t="n">
         <v>285.8549999999997</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>2270.83270111</v>
       </c>
       <c r="G56" t="n">
+        <v>286.4866666666668</v>
+      </c>
+      <c r="H56" t="n">
         <v>285.8499999999997</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>29.9107</v>
       </c>
       <c r="G57" t="n">
+        <v>286.4866666666668</v>
+      </c>
+      <c r="H57" t="n">
         <v>285.863333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>14467.6545</v>
       </c>
       <c r="G58" t="n">
+        <v>286.3000000000001</v>
+      </c>
+      <c r="H58" t="n">
         <v>285.8699999999997</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>5089</v>
       </c>
       <c r="G59" t="n">
+        <v>286.2266666666668</v>
+      </c>
+      <c r="H59" t="n">
         <v>285.9283333333331</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>3680.3195</v>
       </c>
       <c r="G60" t="n">
+        <v>286.1466666666668</v>
+      </c>
+      <c r="H60" t="n">
         <v>285.9799999999997</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>357.0471</v>
       </c>
       <c r="G61" t="n">
+        <v>286.0466666666669</v>
+      </c>
+      <c r="H61" t="n">
         <v>286.013333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>2539.1924</v>
       </c>
       <c r="G62" t="n">
+        <v>285.9466666666668</v>
+      </c>
+      <c r="H62" t="n">
         <v>286.0366666666663</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>1569.5334</v>
       </c>
       <c r="G63" t="n">
+        <v>285.9200000000002</v>
+      </c>
+      <c r="H63" t="n">
         <v>286.0499999999997</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>187.2161</v>
       </c>
       <c r="G64" t="n">
+        <v>285.9400000000002</v>
+      </c>
+      <c r="H64" t="n">
         <v>286.063333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>132.4791</v>
       </c>
       <c r="G65" t="n">
+        <v>285.9800000000002</v>
+      </c>
+      <c r="H65" t="n">
         <v>286.0716666666664</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>4034.7303</v>
       </c>
       <c r="G66" t="n">
+        <v>286.0200000000003</v>
+      </c>
+      <c r="H66" t="n">
         <v>286.0816666666663</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>4654.5248</v>
       </c>
       <c r="G67" t="n">
+        <v>286.0866666666669</v>
+      </c>
+      <c r="H67" t="n">
         <v>286.1249999999997</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>641.6517</v>
       </c>
       <c r="G68" t="n">
+        <v>286.226666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>286.1349999999996</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>195.62</v>
       </c>
       <c r="G69" t="n">
+        <v>286.1266666666669</v>
+      </c>
+      <c r="H69" t="n">
         <v>286.1599999999996</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>127.69</v>
       </c>
       <c r="G70" t="n">
+        <v>286.1600000000003</v>
+      </c>
+      <c r="H70" t="n">
         <v>286.1849999999996</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>1944.4431</v>
       </c>
       <c r="G71" t="n">
+        <v>286.0533333333336</v>
+      </c>
+      <c r="H71" t="n">
         <v>286.1766666666663</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>3592.0676</v>
       </c>
       <c r="G72" t="n">
+        <v>285.9866666666669</v>
+      </c>
+      <c r="H72" t="n">
         <v>286.1499999999996</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>2407.9324</v>
       </c>
       <c r="G73" t="n">
+        <v>285.9866666666669</v>
+      </c>
+      <c r="H73" t="n">
         <v>286.1249999999997</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>8201.6767</v>
       </c>
       <c r="G74" t="n">
+        <v>285.8466666666669</v>
+      </c>
+      <c r="H74" t="n">
         <v>286.0899999999996</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>2000</v>
       </c>
       <c r="G75" t="n">
+        <v>285.7066666666669</v>
+      </c>
+      <c r="H75" t="n">
         <v>286.0649999999997</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>1697.8612</v>
       </c>
       <c r="G76" t="n">
+        <v>285.6400000000002</v>
+      </c>
+      <c r="H76" t="n">
         <v>286.0449999999997</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>3830.5873</v>
       </c>
       <c r="G77" t="n">
+        <v>285.5733333333336</v>
+      </c>
+      <c r="H77" t="n">
         <v>286.0516666666663</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>610.1581</v>
       </c>
       <c r="G78" t="n">
+        <v>285.5000000000002</v>
+      </c>
+      <c r="H78" t="n">
         <v>286.0416666666663</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>1029.469</v>
       </c>
       <c r="G79" t="n">
+        <v>285.3266666666668</v>
+      </c>
+      <c r="H79" t="n">
         <v>286.0399999999997</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>2693.1162</v>
       </c>
       <c r="G80" t="n">
+        <v>285.2333333333335</v>
+      </c>
+      <c r="H80" t="n">
         <v>286.0583333333331</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>1702.9115</v>
       </c>
       <c r="G81" t="n">
+        <v>285.1400000000001</v>
+      </c>
+      <c r="H81" t="n">
         <v>286.0483333333331</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>6065.9288</v>
       </c>
       <c r="G82" t="n">
+        <v>285.0466666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>286.0383333333331</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>30.7457</v>
       </c>
       <c r="G83" t="n">
+        <v>284.9533333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>286.0283333333331</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>4625.6886</v>
       </c>
       <c r="G84" t="n">
+        <v>284.86</v>
+      </c>
+      <c r="H84" t="n">
         <v>285.9999999999998</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>1506.2177</v>
       </c>
       <c r="G85" t="n">
+        <v>284.78</v>
+      </c>
+      <c r="H85" t="n">
         <v>285.9566666666664</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>1994.5059</v>
       </c>
       <c r="G86" t="n">
+        <v>284.6866666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>285.9249999999998</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>8547.2274</v>
       </c>
       <c r="G87" t="n">
+        <v>284.6266666666668</v>
+      </c>
+      <c r="H87" t="n">
         <v>285.8933333333331</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>25808.2749</v>
       </c>
       <c r="G88" t="n">
+        <v>284.5800000000001</v>
+      </c>
+      <c r="H88" t="n">
         <v>285.8416666666664</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>108.6786</v>
       </c>
       <c r="G89" t="n">
+        <v>284.5333333333335</v>
+      </c>
+      <c r="H89" t="n">
         <v>285.8049999999997</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>0.0002</v>
       </c>
       <c r="G90" t="n">
+        <v>284.5200000000002</v>
+      </c>
+      <c r="H90" t="n">
         <v>285.7766666666664</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>8.800000000000001</v>
       </c>
       <c r="G91" t="n">
+        <v>284.5800000000001</v>
+      </c>
+      <c r="H91" t="n">
         <v>285.7516666666663</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>524.8106</v>
       </c>
       <c r="G92" t="n">
+        <v>284.6466666666668</v>
+      </c>
+      <c r="H92" t="n">
         <v>285.728333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>433.321</v>
       </c>
       <c r="G93" t="n">
+        <v>284.6200000000001</v>
+      </c>
+      <c r="H93" t="n">
         <v>285.6983333333329</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>3817.3231</v>
       </c>
       <c r="G94" t="n">
+        <v>284.7200000000001</v>
+      </c>
+      <c r="H94" t="n">
         <v>285.6899999999996</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>10700</v>
       </c>
       <c r="G95" t="n">
+        <v>284.8066666666668</v>
+      </c>
+      <c r="H95" t="n">
         <v>285.6983333333329</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>325480.1321</v>
       </c>
       <c r="G96" t="n">
+        <v>284.7933333333335</v>
+      </c>
+      <c r="H96" t="n">
         <v>285.6883333333329</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>879.9536000000001</v>
       </c>
       <c r="G97" t="n">
+        <v>284.7800000000001</v>
+      </c>
+      <c r="H97" t="n">
         <v>285.6716666666663</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>193.6442</v>
       </c>
       <c r="G98" t="n">
+        <v>284.7066666666669</v>
+      </c>
+      <c r="H98" t="n">
         <v>285.6249999999996</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>8057.768</v>
       </c>
       <c r="G99" t="n">
+        <v>284.6866666666668</v>
+      </c>
+      <c r="H99" t="n">
         <v>285.5716666666662</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>2000</v>
       </c>
       <c r="G100" t="n">
+        <v>284.6466666666668</v>
+      </c>
+      <c r="H100" t="n">
         <v>285.5166666666663</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>1.8</v>
       </c>
       <c r="G101" t="n">
+        <v>284.7466666666668</v>
+      </c>
+      <c r="H101" t="n">
         <v>285.4933333333329</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>1521.3358</v>
       </c>
       <c r="G102" t="n">
+        <v>284.7400000000001</v>
+      </c>
+      <c r="H102" t="n">
         <v>285.4599999999995</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>5000</v>
       </c>
       <c r="G103" t="n">
+        <v>284.7400000000001</v>
+      </c>
+      <c r="H103" t="n">
         <v>285.4016666666662</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>8549.1595</v>
       </c>
       <c r="G104" t="n">
+        <v>284.7333333333335</v>
+      </c>
+      <c r="H104" t="n">
         <v>285.3349999999995</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>3064.2723</v>
       </c>
       <c r="G105" t="n">
+        <v>284.6866666666668</v>
+      </c>
+      <c r="H105" t="n">
         <v>285.2649999999995</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>1209.9614</v>
       </c>
       <c r="G106" t="n">
+        <v>284.5666666666668</v>
+      </c>
+      <c r="H106" t="n">
         <v>285.2083333333329</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>92.72410000000001</v>
       </c>
       <c r="G107" t="n">
+        <v>284.4333333333335</v>
+      </c>
+      <c r="H107" t="n">
         <v>285.1499999999995</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>1676.0481</v>
       </c>
       <c r="G108" t="n">
+        <v>284.3266666666668</v>
+      </c>
+      <c r="H108" t="n">
         <v>285.0916666666662</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>2443.7219</v>
       </c>
       <c r="G109" t="n">
+        <v>284.1933333333335</v>
+      </c>
+      <c r="H109" t="n">
         <v>285.0449999999995</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>7447.5326</v>
       </c>
       <c r="G110" t="n">
+        <v>283.9933333333335</v>
+      </c>
+      <c r="H110" t="n">
         <v>285.0033333333329</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>2062.0027</v>
       </c>
       <c r="G111" t="n">
+        <v>283.9600000000002</v>
+      </c>
+      <c r="H111" t="n">
         <v>284.9783333333328</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>70</v>
       </c>
       <c r="G112" t="n">
+        <v>283.8400000000001</v>
+      </c>
+      <c r="H112" t="n">
         <v>284.9383333333329</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>350.6177</v>
       </c>
       <c r="G113" t="n">
+        <v>283.8666666666668</v>
+      </c>
+      <c r="H113" t="n">
         <v>284.9383333333329</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>2809.002</v>
       </c>
       <c r="G114" t="n">
+        <v>283.9066666666668</v>
+      </c>
+      <c r="H114" t="n">
         <v>284.8949999999996</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>821.3</v>
       </c>
       <c r="G115" t="n">
+        <v>283.9400000000001</v>
+      </c>
+      <c r="H115" t="n">
         <v>284.8816666666663</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>6791.8889</v>
       </c>
       <c r="G116" t="n">
+        <v>283.8733333333334</v>
+      </c>
+      <c r="H116" t="n">
         <v>284.8399999999996</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>1217.0402</v>
       </c>
       <c r="G117" t="n">
+        <v>283.9666666666668</v>
+      </c>
+      <c r="H117" t="n">
         <v>284.8299999999996</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>2952.8266</v>
       </c>
       <c r="G118" t="n">
+        <v>284.0733333333334</v>
+      </c>
+      <c r="H118" t="n">
         <v>284.8449999999996</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>0.0001</v>
       </c>
       <c r="G119" t="n">
+        <v>284.1866666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>284.8249999999997</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>217.9933</v>
       </c>
       <c r="G120" t="n">
+        <v>284.2533333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>284.7916666666663</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>360</v>
       </c>
       <c r="G121" t="n">
+        <v>284.2466666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>284.758333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>707.6405</v>
       </c>
       <c r="G122" t="n">
+        <v>284.2333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>284.7216666666664</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>969.7021999999999</v>
       </c>
       <c r="G123" t="n">
+        <v>284.2266666666666</v>
+      </c>
+      <c r="H123" t="n">
         <v>284.6683333333331</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>5188.4866</v>
       </c>
       <c r="G124" t="n">
+        <v>284.22</v>
+      </c>
+      <c r="H124" t="n">
         <v>284.6149999999998</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,25 @@
         <v>339.3399</v>
       </c>
       <c r="G125" t="n">
+        <v>284.2866666666666</v>
+      </c>
+      <c r="H125" t="n">
         <v>284.5799999999998</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>283.4</v>
+      </c>
+      <c r="L125" t="n">
+        <v>283.4</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5169,29 @@
         <v>399.9999</v>
       </c>
       <c r="G126" t="n">
+        <v>284.2799999999999</v>
+      </c>
+      <c r="H126" t="n">
         <v>284.5433333333332</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>284.5</v>
+      </c>
+      <c r="L126" t="n">
+        <v>283.4</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5215,27 @@
         <v>32.99860041</v>
       </c>
       <c r="G127" t="n">
+        <v>284.4533333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>284.5299999999999</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>283.4</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5259,21 @@
         <v>352</v>
       </c>
       <c r="G128" t="n">
+        <v>284.5799999999999</v>
+      </c>
+      <c r="H128" t="n">
         <v>284.5266666666666</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5297,21 @@
         <v>2523.0532</v>
       </c>
       <c r="G129" t="n">
+        <v>284.7133333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>284.5416666666666</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5335,21 @@
         <v>463.398</v>
       </c>
       <c r="G130" t="n">
+        <v>284.8599999999999</v>
+      </c>
+      <c r="H130" t="n">
         <v>284.5566666666666</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5373,21 @@
         <v>1750</v>
       </c>
       <c r="G131" t="n">
+        <v>284.9799999999998</v>
+      </c>
+      <c r="H131" t="n">
         <v>284.5716666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5411,21 @@
         <v>327.20531654</v>
       </c>
       <c r="G132" t="n">
+        <v>285.0133333333332</v>
+      </c>
+      <c r="H132" t="n">
         <v>284.5866666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5449,21 @@
         <v>1763.7305</v>
       </c>
       <c r="G133" t="n">
+        <v>284.9866666666666</v>
+      </c>
+      <c r="H133" t="n">
         <v>284.595</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5487,21 @@
         <v>1.8</v>
       </c>
       <c r="G134" t="n">
+        <v>285.0599999999999</v>
+      </c>
+      <c r="H134" t="n">
         <v>284.6283333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5525,21 @@
         <v>1154.9979</v>
       </c>
       <c r="G135" t="n">
+        <v>285.1066666666666</v>
+      </c>
+      <c r="H135" t="n">
         <v>284.6416666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5563,21 @@
         <v>1307.6208</v>
       </c>
       <c r="G136" t="n">
+        <v>285.3133333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>284.6766666666666</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5601,21 @@
         <v>1313.8697</v>
       </c>
       <c r="G137" t="n">
+        <v>285.5466666666666</v>
+      </c>
+      <c r="H137" t="n">
         <v>284.715</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5639,21 @@
         <v>189.0407</v>
       </c>
       <c r="G138" t="n">
+        <v>285.7733333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>284.7366666666666</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5677,21 @@
         <v>2538.4</v>
       </c>
       <c r="G139" t="n">
+        <v>285.98</v>
+      </c>
+      <c r="H139" t="n">
         <v>284.7783333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5715,21 @@
         <v>173.4</v>
       </c>
       <c r="G140" t="n">
+        <v>286.1</v>
+      </c>
+      <c r="H140" t="n">
         <v>284.7966666666666</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5753,21 @@
         <v>1149.8225</v>
       </c>
       <c r="G141" t="n">
+        <v>286.26</v>
+      </c>
+      <c r="H141" t="n">
         <v>284.8233333333332</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5791,21 @@
         <v>1034.8403</v>
       </c>
       <c r="G142" t="n">
+        <v>286.3266666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>284.8499999999999</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5829,21 @@
         <v>1447.8124</v>
       </c>
       <c r="G143" t="n">
+        <v>286.3533333333334</v>
+      </c>
+      <c r="H143" t="n">
         <v>284.8766666666665</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5867,21 @@
         <v>840.2206</v>
       </c>
       <c r="G144" t="n">
+        <v>286.3066666666667</v>
+      </c>
+      <c r="H144" t="n">
         <v>284.9033333333333</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5905,21 @@
         <v>7521.8321</v>
       </c>
       <c r="G145" t="n">
+        <v>286.4066666666668</v>
+      </c>
+      <c r="H145" t="n">
         <v>284.9633333333333</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +5943,21 @@
         <v>2</v>
       </c>
       <c r="G146" t="n">
+        <v>286.3533333333335</v>
+      </c>
+      <c r="H146" t="n">
         <v>284.9883333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +5981,21 @@
         <v>1714</v>
       </c>
       <c r="G147" t="n">
+        <v>286.3333333333335</v>
+      </c>
+      <c r="H147" t="n">
         <v>285.0133333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6019,21 @@
         <v>1047.0017</v>
       </c>
       <c r="G148" t="n">
+        <v>286.5266666666668</v>
+      </c>
+      <c r="H148" t="n">
         <v>285.0816666666666</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6057,21 @@
         <v>19.6368</v>
       </c>
       <c r="G149" t="n">
+        <v>286.6200000000001</v>
+      </c>
+      <c r="H149" t="n">
         <v>285.15</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6095,21 @@
         <v>2</v>
       </c>
       <c r="G150" t="n">
+        <v>286.6466666666668</v>
+      </c>
+      <c r="H150" t="n">
         <v>285.1733333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6133,21 @@
         <v>1.8</v>
       </c>
       <c r="G151" t="n">
+        <v>286.5933333333334</v>
+      </c>
+      <c r="H151" t="n">
         <v>285.18</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6171,21 @@
         <v>702.0786000000001</v>
       </c>
       <c r="G152" t="n">
+        <v>286.5266666666668</v>
+      </c>
+      <c r="H152" t="n">
         <v>285.185</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6209,21 @@
         <v>802.813</v>
       </c>
       <c r="G153" t="n">
+        <v>286.4733333333334</v>
+      </c>
+      <c r="H153" t="n">
         <v>285.2</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6247,21 @@
         <v>4197.6117</v>
       </c>
       <c r="G154" t="n">
+        <v>286.5466666666668</v>
+      </c>
+      <c r="H154" t="n">
         <v>285.235</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6285,21 @@
         <v>2986.7746</v>
       </c>
       <c r="G155" t="n">
+        <v>286.6333333333334</v>
+      </c>
+      <c r="H155" t="n">
         <v>285.2533333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6323,21 @@
         <v>675.8513</v>
       </c>
       <c r="G156" t="n">
+        <v>286.6866666666668</v>
+      </c>
+      <c r="H156" t="n">
         <v>285.2966666666666</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6361,21 @@
         <v>3557.0503</v>
       </c>
       <c r="G157" t="n">
+        <v>286.7400000000001</v>
+      </c>
+      <c r="H157" t="n">
         <v>285.3399999999999</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6399,21 @@
         <v>1373.63</v>
       </c>
       <c r="G158" t="n">
+        <v>286.7933333333335</v>
+      </c>
+      <c r="H158" t="n">
         <v>285.3983333333333</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6437,21 @@
         <v>5.6266</v>
       </c>
       <c r="G159" t="n">
+        <v>286.9266666666668</v>
+      </c>
+      <c r="H159" t="n">
         <v>285.4633333333333</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6475,21 @@
         <v>520.0762</v>
       </c>
       <c r="G160" t="n">
+        <v>286.9133333333335</v>
+      </c>
+      <c r="H160" t="n">
         <v>285.5299999999999</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6513,21 @@
         <v>1550</v>
       </c>
       <c r="G161" t="n">
+        <v>287.0466666666669</v>
+      </c>
+      <c r="H161" t="n">
         <v>285.5633333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6551,21 @@
         <v>330.6106</v>
       </c>
       <c r="G162" t="n">
+        <v>287.1866666666668</v>
+      </c>
+      <c r="H162" t="n">
         <v>285.6249999999999</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6589,21 @@
         <v>600</v>
       </c>
       <c r="G163" t="n">
+        <v>287.1666666666669</v>
+      </c>
+      <c r="H163" t="n">
         <v>285.6883333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6627,21 @@
         <v>145.4322</v>
       </c>
       <c r="G164" t="n">
+        <v>287.1466666666669</v>
+      </c>
+      <c r="H164" t="n">
         <v>285.7533333333332</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6665,21 @@
         <v>1626.4433</v>
       </c>
       <c r="G165" t="n">
+        <v>287.2733333333336</v>
+      </c>
+      <c r="H165" t="n">
         <v>285.8199999999999</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6703,21 @@
         <v>5940</v>
       </c>
       <c r="G166" t="n">
+        <v>287.4600000000003</v>
+      </c>
+      <c r="H166" t="n">
         <v>285.9033333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6741,21 @@
         <v>1210.7014</v>
       </c>
       <c r="G167" t="n">
+        <v>287.6466666666669</v>
+      </c>
+      <c r="H167" t="n">
         <v>285.9883333333332</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6779,21 @@
         <v>2117.2552</v>
       </c>
       <c r="G168" t="n">
+        <v>287.7533333333337</v>
+      </c>
+      <c r="H168" t="n">
         <v>286.0566666666665</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6817,21 @@
         <v>82.65260000000001</v>
       </c>
       <c r="G169" t="n">
+        <v>287.766666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>286.1283333333332</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +6855,21 @@
         <v>6597.4138</v>
       </c>
       <c r="G170" t="n">
+        <v>287.9066666666669</v>
+      </c>
+      <c r="H170" t="n">
         <v>286.2316666666665</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +6893,21 @@
         <v>300</v>
       </c>
       <c r="G171" t="n">
+        <v>288.0466666666669</v>
+      </c>
+      <c r="H171" t="n">
         <v>286.3183333333332</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +6931,21 @@
         <v>9.0977</v>
       </c>
       <c r="G172" t="n">
+        <v>288.1933333333336</v>
+      </c>
+      <c r="H172" t="n">
         <v>286.4283333333332</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +6969,21 @@
         <v>8494.479799999999</v>
       </c>
       <c r="G173" t="n">
+        <v>288.3533333333335</v>
+      </c>
+      <c r="H173" t="n">
         <v>286.5199999999998</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7007,21 @@
         <v>6185.4091</v>
       </c>
       <c r="G174" t="n">
+        <v>288.5066666666669</v>
+      </c>
+      <c r="H174" t="n">
         <v>286.6133333333331</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7045,21 @@
         <v>1316.0264</v>
       </c>
       <c r="G175" t="n">
+        <v>288.5466666666669</v>
+      </c>
+      <c r="H175" t="n">
         <v>286.6816666666664</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7083,21 @@
         <v>683.9736</v>
       </c>
       <c r="G176" t="n">
+        <v>288.5933333333335</v>
+      </c>
+      <c r="H176" t="n">
         <v>286.7433333333331</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7121,21 @@
         <v>2</v>
       </c>
       <c r="G177" t="n">
+        <v>288.7466666666669</v>
+      </c>
+      <c r="H177" t="n">
         <v>286.8199999999998</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7159,21 @@
         <v>413.262</v>
       </c>
       <c r="G178" t="n">
+        <v>288.7933333333336</v>
+      </c>
+      <c r="H178" t="n">
         <v>286.8683333333331</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7197,21 @@
         <v>8914.559499999999</v>
       </c>
       <c r="G179" t="n">
+        <v>288.8866666666669</v>
+      </c>
+      <c r="H179" t="n">
         <v>286.9283333333331</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7235,21 @@
         <v>4130.0347</v>
       </c>
       <c r="G180" t="n">
+        <v>288.9066666666668</v>
+      </c>
+      <c r="H180" t="n">
         <v>286.9833333333331</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7273,21 @@
         <v>3</v>
       </c>
       <c r="G181" t="n">
+        <v>288.9333333333335</v>
+      </c>
+      <c r="H181" t="n">
         <v>287.0749999999998</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7311,21 @@
         <v>1124.0578</v>
       </c>
       <c r="G182" t="n">
+        <v>288.8933333333334</v>
+      </c>
+      <c r="H182" t="n">
         <v>287.1533333333331</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7349,21 @@
         <v>16255.284</v>
       </c>
       <c r="G183" t="n">
+        <v>289.0533333333334</v>
+      </c>
+      <c r="H183" t="n">
         <v>287.2633333333331</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7387,21 @@
         <v>17200.4221</v>
       </c>
       <c r="G184" t="n">
+        <v>289.2</v>
+      </c>
+      <c r="H184" t="n">
         <v>287.3733333333331</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7425,21 @@
         <v>2810</v>
       </c>
       <c r="G185" t="n">
+        <v>289.2200000000001</v>
+      </c>
+      <c r="H185" t="n">
         <v>287.4649999999997</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7463,21 @@
         <v>0.5189</v>
       </c>
       <c r="G186" t="n">
+        <v>289.2400000000001</v>
+      </c>
+      <c r="H186" t="n">
         <v>287.5583333333331</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7501,21 @@
         <v>340.9466</v>
       </c>
       <c r="G187" t="n">
+        <v>289.28</v>
+      </c>
+      <c r="H187" t="n">
         <v>287.6349999999997</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7539,21 @@
         <v>330.8627</v>
       </c>
       <c r="G188" t="n">
+        <v>289.3066666666667</v>
+      </c>
+      <c r="H188" t="n">
         <v>287.7016666666664</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7577,21 @@
         <v>20</v>
       </c>
       <c r="G189" t="n">
+        <v>289.3066666666667</v>
+      </c>
+      <c r="H189" t="n">
         <v>287.7616666666664</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +7615,21 @@
         <v>5396.4418</v>
       </c>
       <c r="G190" t="n">
+        <v>289.4866666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>287.838333333333</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +7653,21 @@
         <v>6571.3917</v>
       </c>
       <c r="G191" t="n">
+        <v>289.66</v>
+      </c>
+      <c r="H191" t="n">
         <v>287.913333333333</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>1</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +7691,21 @@
         <v>172.0099</v>
       </c>
       <c r="G192" t="n">
+        <v>289.66</v>
+      </c>
+      <c r="H192" t="n">
         <v>287.9816666666663</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>1</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +7729,21 @@
         <v>5410.3084</v>
       </c>
       <c r="G193" t="n">
+        <v>289.7733333333333</v>
+      </c>
+      <c r="H193" t="n">
         <v>288.0649999999997</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>1</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +7767,21 @@
         <v>0.7453</v>
       </c>
       <c r="G194" t="n">
+        <v>289.84</v>
+      </c>
+      <c r="H194" t="n">
         <v>288.123333333333</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +7805,21 @@
         <v>553</v>
       </c>
       <c r="G195" t="n">
+        <v>289.9466666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>288.193333333333</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +7843,21 @@
         <v>4519.2733</v>
       </c>
       <c r="G196" t="n">
+        <v>289.9733333333333</v>
+      </c>
+      <c r="H196" t="n">
         <v>288.2399999999997</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +7881,21 @@
         <v>2105.9</v>
       </c>
       <c r="G197" t="n">
+        <v>290.04</v>
+      </c>
+      <c r="H197" t="n">
         <v>288.2766666666664</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +7919,21 @@
         <v>2415.1734</v>
       </c>
       <c r="G198" t="n">
+        <v>290.0866666666666</v>
+      </c>
+      <c r="H198" t="n">
         <v>288.3416666666664</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +7957,21 @@
         <v>17153.8395</v>
       </c>
       <c r="G199" t="n">
+        <v>290.14</v>
+      </c>
+      <c r="H199" t="n">
         <v>288.4133333333331</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>1</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +7995,21 @@
         <v>3494.2371</v>
       </c>
       <c r="G200" t="n">
+        <v>290.1866666666666</v>
+      </c>
+      <c r="H200" t="n">
         <v>288.4866666666665</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>1</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8033,21 @@
         <v>631.21</v>
       </c>
       <c r="G201" t="n">
+        <v>290.2333333333333</v>
+      </c>
+      <c r="H201" t="n">
         <v>288.5516666666664</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8071,21 @@
         <v>4822.7368</v>
       </c>
       <c r="G202" t="n">
+        <v>290.2533333333333</v>
+      </c>
+      <c r="H202" t="n">
         <v>288.6166666666665</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>1</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8109,21 @@
         <v>34</v>
       </c>
       <c r="G203" t="n">
+        <v>290.3133333333333</v>
+      </c>
+      <c r="H203" t="n">
         <v>288.6916666666665</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8147,21 @@
         <v>36</v>
       </c>
       <c r="G204" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="H204" t="n">
         <v>288.7849999999998</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8185,21 @@
         <v>3504.8635</v>
       </c>
       <c r="G205" t="n">
+        <v>290.4333333333333</v>
+      </c>
+      <c r="H205" t="n">
         <v>288.8449999999997</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8223,21 @@
         <v>207.506</v>
       </c>
       <c r="G206" t="n">
+        <v>290.4733333333334</v>
+      </c>
+      <c r="H206" t="n">
         <v>288.9433333333331</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,18 +8261,21 @@
         <v>1698.0852</v>
       </c>
       <c r="G207" t="n">
+        <v>290.5733333333334</v>
+      </c>
+      <c r="H207" t="n">
         <v>289.0416666666665</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,18 +8299,21 @@
         <v>4115.0566</v>
       </c>
       <c r="G208" t="n">
+        <v>290.6866666666667</v>
+      </c>
+      <c r="H208" t="n">
         <v>289.1049999999998</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7693,18 +8337,21 @@
         <v>1072.4582</v>
       </c>
       <c r="G209" t="n">
+        <v>290.7866666666667</v>
+      </c>
+      <c r="H209" t="n">
         <v>289.1649999999998</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,18 +8375,21 @@
         <v>5076.9327</v>
       </c>
       <c r="G210" t="n">
+        <v>290.9133333333333</v>
+      </c>
+      <c r="H210" t="n">
         <v>289.2599999999998</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7763,18 +8413,21 @@
         <v>6000</v>
       </c>
       <c r="G211" t="n">
+        <v>291.0733333333334</v>
+      </c>
+      <c r="H211" t="n">
         <v>289.3599999999998</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7798,18 +8451,21 @@
         <v>2000</v>
       </c>
       <c r="G212" t="n">
+        <v>291.26</v>
+      </c>
+      <c r="H212" t="n">
         <v>289.4599999999998</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7833,18 +8489,21 @@
         <v>1000</v>
       </c>
       <c r="G213" t="n">
+        <v>291.3266666666667</v>
+      </c>
+      <c r="H213" t="n">
         <v>289.5549999999998</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,18 +8527,21 @@
         <v>1103.299</v>
       </c>
       <c r="G214" t="n">
+        <v>291.3800000000001</v>
+      </c>
+      <c r="H214" t="n">
         <v>289.6216666666665</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>1</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7903,18 +8565,21 @@
         <v>962.5237</v>
       </c>
       <c r="G215" t="n">
+        <v>291.3333333333334</v>
+      </c>
+      <c r="H215" t="n">
         <v>289.6616666666665</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>1</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7938,18 +8603,21 @@
         <v>4343.2</v>
       </c>
       <c r="G216" t="n">
+        <v>291.2866666666667</v>
+      </c>
+      <c r="H216" t="n">
         <v>289.7016666666665</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>1</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7973,18 +8641,21 @@
         <v>2969.5716</v>
       </c>
       <c r="G217" t="n">
+        <v>291.1733333333334</v>
+      </c>
+      <c r="H217" t="n">
         <v>289.7249999999999</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8008,18 +8679,21 @@
         <v>10000</v>
       </c>
       <c r="G218" t="n">
+        <v>291.0333333333334</v>
+      </c>
+      <c r="H218" t="n">
         <v>289.7516666666666</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8043,18 +8717,21 @@
         <v>8948.1839</v>
       </c>
       <c r="G219" t="n">
+        <v>290.8133333333334</v>
+      </c>
+      <c r="H219" t="n">
         <v>289.7566666666665</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8078,18 +8755,21 @@
         <v>5800.0068</v>
       </c>
       <c r="G220" t="n">
+        <v>290.58</v>
+      </c>
+      <c r="H220" t="n">
         <v>289.7616666666665</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8113,18 +8793,21 @@
         <v>918.8398</v>
       </c>
       <c r="G221" t="n">
+        <v>290.3466666666667</v>
+      </c>
+      <c r="H221" t="n">
         <v>289.7683333333333</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8148,18 +8831,21 @@
         <v>1.818</v>
       </c>
       <c r="G222" t="n">
+        <v>290.0666666666667</v>
+      </c>
+      <c r="H222" t="n">
         <v>289.7616666666665</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8183,18 +8869,21 @@
         <v>2118.7964</v>
       </c>
       <c r="G223" t="n">
+        <v>289.8533333333334</v>
+      </c>
+      <c r="H223" t="n">
         <v>289.7766666666666</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8218,18 +8907,21 @@
         <v>29149.7837</v>
       </c>
       <c r="G224" t="n">
+        <v>289.5866666666668</v>
+      </c>
+      <c r="H224" t="n">
         <v>289.7749999999999</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8253,18 +8945,21 @@
         <v>15332.0086</v>
       </c>
       <c r="G225" t="n">
+        <v>289.1200000000001</v>
+      </c>
+      <c r="H225" t="n">
         <v>289.7216666666666</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8288,18 +8983,21 @@
         <v>14176.9327</v>
       </c>
       <c r="G226" t="n">
+        <v>288.8133333333334</v>
+      </c>
+      <c r="H226" t="n">
         <v>289.6983333333334</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8323,18 +9021,21 @@
         <v>100</v>
       </c>
       <c r="G227" t="n">
+        <v>288.3533333333334</v>
+      </c>
+      <c r="H227" t="n">
         <v>289.6366666666667</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8358,18 +9059,21 @@
         <v>602.0060999999999</v>
       </c>
       <c r="G228" t="n">
+        <v>287.9133333333334</v>
+      </c>
+      <c r="H228" t="n">
         <v>289.5950000000001</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8393,18 +9097,21 @@
         <v>795.1853</v>
       </c>
       <c r="G229" t="n">
+        <v>287.58</v>
+      </c>
+      <c r="H229" t="n">
         <v>289.575</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8428,18 +9135,21 @@
         <v>2574.7827</v>
       </c>
       <c r="G230" t="n">
+        <v>287.3066666666667</v>
+      </c>
+      <c r="H230" t="n">
         <v>289.5116666666667</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8463,18 +9173,21 @@
         <v>1004.1997</v>
       </c>
       <c r="G231" t="n">
+        <v>287.08</v>
+      </c>
+      <c r="H231" t="n">
         <v>289.46</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8498,18 +9211,21 @@
         <v>1.818</v>
       </c>
       <c r="G232" t="n">
+        <v>286.8800000000001</v>
+      </c>
+      <c r="H232" t="n">
         <v>289.3966666666667</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8533,18 +9249,21 @@
         <v>4603.5462</v>
       </c>
       <c r="G233" t="n">
+        <v>286.5600000000001</v>
+      </c>
+      <c r="H233" t="n">
         <v>289.3033333333334</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8568,18 +9287,21 @@
         <v>7272.4363</v>
       </c>
       <c r="G234" t="n">
+        <v>286.4266666666667</v>
+      </c>
+      <c r="H234" t="n">
         <v>289.2366666666667</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8603,18 +9325,21 @@
         <v>2327.5084</v>
       </c>
       <c r="G235" t="n">
+        <v>286.1866666666667</v>
+      </c>
+      <c r="H235" t="n">
         <v>289.1716666666668</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8638,18 +9363,21 @@
         <v>2</v>
       </c>
       <c r="G236" t="n">
+        <v>286.0533333333333</v>
+      </c>
+      <c r="H236" t="n">
         <v>289.1333333333334</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8673,18 +9401,21 @@
         <v>5.656</v>
       </c>
       <c r="G237" t="n">
+        <v>285.9266666666666</v>
+      </c>
+      <c r="H237" t="n">
         <v>289.0566666666668</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8708,18 +9439,21 @@
         <v>209.5072</v>
       </c>
       <c r="G238" t="n">
+        <v>285.8333333333333</v>
+      </c>
+      <c r="H238" t="n">
         <v>289.0366666666668</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8743,18 +9477,21 @@
         <v>2.828</v>
       </c>
       <c r="G239" t="n">
+        <v>285.76</v>
+      </c>
+      <c r="H239" t="n">
         <v>288.9933333333335</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8778,18 +9515,21 @@
         <v>5359.0301</v>
       </c>
       <c r="G240" t="n">
+        <v>285.8933333333333</v>
+      </c>
+      <c r="H240" t="n">
         <v>288.9683333333335</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8813,18 +9553,21 @@
         <v>1239.9435</v>
       </c>
       <c r="G241" t="n">
+        <v>285.8933333333333</v>
+      </c>
+      <c r="H241" t="n">
         <v>288.9383333333335</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8848,18 +9591,21 @@
         <v>3055.3824</v>
       </c>
       <c r="G242" t="n">
+        <v>286.0666666666667</v>
+      </c>
+      <c r="H242" t="n">
         <v>288.9300000000002</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8883,18 +9629,21 @@
         <v>134.0596</v>
       </c>
       <c r="G243" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="H243" t="n">
         <v>288.8816666666668</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8918,18 +9667,21 @@
         <v>3372.1203</v>
       </c>
       <c r="G244" t="n">
+        <v>286.1733333333333</v>
+      </c>
+      <c r="H244" t="n">
         <v>288.8183333333335</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8953,18 +9705,21 @@
         <v>1147.4842</v>
       </c>
       <c r="G245" t="n">
+        <v>286.1933333333333</v>
+      </c>
+      <c r="H245" t="n">
         <v>288.7550000000002</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8988,18 +9743,21 @@
         <v>100</v>
       </c>
       <c r="G246" t="n">
+        <v>286.2266666666666</v>
+      </c>
+      <c r="H246" t="n">
         <v>288.7066666666668</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9023,18 +9781,21 @@
         <v>2314.0843</v>
       </c>
       <c r="G247" t="n">
+        <v>286.2333333333333</v>
+      </c>
+      <c r="H247" t="n">
         <v>288.6350000000001</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9058,18 +9819,21 @@
         <v>3470.3765</v>
       </c>
       <c r="G248" t="n">
+        <v>286.3466666666667</v>
+      </c>
+      <c r="H248" t="n">
         <v>288.5633333333334</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9093,18 +9857,21 @@
         <v>170.1415</v>
       </c>
       <c r="G249" t="n">
+        <v>286.4200000000001</v>
+      </c>
+      <c r="H249" t="n">
         <v>288.515</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9128,18 +9895,21 @@
         <v>0.0001</v>
       </c>
       <c r="G250" t="n">
+        <v>286.6000000000001</v>
+      </c>
+      <c r="H250" t="n">
         <v>288.45</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9163,18 +9933,21 @@
         <v>1192</v>
       </c>
       <c r="G251" t="n">
+        <v>286.7066666666668</v>
+      </c>
+      <c r="H251" t="n">
         <v>288.3949999999999</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9198,18 +9971,21 @@
         <v>5350.1841</v>
       </c>
       <c r="G252" t="n">
+        <v>286.8600000000002</v>
+      </c>
+      <c r="H252" t="n">
         <v>288.3566666666666</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9233,18 +10009,21 @@
         <v>4754.6669</v>
       </c>
       <c r="G253" t="n">
+        <v>286.9466666666668</v>
+      </c>
+      <c r="H253" t="n">
         <v>288.33</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9268,18 +10047,21 @@
         <v>16.5495</v>
       </c>
       <c r="G254" t="n">
+        <v>287.0400000000001</v>
+      </c>
+      <c r="H254" t="n">
         <v>288.2933333333333</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9303,18 +10085,21 @@
         <v>3.848</v>
       </c>
       <c r="G255" t="n">
+        <v>287.1333333333335</v>
+      </c>
+      <c r="H255" t="n">
         <v>288.265</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9338,18 +10123,21 @@
         <v>2380</v>
       </c>
       <c r="G256" t="n">
+        <v>287.1800000000002</v>
+      </c>
+      <c r="H256" t="n">
         <v>288.24</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9373,18 +10161,21 @@
         <v>993.424</v>
       </c>
       <c r="G257" t="n">
+        <v>287.2000000000002</v>
+      </c>
+      <c r="H257" t="n">
         <v>288.22</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9408,18 +10199,21 @@
         <v>3.8878</v>
       </c>
       <c r="G258" t="n">
+        <v>287.2800000000001</v>
+      </c>
+      <c r="H258" t="n">
         <v>288.1799999999999</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9443,18 +10237,21 @@
         <v>1553.4905</v>
       </c>
       <c r="G259" t="n">
+        <v>287.2800000000001</v>
+      </c>
+      <c r="H259" t="n">
         <v>288.1033333333333</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9478,18 +10275,21 @@
         <v>557.1683</v>
       </c>
       <c r="G260" t="n">
+        <v>287.2800000000001</v>
+      </c>
+      <c r="H260" t="n">
         <v>288.0283333333333</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9513,18 +10313,21 @@
         <v>1293.766</v>
       </c>
       <c r="G261" t="n">
+        <v>287.3400000000001</v>
+      </c>
+      <c r="H261" t="n">
         <v>287.9833333333333</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9548,18 +10351,21 @@
         <v>20.9434</v>
       </c>
       <c r="G262" t="n">
+        <v>287.4733333333335</v>
+      </c>
+      <c r="H262" t="n">
         <v>287.9399999999999</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9583,18 +10389,21 @@
         <v>1312.038</v>
       </c>
       <c r="G263" t="n">
+        <v>287.6133333333335</v>
+      </c>
+      <c r="H263" t="n">
         <v>287.8883333333333</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9618,18 +10427,21 @@
         <v>173.0307</v>
       </c>
       <c r="G264" t="n">
+        <v>287.6866666666667</v>
+      </c>
+      <c r="H264" t="n">
         <v>287.8366666666666</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9653,18 +10465,21 @@
         <v>1577.6445</v>
       </c>
       <c r="G265" t="n">
+        <v>287.7666666666667</v>
+      </c>
+      <c r="H265" t="n">
         <v>287.7833333333332</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9688,18 +10503,21 @@
         <v>3386.6601</v>
       </c>
       <c r="G266" t="n">
+        <v>287.6933333333334</v>
+      </c>
+      <c r="H266" t="n">
         <v>287.6999999999999</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9723,18 +10541,21 @@
         <v>491.9389</v>
       </c>
       <c r="G267" t="n">
+        <v>287.7333333333334</v>
+      </c>
+      <c r="H267" t="n">
         <v>287.6466666666666</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9758,18 +10579,21 @@
         <v>4842.8596</v>
       </c>
       <c r="G268" t="n">
+        <v>287.7600000000001</v>
+      </c>
+      <c r="H268" t="n">
         <v>287.5983333333332</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9793,18 +10617,21 @@
         <v>1.818</v>
       </c>
       <c r="G269" t="n">
+        <v>287.7200000000001</v>
+      </c>
+      <c r="H269" t="n">
         <v>287.5266666666666</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9828,18 +10655,21 @@
         <v>4462.4992</v>
       </c>
       <c r="G270" t="n">
+        <v>287.76</v>
+      </c>
+      <c r="H270" t="n">
         <v>287.4766666666666</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9863,18 +10693,21 @@
         <v>1.818</v>
       </c>
       <c r="G271" t="n">
+        <v>287.6800000000001</v>
+      </c>
+      <c r="H271" t="n">
         <v>287.3916666666666</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9898,18 +10731,21 @@
         <v>609.6985</v>
       </c>
       <c r="G272" t="n">
+        <v>287.7266666666667</v>
+      </c>
+      <c r="H272" t="n">
         <v>287.3366666666666</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9933,18 +10769,21 @@
         <v>132.9254</v>
       </c>
       <c r="G273" t="n">
+        <v>287.76</v>
+      </c>
+      <c r="H273" t="n">
         <v>287.2883333333332</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9968,18 +10807,21 @@
         <v>408.0626</v>
       </c>
       <c r="G274" t="n">
+        <v>287.84</v>
+      </c>
+      <c r="H274" t="n">
         <v>287.2183333333333</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10003,18 +10845,21 @@
         <v>7483.565</v>
       </c>
       <c r="G275" t="n">
+        <v>287.8466666666667</v>
+      </c>
+      <c r="H275" t="n">
         <v>287.1566666666666</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10038,18 +10883,21 @@
         <v>379.8899</v>
       </c>
       <c r="G276" t="n">
+        <v>287.7333333333334</v>
+      </c>
+      <c r="H276" t="n">
         <v>287.095</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10073,18 +10921,21 @@
         <v>5930.4706</v>
       </c>
       <c r="G277" t="n">
+        <v>287.6000000000001</v>
+      </c>
+      <c r="H277" t="n">
         <v>287.0466666666666</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10108,18 +10959,21 @@
         <v>965.4254</v>
       </c>
       <c r="G278" t="n">
+        <v>287.4666666666668</v>
+      </c>
+      <c r="H278" t="n">
         <v>286.9966666666666</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10143,18 +10997,21 @@
         <v>4566.287</v>
       </c>
       <c r="G279" t="n">
+        <v>287.3266666666668</v>
+      </c>
+      <c r="H279" t="n">
         <v>286.9649999999999</v>
       </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
       <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10178,18 +11035,21 @@
         <v>5072.6978</v>
       </c>
       <c r="G280" t="n">
+        <v>287.1466666666668</v>
+      </c>
+      <c r="H280" t="n">
         <v>286.9249999999999</v>
       </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
       <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10213,18 +11073,21 @@
         <v>2476.3942</v>
       </c>
       <c r="G281" t="n">
+        <v>287.1200000000001</v>
+      </c>
+      <c r="H281" t="n">
         <v>286.8933333333332</v>
       </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>0</v>
+      </c>
       <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10248,18 +11111,21 @@
         <v>3.636</v>
       </c>
       <c r="G282" t="n">
+        <v>286.9400000000002</v>
+      </c>
+      <c r="H282" t="n">
         <v>286.8649999999998</v>
       </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
       <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10283,18 +11149,21 @@
         <v>654.5835</v>
       </c>
       <c r="G283" t="n">
+        <v>286.7266666666668</v>
+      </c>
+      <c r="H283" t="n">
         <v>286.8166666666665</v>
       </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
       <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10318,18 +11187,21 @@
         <v>500</v>
       </c>
       <c r="G284" t="n">
+        <v>286.7066666666668</v>
+      </c>
+      <c r="H284" t="n">
         <v>286.8066666666665</v>
       </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
       <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10353,18 +11225,21 @@
         <v>500</v>
       </c>
       <c r="G285" t="n">
+        <v>286.5466666666669</v>
+      </c>
+      <c r="H285" t="n">
         <v>286.8333333333331</v>
       </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
       <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10388,18 +11263,21 @@
         <v>13616.4902</v>
       </c>
       <c r="G286" t="n">
+        <v>286.3666666666668</v>
+      </c>
+      <c r="H286" t="n">
         <v>286.7799999999998</v>
       </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
       <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10423,18 +11301,21 @@
         <v>2138.6299</v>
       </c>
       <c r="G287" t="n">
+        <v>286.0600000000002</v>
+      </c>
+      <c r="H287" t="n">
         <v>286.7633333333332</v>
       </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
       <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10458,18 +11339,21 @@
         <v>1401.81232492</v>
       </c>
       <c r="G288" t="n">
+        <v>285.8466666666669</v>
+      </c>
+      <c r="H288" t="n">
         <v>286.7716666666665</v>
       </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
       <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10493,18 +11377,21 @@
         <v>2127.3731</v>
       </c>
       <c r="G289" t="n">
+        <v>285.6133333333335</v>
+      </c>
+      <c r="H289" t="n">
         <v>286.7266666666665</v>
       </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
       <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
+      <c r="M289" t="inlineStr"/>
+      <c r="N289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10528,18 +11415,21 @@
         <v>277.2189</v>
       </c>
       <c r="G290" t="n">
+        <v>285.4533333333335</v>
+      </c>
+      <c r="H290" t="n">
         <v>286.6933333333332</v>
       </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
       <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
+      <c r="M290" t="inlineStr"/>
+      <c r="N290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10563,18 +11453,21 @@
         <v>5.1392</v>
       </c>
       <c r="G291" t="n">
+        <v>285.2933333333334</v>
+      </c>
+      <c r="H291" t="n">
         <v>286.6483333333333</v>
       </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
       <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
+      <c r="M291" t="inlineStr"/>
+      <c r="N291" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10598,18 +11491,21 @@
         <v>4195.1577</v>
       </c>
       <c r="G292" t="n">
+        <v>285.0866666666668</v>
+      </c>
+      <c r="H292" t="n">
         <v>286.5983333333332</v>
       </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10633,18 +11529,21 @@
         <v>1280.9123</v>
       </c>
       <c r="G293" t="n">
+        <v>284.8733333333334</v>
+      </c>
+      <c r="H293" t="n">
         <v>286.5749999999999</v>
       </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10668,18 +11567,21 @@
         <v>2794.901</v>
       </c>
       <c r="G294" t="n">
+        <v>284.6666666666667</v>
+      </c>
+      <c r="H294" t="n">
         <v>286.5249999999999</v>
       </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10703,18 +11605,21 @@
         <v>2277.5632</v>
       </c>
       <c r="G295" t="n">
+        <v>284.4933333333334</v>
+      </c>
+      <c r="H295" t="n">
         <v>286.5016666666665</v>
       </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
       <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
+      <c r="M295" t="inlineStr"/>
+      <c r="N295" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10738,18 +11643,21 @@
         <v>10</v>
       </c>
       <c r="G296" t="n">
+        <v>284.2866666666667</v>
+      </c>
+      <c r="H296" t="n">
         <v>286.4516666666665</v>
       </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>0</v>
+      </c>
       <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10773,18 +11681,21 @@
         <v>279.2769</v>
       </c>
       <c r="G297" t="n">
+        <v>284.1133333333333</v>
+      </c>
+      <c r="H297" t="n">
         <v>286.4116666666665</v>
       </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
       <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
+      <c r="M297" t="inlineStr"/>
+      <c r="N297" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10808,18 +11719,21 @@
         <v>19157.182</v>
       </c>
       <c r="G298" t="n">
+        <v>283.84</v>
+      </c>
+      <c r="H298" t="n">
         <v>286.3183333333332</v>
       </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
       <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
+      <c r="M298" t="inlineStr"/>
+      <c r="N298" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10843,18 +11757,21 @@
         <v>107.3</v>
       </c>
       <c r="G299" t="n">
+        <v>283.56</v>
+      </c>
+      <c r="H299" t="n">
         <v>286.2566666666665</v>
       </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
       <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
+      <c r="M299" t="inlineStr"/>
+      <c r="N299" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10878,18 +11795,21 @@
         <v>1000</v>
       </c>
       <c r="G300" t="n">
+        <v>283.26</v>
+      </c>
+      <c r="H300" t="n">
         <v>286.1749999999998</v>
       </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
+      <c r="M300" t="inlineStr"/>
+      <c r="N300" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10913,18 +11833,21 @@
         <v>16025.5687</v>
       </c>
       <c r="G301" t="n">
+        <v>283.06</v>
+      </c>
+      <c r="H301" t="n">
         <v>286.0716666666665</v>
       </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>0</v>
+      </c>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
+      <c r="M301" t="inlineStr"/>
+      <c r="N301" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10948,18 +11871,21 @@
         <v>2434.0189</v>
       </c>
       <c r="G302" t="n">
+        <v>282.8333333333333</v>
+      </c>
+      <c r="H302" t="n">
         <v>285.9549999999998</v>
       </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>0</v>
+      </c>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
+      <c r="M302" t="inlineStr"/>
+      <c r="N302" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10983,18 +11909,21 @@
         <v>4106.3573</v>
       </c>
       <c r="G303" t="n">
+        <v>282.58</v>
+      </c>
+      <c r="H303" t="n">
         <v>285.8666666666665</v>
       </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>0</v>
+      </c>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
+      <c r="M303" t="inlineStr"/>
+      <c r="N303" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11018,18 +11947,21 @@
         <v>6354.1007</v>
       </c>
       <c r="G304" t="n">
+        <v>282.44</v>
+      </c>
+      <c r="H304" t="n">
         <v>285.7933333333331</v>
       </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>0</v>
+      </c>
       <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
+      <c r="M304" t="inlineStr"/>
+      <c r="N304" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11053,18 +11985,21 @@
         <v>2755.2311</v>
       </c>
       <c r="G305" t="n">
+        <v>282.3000000000001</v>
+      </c>
+      <c r="H305" t="n">
         <v>285.7199999999997</v>
       </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>0</v>
+      </c>
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
+      <c r="M305" t="inlineStr"/>
+      <c r="N305" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11088,18 +12023,21 @@
         <v>2178.9188</v>
       </c>
       <c r="G306" t="n">
+        <v>282.1133333333335</v>
+      </c>
+      <c r="H306" t="n">
         <v>285.6199999999998</v>
       </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
+      <c r="M306" t="inlineStr"/>
+      <c r="N306" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11123,18 +12061,21 @@
         <v>517.6458</v>
       </c>
       <c r="G307" t="n">
+        <v>281.9800000000001</v>
+      </c>
+      <c r="H307" t="n">
         <v>285.5349999999998</v>
       </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>0</v>
+      </c>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
+      <c r="M307" t="inlineStr"/>
+      <c r="N307" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11158,18 +12099,21 @@
         <v>1183.3</v>
       </c>
       <c r="G308" t="n">
+        <v>281.8466666666667</v>
+      </c>
+      <c r="H308" t="n">
         <v>285.4499999999998</v>
       </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
+      <c r="M308" t="inlineStr"/>
+      <c r="N308" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11193,18 +12137,21 @@
         <v>25761.3315</v>
       </c>
       <c r="G309" t="n">
+        <v>281.8666666666668</v>
+      </c>
+      <c r="H309" t="n">
         <v>285.3866666666665</v>
       </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
       <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
+      <c r="M309" t="inlineStr"/>
+      <c r="N309" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11228,18 +12175,21 @@
         <v>37.1889</v>
       </c>
       <c r="G310" t="n">
+        <v>281.8666666666668</v>
+      </c>
+      <c r="H310" t="n">
         <v>285.3183333333332</v>
       </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>0</v>
+      </c>
       <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
+      <c r="M310" t="inlineStr"/>
+      <c r="N310" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11263,18 +12213,21 @@
         <v>4.5</v>
       </c>
       <c r="G311" t="n">
+        <v>281.8533333333335</v>
+      </c>
+      <c r="H311" t="n">
         <v>285.2383333333332</v>
       </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>0</v>
+      </c>
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
+      <c r="M311" t="inlineStr"/>
+      <c r="N311" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11298,18 +12251,21 @@
         <v>10</v>
       </c>
       <c r="G312" t="n">
+        <v>281.8466666666667</v>
+      </c>
+      <c r="H312" t="n">
         <v>285.1583333333332</v>
       </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>0</v>
+      </c>
       <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
+      <c r="M312" t="inlineStr"/>
+      <c r="N312" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11333,18 +12289,21 @@
         <v>25.0401</v>
       </c>
       <c r="G313" t="n">
+        <v>281.8800000000001</v>
+      </c>
+      <c r="H313" t="n">
         <v>285.0516666666665</v>
       </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>0</v>
+      </c>
       <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
+      <c r="M313" t="inlineStr"/>
+      <c r="N313" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11368,18 +12327,21 @@
         <v>1133.0528</v>
       </c>
       <c r="G314" t="n">
+        <v>281.7666666666668</v>
+      </c>
+      <c r="H314" t="n">
         <v>284.9383333333332</v>
       </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>0</v>
+      </c>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
+      <c r="M314" t="inlineStr"/>
+      <c r="N314" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11403,18 +12365,21 @@
         <v>9491.580400000001</v>
       </c>
       <c r="G315" t="n">
+        <v>281.6800000000001</v>
+      </c>
+      <c r="H315" t="n">
         <v>284.8116666666666</v>
       </c>
-      <c r="H315" t="n">
-        <v>0</v>
-      </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>0</v>
+      </c>
       <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
+      <c r="M315" t="inlineStr"/>
+      <c r="N315" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11438,18 +12403,21 @@
         <v>21646.2925</v>
       </c>
       <c r="G316" t="n">
+        <v>281.6200000000001</v>
+      </c>
+      <c r="H316" t="n">
         <v>284.6816666666665</v>
       </c>
-      <c r="H316" t="n">
-        <v>0</v>
-      </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
       <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
+      <c r="M316" t="inlineStr"/>
+      <c r="N316" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11473,18 +12441,21 @@
         <v>9693.3262</v>
       </c>
       <c r="G317" t="n">
+        <v>281.5933333333335</v>
+      </c>
+      <c r="H317" t="n">
         <v>284.5533333333332</v>
       </c>
-      <c r="H317" t="n">
-        <v>0</v>
-      </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>0</v>
+      </c>
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
+      <c r="M317" t="inlineStr"/>
+      <c r="N317" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11508,18 +12479,21 @@
         <v>9</v>
       </c>
       <c r="G318" t="n">
+        <v>281.5400000000001</v>
+      </c>
+      <c r="H318" t="n">
         <v>284.4316666666665</v>
       </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>0</v>
+      </c>
       <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
+      <c r="M318" t="inlineStr"/>
+      <c r="N318" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11543,18 +12517,21 @@
         <v>6597.1936</v>
       </c>
       <c r="G319" t="n">
+        <v>281.4133333333335</v>
+      </c>
+      <c r="H319" t="n">
         <v>284.3266666666665</v>
       </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
       <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
+      <c r="M319" t="inlineStr"/>
+      <c r="N319" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11578,18 +12555,21 @@
         <v>14868.1565</v>
       </c>
       <c r="G320" t="n">
+        <v>281.2266666666667</v>
+      </c>
+      <c r="H320" t="n">
         <v>284.2066666666665</v>
       </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
       <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
+      <c r="M320" t="inlineStr"/>
+      <c r="N320" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11613,18 +12593,21 @@
         <v>10805.4423</v>
       </c>
       <c r="G321" t="n">
+        <v>281.0200000000001</v>
+      </c>
+      <c r="H321" t="n">
         <v>284.0399999999998</v>
       </c>
-      <c r="H321" t="n">
-        <v>0</v>
-      </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>0</v>
+      </c>
       <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
+      <c r="M321" t="inlineStr"/>
+      <c r="N321" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11648,18 +12631,25 @@
         <v>40.0413</v>
       </c>
       <c r="G322" t="n">
+        <v>280.9066666666668</v>
+      </c>
+      <c r="H322" t="n">
         <v>283.8933333333332</v>
       </c>
-      <c r="H322" t="n">
-        <v>0</v>
-      </c>
       <c r="I322" t="n">
-        <v>0</v>
-      </c>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
+        <v>1</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0</v>
+      </c>
+      <c r="K322" t="n">
+        <v>278</v>
+      </c>
+      <c r="L322" t="n">
+        <v>278</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
+      <c r="N322" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11683,18 +12673,29 @@
         <v>5.4</v>
       </c>
       <c r="G323" t="n">
+        <v>280.8133333333334</v>
+      </c>
+      <c r="H323" t="n">
         <v>283.7499999999998</v>
       </c>
-      <c r="H323" t="n">
-        <v>0</v>
-      </c>
       <c r="I323" t="n">
-        <v>0</v>
-      </c>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
+        <v>1</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0</v>
+      </c>
+      <c r="K323" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="L323" t="n">
+        <v>278</v>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N323" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11718,18 +12719,29 @@
         <v>5523.4672</v>
       </c>
       <c r="G324" t="n">
+        <v>280.4600000000001</v>
+      </c>
+      <c r="H324" t="n">
         <v>283.5799999999998</v>
       </c>
-      <c r="H324" t="n">
-        <v>0</v>
-      </c>
       <c r="I324" t="n">
-        <v>0</v>
-      </c>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
+        <v>1</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0</v>
+      </c>
+      <c r="K324" t="n">
+        <v>279.6</v>
+      </c>
+      <c r="L324" t="n">
+        <v>278</v>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N324" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11753,18 +12765,29 @@
         <v>694.2287</v>
       </c>
       <c r="G325" t="n">
+        <v>280.1066666666667</v>
+      </c>
+      <c r="H325" t="n">
         <v>283.4033333333331</v>
       </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
       <c r="I325" t="n">
-        <v>0</v>
-      </c>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
-      <c r="M325" t="n">
+        <v>1</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0</v>
+      </c>
+      <c r="K325" t="n">
+        <v>278</v>
+      </c>
+      <c r="L325" t="n">
+        <v>278</v>
+      </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N325" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11788,18 +12811,29 @@
         <v>2720.5776</v>
       </c>
       <c r="G326" t="n">
+        <v>279.8200000000001</v>
+      </c>
+      <c r="H326" t="n">
         <v>283.2699999999998</v>
       </c>
-      <c r="H326" t="n">
-        <v>0</v>
-      </c>
       <c r="I326" t="n">
-        <v>0</v>
-      </c>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
-      <c r="M326" t="n">
+        <v>1</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0</v>
+      </c>
+      <c r="K326" t="n">
+        <v>277.7</v>
+      </c>
+      <c r="L326" t="n">
+        <v>278</v>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N326" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11823,18 +12857,29 @@
         <v>2951.2282</v>
       </c>
       <c r="G327" t="n">
+        <v>279.5266666666668</v>
+      </c>
+      <c r="H327" t="n">
         <v>283.1066666666665</v>
       </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
       <c r="I327" t="n">
-        <v>0</v>
-      </c>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
-      <c r="M327" t="n">
+        <v>1</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0</v>
+      </c>
+      <c r="K327" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="L327" t="n">
+        <v>278</v>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N327" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11858,18 +12903,29 @@
         <v>360.4244</v>
       </c>
       <c r="G328" t="n">
+        <v>279.4000000000001</v>
+      </c>
+      <c r="H328" t="n">
         <v>282.9616666666665</v>
       </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
       <c r="I328" t="n">
-        <v>0</v>
-      </c>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
-      <c r="M328" t="n">
+        <v>1</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0</v>
+      </c>
+      <c r="K328" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="L328" t="n">
+        <v>278</v>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N328" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11893,24 +12949,29 @@
         <v>877.9284</v>
       </c>
       <c r="G329" t="n">
+        <v>279.2333333333335</v>
+      </c>
+      <c r="H329" t="n">
         <v>282.8166666666665</v>
       </c>
-      <c r="H329" t="n">
-        <v>1</v>
-      </c>
       <c r="I329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J329" t="n">
+        <v>0</v>
+      </c>
+      <c r="K329" t="n">
         <v>280.1</v>
       </c>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr">
+      <c r="L329" t="n">
+        <v>278</v>
+      </c>
+      <c r="M329" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M329" t="n">
+      <c r="N329" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11934,22 +12995,29 @@
         <v>3332.9473</v>
       </c>
       <c r="G330" t="n">
+        <v>279.1400000000002</v>
+      </c>
+      <c r="H330" t="n">
         <v>282.6566666666665</v>
       </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
       <c r="I330" t="n">
-        <v>0</v>
-      </c>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0</v>
+      </c>
+      <c r="K330" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="L330" t="n">
+        <v>278</v>
+      </c>
+      <c r="M330" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M330" t="n">
+      <c r="N330" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11973,24 +13041,29 @@
         <v>20571.0506</v>
       </c>
       <c r="G331" t="n">
+        <v>279.0800000000001</v>
+      </c>
+      <c r="H331" t="n">
         <v>282.5316666666665</v>
       </c>
-      <c r="H331" t="n">
-        <v>1</v>
-      </c>
       <c r="I331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331" t="n">
+        <v>0</v>
+      </c>
+      <c r="K331" t="n">
         <v>278.8</v>
       </c>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr">
+      <c r="L331" t="n">
+        <v>278</v>
+      </c>
+      <c r="M331" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M331" t="n">
+      <c r="N331" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12014,24 +13087,29 @@
         <v>1516.8</v>
       </c>
       <c r="G332" t="n">
+        <v>279.0266666666668</v>
+      </c>
+      <c r="H332" t="n">
         <v>282.3783333333331</v>
       </c>
-      <c r="H332" t="n">
-        <v>1</v>
-      </c>
       <c r="I332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J332" t="n">
+        <v>0</v>
+      </c>
+      <c r="K332" t="n">
         <v>279.2</v>
       </c>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr">
+      <c r="L332" t="n">
+        <v>278</v>
+      </c>
+      <c r="M332" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M332" t="n">
+      <c r="N332" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12055,24 +13133,29 @@
         <v>1746.8999</v>
       </c>
       <c r="G333" t="n">
+        <v>278.9800000000001</v>
+      </c>
+      <c r="H333" t="n">
         <v>282.2366666666665</v>
       </c>
-      <c r="H333" t="n">
-        <v>1</v>
-      </c>
       <c r="I333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" t="n">
+        <v>0</v>
+      </c>
+      <c r="K333" t="n">
         <v>279.3</v>
       </c>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr">
+      <c r="L333" t="n">
+        <v>278</v>
+      </c>
+      <c r="M333" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M333" t="n">
+      <c r="N333" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12096,24 +13179,467 @@
         <v>3276.6411</v>
       </c>
       <c r="G334" t="n">
+        <v>278.9400000000002</v>
+      </c>
+      <c r="H334" t="n">
         <v>282.1016666666664</v>
       </c>
-      <c r="H334" t="n">
-        <v>1</v>
-      </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
       <c r="J334" t="n">
-        <v>280.3</v>
+        <v>0</v>
       </c>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr">
+      <c r="L334" t="n">
+        <v>278</v>
+      </c>
+      <c r="M334" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M334" t="n">
+      <c r="N334" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>280.4</v>
+      </c>
+      <c r="C335" t="n">
+        <v>280.4</v>
+      </c>
+      <c r="D335" t="n">
+        <v>280.4</v>
+      </c>
+      <c r="E335" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="F335" t="n">
+        <v>4557.8169</v>
+      </c>
+      <c r="G335" t="n">
+        <v>279.0333333333335</v>
+      </c>
+      <c r="H335" t="n">
+        <v>282.0033333333331</v>
+      </c>
+      <c r="I335" t="n">
+        <v>0</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0</v>
+      </c>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="n">
+        <v>278</v>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N335" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>280.4</v>
+      </c>
+      <c r="C336" t="n">
+        <v>280.4</v>
+      </c>
+      <c r="D336" t="n">
+        <v>280.4</v>
+      </c>
+      <c r="E336" t="n">
+        <v>280.4</v>
+      </c>
+      <c r="F336" t="n">
+        <v>2208.2284</v>
+      </c>
+      <c r="G336" t="n">
+        <v>279.1933333333334</v>
+      </c>
+      <c r="H336" t="n">
+        <v>281.9049999999998</v>
+      </c>
+      <c r="I336" t="n">
+        <v>0</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0</v>
+      </c>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="n">
+        <v>278</v>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N336" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>279.6</v>
+      </c>
+      <c r="C337" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="D337" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="E337" t="n">
+        <v>278.6</v>
+      </c>
+      <c r="F337" t="n">
+        <v>4006.3091</v>
+      </c>
+      <c r="G337" t="n">
+        <v>279.3866666666667</v>
+      </c>
+      <c r="H337" t="n">
+        <v>281.8399999999999</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0</v>
+      </c>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="n">
+        <v>278</v>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N337" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>282.4</v>
+      </c>
+      <c r="C338" t="n">
+        <v>282.4</v>
+      </c>
+      <c r="D338" t="n">
+        <v>282.4</v>
+      </c>
+      <c r="E338" t="n">
+        <v>282.4</v>
+      </c>
+      <c r="F338" t="n">
+        <v>1200.4405</v>
+      </c>
+      <c r="G338" t="n">
+        <v>279.5733333333334</v>
+      </c>
+      <c r="H338" t="n">
+        <v>281.7766666666665</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0</v>
+      </c>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="n">
+        <v>278</v>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="C339" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="D339" t="n">
+        <v>282.3</v>
+      </c>
+      <c r="E339" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="F339" t="n">
+        <v>548.2708</v>
+      </c>
+      <c r="G339" t="n">
+        <v>279.8533333333334</v>
+      </c>
+      <c r="H339" t="n">
+        <v>281.7116666666665</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0</v>
+      </c>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="n">
+        <v>278</v>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N339" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="C340" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="D340" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="E340" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="F340" t="n">
+        <v>2863.5826</v>
+      </c>
+      <c r="G340" t="n">
+        <v>280.1533333333334</v>
+      </c>
+      <c r="H340" t="n">
+        <v>281.6549999999999</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0</v>
+      </c>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="n">
+        <v>278</v>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="C341" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="D341" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="E341" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="F341" t="n">
+        <v>12.5223</v>
+      </c>
+      <c r="G341" t="n">
+        <v>280.4</v>
+      </c>
+      <c r="H341" t="n">
+        <v>281.59</v>
+      </c>
+      <c r="I341" t="n">
+        <v>0</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0</v>
+      </c>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="n">
+        <v>278</v>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N341" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>283.9</v>
+      </c>
+      <c r="C342" t="n">
+        <v>283.9</v>
+      </c>
+      <c r="D342" t="n">
+        <v>283.9</v>
+      </c>
+      <c r="E342" t="n">
+        <v>283.9</v>
+      </c>
+      <c r="F342" t="n">
+        <v>10</v>
+      </c>
+      <c r="G342" t="n">
+        <v>280.76</v>
+      </c>
+      <c r="H342" t="n">
+        <v>281.5616666666667</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0</v>
+      </c>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="n">
+        <v>278</v>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N342" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="C343" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="D343" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="E343" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="F343" t="n">
+        <v>2124.0057</v>
+      </c>
+      <c r="G343" t="n">
+        <v>280.8999999999999</v>
+      </c>
+      <c r="H343" t="n">
+        <v>281.5050000000001</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0</v>
+      </c>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="n">
+        <v>278</v>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N343" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="C344" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="D344" t="n">
+        <v>282.7</v>
+      </c>
+      <c r="E344" t="n">
+        <v>282.2</v>
+      </c>
+      <c r="F344" t="n">
+        <v>4444.9998</v>
+      </c>
+      <c r="G344" t="n">
+        <v>281.1466666666666</v>
+      </c>
+      <c r="H344" t="n">
+        <v>281.4266666666667</v>
+      </c>
+      <c r="I344" t="n">
+        <v>0</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0</v>
+      </c>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="n">
+        <v>278</v>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N344" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest MTL.xlsx
+++ b/BackTest/2020-01-21 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>16584.26319432001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>20467.95499432</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>29172.79529432</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>29172.79529432</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>29172.79529432</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>28832.25589432</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>23286.37209432</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>23923.17569432</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-922.1071056799998</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>1373.17009432</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>447.9842943200001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>447.9842943200001</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>447.9842943200001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>447.9842943200001</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>447.9842943200001</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>447.9842943200001</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>447.9842943200001</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>8643.45239432</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>8643.45239432</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>8643.45239432</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>10207.85219432</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>10068.85229432</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>10068.85229432</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>8509.852294319999</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>7334.513694319999</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>4897.945594319999</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>381.3917739499993</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-19809.10522605</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-16267.27292605</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-16267.27292605</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-14348.37132605</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-13954.86712605</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-13954.86712605</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-13922.86712605</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-14200.55002605</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-14908.92182605</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-14904.40522605</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-18103.26962605</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-18103.26962605</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-18081.94102605</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-17558.87722605</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-18270.28702605</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-17981.44962605</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-18127.66042605</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-12409.31232605</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-12409.31232605</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-29294.03680838</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-29294.03680838</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-29201.08810838</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-29201.08810838</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-33101.11600838</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-36821.79310838</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-35058.06260838</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-40349.69760838</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-60640.57604661</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-60790.57604661</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-66715.82224549999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-66715.82224549999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-66715.82224549999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-66911.44224549999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-70503.50984549998</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-72911.44224549999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-72911.44224549999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-72911.44224549999</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-72911.44224549999</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-72301.28414549999</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-73330.75314549998</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-70637.63694549998</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-70637.63694549998</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-70637.63694549998</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-70637.63694549998</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-75263.32554549997</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-73757.10784549998</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-75751.61374549998</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-101559.8884455</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-101551.0884455</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-101026.2778455</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-101459.5988455</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-97642.2757455</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-86942.2757455</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-412422.4078455</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-412422.4078455</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-461328.3904367101</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-459656.0520367101</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-459656.0520367101</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-461834.9708367101</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-462352.6166367101</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-436591.2851367102</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-436628.4740367102</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-436622.9740367102</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-436648.0141367101</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-437781.0669367102</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-447272.6473367101</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-468918.9398367101</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-468918.9398367101</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-468909.9398367101</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-475507.1334367101</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-490375.2899367101</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-501180.7322367101</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12927,8 +12927,12 @@
       <c r="H380" t="n">
         <v>1</v>
       </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+      <c r="I380" t="n">
+        <v>278</v>
+      </c>
+      <c r="J380" t="n">
+        <v>278</v>
+      </c>
       <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
@@ -12958,11 +12962,19 @@
         <v>-501135.2909367101</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>279.3</v>
+      </c>
+      <c r="J381" t="n">
+        <v>278</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12991,11 +13003,19 @@
         <v>-506658.7581367101</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>279.6</v>
+      </c>
+      <c r="J382" t="n">
+        <v>278</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13024,11 +13044,19 @@
         <v>-507352.9868367101</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>278</v>
+      </c>
+      <c r="J383" t="n">
+        <v>278</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13057,11 +13085,19 @@
         <v>-504632.4092367101</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>277.7</v>
+      </c>
+      <c r="J384" t="n">
+        <v>278</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13090,11 +13126,19 @@
         <v>-504632.4092367101</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="J385" t="n">
+        <v>278</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13123,11 +13167,19 @@
         <v>-504271.98483671</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="J386" t="n">
+        <v>278</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13156,15 +13208,17 @@
         <v>-505149.91323671</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I387" t="n">
         <v>280.1</v>
       </c>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>278</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L387" t="n">
@@ -13195,12 +13249,14 @@
         <v>-501816.96593671</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I388" t="n">
         <v>278.5</v>
       </c>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>278</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13234,12 +13290,14 @@
         <v>-481245.91533671</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I389" t="n">
         <v>278.8</v>
       </c>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>278</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13273,12 +13331,14 @@
         <v>-479729.11533671</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I390" t="n">
         <v>279.2</v>
       </c>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>278</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13312,12 +13372,14 @@
         <v>-477982.21543671</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I391" t="n">
         <v>279.3</v>
       </c>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>278</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13351,12 +13413,14 @@
         <v>-481258.85653671</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>280.3</v>
       </c>
-      <c r="J392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>278</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13390,12 +13454,14 @@
         <v>-476701.03963671</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I393" t="n">
         <v>279.3</v>
       </c>
-      <c r="J393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>278</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13429,12 +13495,14 @@
         <v>-476701.03963671</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I394" t="n">
         <v>280.4</v>
       </c>
-      <c r="J394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>278</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13468,10 +13536,14 @@
         <v>-472694.73053671</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>280.4</v>
+      </c>
+      <c r="J395" t="n">
+        <v>278</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13508,7 +13580,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>278</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13545,7 +13619,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>278</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13582,7 +13658,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>278</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13619,7 +13697,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>278</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13656,7 +13736,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>278</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13690,12 +13772,12 @@
         <v>-474156.56653671</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
-      </c>
-      <c r="I401" t="n">
-        <v>283.9</v>
-      </c>
-      <c r="J401" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>278</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13729,12 +13811,12 @@
         <v>-474156.56653671</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
-      </c>
-      <c r="I402" t="n">
-        <v>282.2</v>
-      </c>
-      <c r="J402" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>278</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13746,6 +13828,6 @@
       <c r="M402" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest MTL.xlsx
+++ b/BackTest/2020-01-21 BackTest MTL.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>16584.26319432001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>23286.37209432</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>1373.17009432</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>447.9842943200001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>447.9842943200001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>447.9842943200001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>447.9842943200001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>8643.45239432</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>8643.45239432</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>10207.85219432</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>10068.85229432</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>8509.852294319999</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>4897.945594319999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>381.3917739499993</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-19809.10522605</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-16267.27292605</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-16267.27292605</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-14348.37132605</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-13954.86712605</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-13954.86712605</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-13922.86712605</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-14200.55002605</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-14908.92182605</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-14904.40522605</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-18103.26962605</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-18103.26962605</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-18081.94102605</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-17558.87722605</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-18270.28702605</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-17981.44962605</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-18127.66042605</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-29201.08810838</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-29201.08810838</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-35254.10335218</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-35500.78415218</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-40316.74885218</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-41017.57835218</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-60675.41925218</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-58519.7433455</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-66715.82224549999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-66715.82224549999</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-66715.82224549999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-66715.82224549999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-66911.44224549999</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-70503.50984549998</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-72911.44224549999</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-72911.44224549999</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-70637.63694549998</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-434494.1958454999</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-434154.8559454998</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-434554.8558454998</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-434521.8572450898</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-434169.8572450898</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-434169.8572450898</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-434169.8572450898</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-434169.8572450898</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-434497.0625616299</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-436260.7930616299</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-436258.9930616299</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-437413.9909616299</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-436106.3701616299</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-434792.5004616299</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-434792.5004616299</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-437330.90046163</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-437504.30046163</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-436354.47796163</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-436354.47796163</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -12925,14 +12925,10 @@
         <v>-501140.6909367101</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>278</v>
-      </c>
-      <c r="J380" t="n">
-        <v>278</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
@@ -12968,13 +12964,9 @@
         <v>279.3</v>
       </c>
       <c r="J381" t="n">
-        <v>278</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>279.3</v>
+      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13003,13 +12995,11 @@
         <v>-506658.7581367101</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>279.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
-        <v>278</v>
+        <v>279.3</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13050,7 +13040,7 @@
         <v>278</v>
       </c>
       <c r="J383" t="n">
-        <v>278</v>
+        <v>279.3</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13091,7 +13081,7 @@
         <v>277.7</v>
       </c>
       <c r="J384" t="n">
-        <v>278</v>
+        <v>279.3</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13132,7 +13122,7 @@
         <v>278.5</v>
       </c>
       <c r="J385" t="n">
-        <v>278</v>
+        <v>279.3</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13173,7 +13163,7 @@
         <v>278.5</v>
       </c>
       <c r="J386" t="n">
-        <v>278</v>
+        <v>279.3</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13214,7 +13204,7 @@
         <v>280.1</v>
       </c>
       <c r="J387" t="n">
-        <v>278</v>
+        <v>279.3</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13255,7 +13245,7 @@
         <v>278.5</v>
       </c>
       <c r="J388" t="n">
-        <v>278</v>
+        <v>279.3</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13296,7 +13286,7 @@
         <v>278.8</v>
       </c>
       <c r="J389" t="n">
-        <v>278</v>
+        <v>279.3</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13331,13 +13321,11 @@
         <v>-479729.11533671</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>279.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
-        <v>278</v>
+        <v>279.3</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13372,13 +13360,11 @@
         <v>-477982.21543671</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="n">
         <v>279.3</v>
-      </c>
-      <c r="J391" t="n">
-        <v>278</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13413,13 +13399,11 @@
         <v>-481258.85653671</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>280.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
-        <v>278</v>
+        <v>279.3</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13454,13 +13438,11 @@
         <v>-476701.03963671</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="n">
         <v>279.3</v>
-      </c>
-      <c r="J393" t="n">
-        <v>278</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13495,13 +13477,11 @@
         <v>-476701.03963671</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>280.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>278</v>
+        <v>279.3</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13536,13 +13516,11 @@
         <v>-472694.73053671</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>280.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>278</v>
+        <v>279.3</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -13581,7 +13559,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>278</v>
+        <v>279.3</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -13620,7 +13598,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>278</v>
+        <v>279.3</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -13659,7 +13637,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>278</v>
+        <v>279.3</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -13698,7 +13676,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>278</v>
+        <v>279.3</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -13737,7 +13715,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>278</v>
+        <v>279.3</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -13776,7 +13754,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>278</v>
+        <v>279.3</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -13815,7 +13793,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>278</v>
+        <v>279.3</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -13828,6 +13806,6 @@
       <c r="M402" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest MTL.xlsx
+++ b/BackTest/2020-01-21 BackTest MTL.xlsx
@@ -451,7 +451,7 @@
         <v>16584.26319432001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>17102.35269432</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>14360.85019432</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>14360.85019432</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>3784.453294320005</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>14799.35529432</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>14524.35529432</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>9804.779294320004</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>9804.779294320004</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>9804.779294320004</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>9804.779294320004</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>9804.779294320004</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>20467.95499432</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>20467.95499432</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>29172.79529432</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>10207.85219432</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>10068.85229432</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-35254.10335218</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-35500.78415218</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-40316.74885218</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-41017.57835218</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-60675.41925218</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-60640.57604661</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-60790.57604661</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-58519.7433455</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-66715.82224549999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-434494.1958454999</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-434154.8559454998</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-434554.8558454998</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-434521.8572450898</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-434169.8572450898</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-434169.8572450898</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-434169.8572450898</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-434169.8572450898</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-434497.0625616299</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-436260.7930616299</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-436258.9930616299</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-437413.9909616299</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-436106.3701616299</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-434792.5004616299</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-434792.5004616299</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-437330.90046163</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-437504.30046163</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-436354.47796163</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-436354.47796163</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -12958,14 +12958,10 @@
         <v>-501135.2909367101</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>279.3</v>
-      </c>
-      <c r="J381" t="n">
-        <v>279.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
@@ -12998,219 +12994,199 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>279.3</v>
-      </c>
-      <c r="K382" t="inlineStr">
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>277.7</v>
+      </c>
+      <c r="C383" t="n">
+        <v>277.7</v>
+      </c>
+      <c r="D383" t="n">
+        <v>277.7</v>
+      </c>
+      <c r="E383" t="n">
+        <v>277.7</v>
+      </c>
+      <c r="F383" t="n">
+        <v>694.2287</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-507352.9868367101</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="C384" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="D384" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="E384" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="F384" t="n">
+        <v>2720.5776</v>
+      </c>
+      <c r="G384" t="n">
+        <v>-504632.4092367101</v>
+      </c>
+      <c r="H384" t="n">
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>277.7</v>
+      </c>
+      <c r="J384" t="n">
+        <v>277.7</v>
+      </c>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="C385" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="D385" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="E385" t="n">
+        <v>277.8</v>
+      </c>
+      <c r="F385" t="n">
+        <v>2951.2282</v>
+      </c>
+      <c r="G385" t="n">
+        <v>-504632.4092367101</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>277.7</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="C386" t="n">
+        <v>280.1</v>
+      </c>
+      <c r="D386" t="n">
+        <v>280.1</v>
+      </c>
+      <c r="E386" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="F386" t="n">
+        <v>360.4244</v>
+      </c>
+      <c r="G386" t="n">
+        <v>-504271.98483671</v>
+      </c>
+      <c r="H386" t="n">
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="J386" t="n">
+        <v>277.7</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>278.7</v>
+      </c>
+      <c r="C387" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="D387" t="n">
+        <v>278.7</v>
+      </c>
+      <c r="E387" t="n">
+        <v>278.5</v>
+      </c>
+      <c r="F387" t="n">
+        <v>877.9284</v>
+      </c>
+      <c r="G387" t="n">
+        <v>-505149.91323671</v>
+      </c>
+      <c r="H387" t="n">
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>280.1</v>
+      </c>
+      <c r="J387" t="n">
+        <v>277.7</v>
+      </c>
+      <c r="K387" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>277.7</v>
-      </c>
-      <c r="C383" t="n">
-        <v>277.7</v>
-      </c>
-      <c r="D383" t="n">
-        <v>277.7</v>
-      </c>
-      <c r="E383" t="n">
-        <v>277.7</v>
-      </c>
-      <c r="F383" t="n">
-        <v>694.2287</v>
-      </c>
-      <c r="G383" t="n">
-        <v>-507352.9868367101</v>
-      </c>
-      <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>278</v>
-      </c>
-      <c r="J383" t="n">
-        <v>279.3</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>278.5</v>
-      </c>
-      <c r="C384" t="n">
-        <v>278.5</v>
-      </c>
-      <c r="D384" t="n">
-        <v>278.5</v>
-      </c>
-      <c r="E384" t="n">
-        <v>278.5</v>
-      </c>
-      <c r="F384" t="n">
-        <v>2720.5776</v>
-      </c>
-      <c r="G384" t="n">
-        <v>-504632.4092367101</v>
-      </c>
-      <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>277.7</v>
-      </c>
-      <c r="J384" t="n">
-        <v>279.3</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>278.5</v>
-      </c>
-      <c r="C385" t="n">
-        <v>278.5</v>
-      </c>
-      <c r="D385" t="n">
-        <v>278.5</v>
-      </c>
-      <c r="E385" t="n">
-        <v>277.8</v>
-      </c>
-      <c r="F385" t="n">
-        <v>2951.2282</v>
-      </c>
-      <c r="G385" t="n">
-        <v>-504632.4092367101</v>
-      </c>
-      <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>278.5</v>
-      </c>
-      <c r="J385" t="n">
-        <v>279.3</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L385" t="n">
-        <v>1</v>
-      </c>
-      <c r="M385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>278.5</v>
-      </c>
-      <c r="C386" t="n">
-        <v>280.1</v>
-      </c>
-      <c r="D386" t="n">
-        <v>280.1</v>
-      </c>
-      <c r="E386" t="n">
-        <v>278.5</v>
-      </c>
-      <c r="F386" t="n">
-        <v>360.4244</v>
-      </c>
-      <c r="G386" t="n">
-        <v>-504271.98483671</v>
-      </c>
-      <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>278.5</v>
-      </c>
-      <c r="J386" t="n">
-        <v>279.3</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L386" t="n">
-        <v>1</v>
-      </c>
-      <c r="M386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>278.7</v>
-      </c>
-      <c r="C387" t="n">
-        <v>278.5</v>
-      </c>
-      <c r="D387" t="n">
-        <v>278.7</v>
-      </c>
-      <c r="E387" t="n">
-        <v>278.5</v>
-      </c>
-      <c r="F387" t="n">
-        <v>877.9284</v>
-      </c>
-      <c r="G387" t="n">
-        <v>-505149.91323671</v>
-      </c>
-      <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>280.1</v>
-      </c>
-      <c r="J387" t="n">
-        <v>279.3</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13245,7 +13221,7 @@
         <v>278.5</v>
       </c>
       <c r="J388" t="n">
-        <v>279.3</v>
+        <v>277.7</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13286,7 +13262,7 @@
         <v>278.8</v>
       </c>
       <c r="J389" t="n">
-        <v>279.3</v>
+        <v>277.7</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13321,11 +13297,13 @@
         <v>-479729.11533671</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>279.2</v>
+      </c>
       <c r="J390" t="n">
-        <v>279.3</v>
+        <v>277.7</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13360,11 +13338,13 @@
         <v>-477982.21543671</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>279.3</v>
+      </c>
       <c r="J391" t="n">
-        <v>279.3</v>
+        <v>277.7</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13399,11 +13379,13 @@
         <v>-481258.85653671</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>280.3</v>
+      </c>
       <c r="J392" t="n">
-        <v>279.3</v>
+        <v>277.7</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13438,11 +13420,13 @@
         <v>-476701.03963671</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>279.3</v>
+      </c>
       <c r="J393" t="n">
-        <v>279.3</v>
+        <v>277.7</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13477,11 +13461,13 @@
         <v>-476701.03963671</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>280.4</v>
+      </c>
       <c r="J394" t="n">
-        <v>279.3</v>
+        <v>277.7</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13520,7 +13506,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>279.3</v>
+        <v>277.7</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -13559,7 +13545,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>279.3</v>
+        <v>277.7</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -13598,7 +13584,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>279.3</v>
+        <v>277.7</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -13637,7 +13623,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>279.3</v>
+        <v>277.7</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -13676,7 +13662,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>279.3</v>
+        <v>277.7</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -13715,7 +13701,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>279.3</v>
+        <v>277.7</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -13754,7 +13740,7 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
-        <v>279.3</v>
+        <v>277.7</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -13793,7 +13779,7 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
-        <v>279.3</v>
+        <v>277.7</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
